--- a/input/PROC_Centross.xlsx
+++ b/input/PROC_Centross.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jquipsec\Documents\Projects Develop\AUTOMATIZACION DE FORMULARIOS\Automatizacion-Formulario-Py\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgutierh\Documents\Automatizacion de formularios con Python\Automatizacion-Formulario-Py\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -787,7 +787,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -831,7 +831,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,7 +875,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -919,7 +919,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,7 +963,7 @@
         <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1007,7 +1007,7 @@
         <xdr:cNvPr id="7" name="Imagen 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1051,7 +1051,7 @@
         <xdr:cNvPr id="8" name="Imagen 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1095,7 +1095,7 @@
         <xdr:cNvPr id="9" name="Imagen 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,7 +1139,7 @@
         <xdr:cNvPr id="10" name="Imagen 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1183,7 +1183,7 @@
         <xdr:cNvPr id="11" name="Imagen 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1227,7 +1227,7 @@
         <xdr:cNvPr id="12" name="Imagen 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,7 +1271,7 @@
         <xdr:cNvPr id="13" name="Imagen 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1315,7 @@
         <xdr:cNvPr id="14" name="Imagen 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1359,7 @@
         <xdr:cNvPr id="15" name="Imagen 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,6 +1390,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:AJ906" totalsRowShown="0">
+  <autoFilter ref="A1:AJ906">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Contratación"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="36">
     <tableColumn id="1" name="FAMILIA"/>
     <tableColumn id="2" name="CÓDIGO DE PROCEDIMIENTO" dataDxfId="29"/>
@@ -1717,36 +1724,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ906"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" customWidth="1"/>
+    <col min="1" max="1" width="58.88671875" customWidth="1"/>
     <col min="2" max="2" width="30" style="12" customWidth="1"/>
-    <col min="3" max="3" width="86.140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="53.28515625" style="12" customWidth="1"/>
-    <col min="5" max="8" width="40.85546875" style="13" customWidth="1"/>
-    <col min="9" max="14" width="46.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="86.109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" style="12" customWidth="1"/>
+    <col min="5" max="8" width="40.88671875" style="13" customWidth="1"/>
+    <col min="9" max="14" width="46.6640625" style="13" customWidth="1"/>
     <col min="15" max="15" width="39" style="1" customWidth="1"/>
-    <col min="16" max="16" width="35.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="31.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="35.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="31.33203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="54" style="1" customWidth="1"/>
-    <col min="19" max="19" width="44.85546875" customWidth="1"/>
-    <col min="20" max="23" width="43.7109375" customWidth="1"/>
-    <col min="24" max="24" width="37.42578125" customWidth="1"/>
-    <col min="25" max="25" width="65.85546875" customWidth="1"/>
-    <col min="26" max="26" width="35.5703125" customWidth="1"/>
-    <col min="27" max="27" width="48.85546875" customWidth="1"/>
-    <col min="28" max="28" width="95.5703125" customWidth="1"/>
-    <col min="29" max="29" width="68.85546875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="17.85546875" customWidth="1"/>
-    <col min="31" max="33" width="36.28515625" customWidth="1"/>
+    <col min="19" max="19" width="44.88671875" customWidth="1"/>
+    <col min="20" max="23" width="43.6640625" customWidth="1"/>
+    <col min="24" max="24" width="37.44140625" customWidth="1"/>
+    <col min="25" max="25" width="65.88671875" customWidth="1"/>
+    <col min="26" max="26" width="35.5546875" customWidth="1"/>
+    <col min="27" max="27" width="48.88671875" customWidth="1"/>
+    <col min="28" max="28" width="95.5546875" customWidth="1"/>
+    <col min="29" max="29" width="68.88671875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.88671875" customWidth="1"/>
+    <col min="31" max="33" width="36.33203125" customWidth="1"/>
     <col min="34" max="34" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1966,7 +1973,7 @@
       </c>
       <c r="AJ2" s="1"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2076,7 +2083,7 @@
       </c>
       <c r="AJ3" s="1"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2186,7 +2193,7 @@
       </c>
       <c r="AJ4" s="1"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2296,7 +2303,7 @@
       </c>
       <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2406,7 +2413,7 @@
       </c>
       <c r="AJ6" s="1"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2516,7 +2523,7 @@
       </c>
       <c r="AJ7" s="1"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2580,7 +2587,7 @@
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2690,7 +2697,7 @@
       </c>
       <c r="AJ9" s="1"/>
     </row>
-    <row r="10" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2802,7 +2809,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2912,7 +2919,7 @@
       </c>
       <c r="AJ11" s="1"/>
     </row>
-    <row r="12" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -3022,7 +3029,7 @@
       </c>
       <c r="AJ12" s="1"/>
     </row>
-    <row r="13" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3134,7 +3141,7 @@
       </c>
       <c r="AJ13" s="1"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3244,7 +3251,7 @@
       </c>
       <c r="AJ14" s="1"/>
     </row>
-    <row r="15" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3349,7 +3356,7 @@
       </c>
       <c r="AJ15" s="1"/>
     </row>
-    <row r="16" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3456,7 +3463,7 @@
       </c>
       <c r="AJ16" s="1"/>
     </row>
-    <row r="17" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -3561,7 +3568,7 @@
       </c>
       <c r="AJ17" s="1"/>
     </row>
-    <row r="18" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -3673,7 +3680,7 @@
       </c>
       <c r="AJ18" s="1"/>
     </row>
-    <row r="19" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3785,7 +3792,7 @@
       </c>
       <c r="AJ19" s="1"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3895,7 +3902,7 @@
       </c>
       <c r="AJ20" s="1"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -3926,7 +3933,7 @@
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -3957,7 +3964,7 @@
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -3988,7 +3995,7 @@
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -4019,7 +4026,7 @@
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -4050,7 +4057,7 @@
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -4081,7 +4088,7 @@
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -4112,7 +4119,7 @@
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -4143,7 +4150,7 @@
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -4174,7 +4181,7 @@
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -4205,7 +4212,7 @@
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -4236,7 +4243,7 @@
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -4267,7 +4274,7 @@
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -4298,7 +4305,7 @@
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -4329,7 +4336,7 @@
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -4360,7 +4367,7 @@
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -4391,7 +4398,7 @@
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -4422,7 +4429,7 @@
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -4453,7 +4460,7 @@
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -4484,7 +4491,7 @@
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -4515,7 +4522,7 @@
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
     </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -4546,7 +4553,7 @@
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
     </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -4577,7 +4584,7 @@
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
     </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -4608,7 +4615,7 @@
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
@@ -4639,7 +4646,7 @@
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
     </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -4670,7 +4677,7 @@
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -4701,7 +4708,7 @@
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
     </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -4732,7 +4739,7 @@
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
     </row>
-    <row r="48" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -4763,7 +4770,7 @@
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
     </row>
-    <row r="49" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -4794,7 +4801,7 @@
       <c r="AI49" s="1"/>
       <c r="AJ49" s="1"/>
     </row>
-    <row r="50" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -4825,7 +4832,7 @@
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
     </row>
-    <row r="51" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
@@ -4856,7 +4863,7 @@
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
     </row>
-    <row r="52" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -4887,7 +4894,7 @@
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
     </row>
-    <row r="53" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="15"/>
       <c r="C53" s="16"/>
       <c r="D53" s="15"/>
@@ -4918,7 +4925,7 @@
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
     </row>
-    <row r="54" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -4949,7 +4956,7 @@
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
     </row>
-    <row r="55" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="15"/>
       <c r="C55" s="16"/>
       <c r="D55" s="15"/>
@@ -4980,7 +4987,7 @@
       <c r="AI55" s="1"/>
       <c r="AJ55" s="1"/>
     </row>
-    <row r="56" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="15"/>
       <c r="C56" s="16"/>
       <c r="D56" s="15"/>
@@ -5011,7 +5018,7 @@
       <c r="AI56" s="1"/>
       <c r="AJ56" s="1"/>
     </row>
-    <row r="57" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -5042,7 +5049,7 @@
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
     </row>
-    <row r="58" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -5073,7 +5080,7 @@
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
     </row>
-    <row r="59" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -5104,7 +5111,7 @@
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
     </row>
-    <row r="60" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -5135,7 +5142,7 @@
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
     </row>
-    <row r="61" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
@@ -5166,7 +5173,7 @@
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
     </row>
-    <row r="62" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="15"/>
@@ -5197,7 +5204,7 @@
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
     </row>
-    <row r="63" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -5228,7 +5235,7 @@
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
     </row>
-    <row r="64" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -5259,7 +5266,7 @@
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
     </row>
-    <row r="65" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -5290,7 +5297,7 @@
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
     </row>
-    <row r="66" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
@@ -5321,7 +5328,7 @@
       <c r="AI66" s="1"/>
       <c r="AJ66" s="1"/>
     </row>
-    <row r="67" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
@@ -5352,7 +5359,7 @@
       <c r="AI67" s="1"/>
       <c r="AJ67" s="1"/>
     </row>
-    <row r="68" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
@@ -5383,7 +5390,7 @@
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
     </row>
-    <row r="69" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
@@ -5414,7 +5421,7 @@
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
     </row>
-    <row r="70" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
@@ -5445,7 +5452,7 @@
       <c r="AI70" s="1"/>
       <c r="AJ70" s="1"/>
     </row>
-    <row r="71" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
@@ -5476,7 +5483,7 @@
       <c r="AI71" s="1"/>
       <c r="AJ71" s="1"/>
     </row>
-    <row r="72" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
@@ -5507,7 +5514,7 @@
       <c r="AI72" s="1"/>
       <c r="AJ72" s="1"/>
     </row>
-    <row r="73" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -5538,7 +5545,7 @@
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
     </row>
-    <row r="74" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
@@ -5569,7 +5576,7 @@
       <c r="AI74" s="1"/>
       <c r="AJ74" s="1"/>
     </row>
-    <row r="75" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
@@ -5600,7 +5607,7 @@
       <c r="AI75" s="1"/>
       <c r="AJ75" s="1"/>
     </row>
-    <row r="76" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
@@ -5631,7 +5638,7 @@
       <c r="AI76" s="1"/>
       <c r="AJ76" s="1"/>
     </row>
-    <row r="77" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
@@ -5662,7 +5669,7 @@
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
     </row>
-    <row r="78" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
@@ -5693,7 +5700,7 @@
       <c r="AI78" s="1"/>
       <c r="AJ78" s="1"/>
     </row>
-    <row r="79" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
@@ -5724,7 +5731,7 @@
       <c r="AI79" s="1"/>
       <c r="AJ79" s="1"/>
     </row>
-    <row r="80" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
@@ -5755,7 +5762,7 @@
       <c r="AI80" s="1"/>
       <c r="AJ80" s="1"/>
     </row>
-    <row r="81" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
@@ -5786,7 +5793,7 @@
       <c r="AI81" s="1"/>
       <c r="AJ81" s="1"/>
     </row>
-    <row r="82" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
@@ -5817,7 +5824,7 @@
       <c r="AI82" s="1"/>
       <c r="AJ82" s="1"/>
     </row>
-    <row r="83" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
@@ -5848,7 +5855,7 @@
       <c r="AI83" s="1"/>
       <c r="AJ83" s="1"/>
     </row>
-    <row r="84" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
@@ -5879,7 +5886,7 @@
       <c r="AI84" s="1"/>
       <c r="AJ84" s="1"/>
     </row>
-    <row r="85" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
@@ -5910,7 +5917,7 @@
       <c r="AI85" s="1"/>
       <c r="AJ85" s="1"/>
     </row>
-    <row r="86" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
@@ -5941,7 +5948,7 @@
       <c r="AI86" s="1"/>
       <c r="AJ86" s="1"/>
     </row>
-    <row r="87" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
@@ -5972,7 +5979,7 @@
       <c r="AI87" s="1"/>
       <c r="AJ87" s="1"/>
     </row>
-    <row r="88" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
@@ -6003,7 +6010,7 @@
       <c r="AI88" s="1"/>
       <c r="AJ88" s="1"/>
     </row>
-    <row r="89" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
@@ -6034,7 +6041,7 @@
       <c r="AI89" s="1"/>
       <c r="AJ89" s="1"/>
     </row>
-    <row r="90" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
@@ -6065,7 +6072,7 @@
       <c r="AI90" s="1"/>
       <c r="AJ90" s="1"/>
     </row>
-    <row r="91" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
@@ -6096,7 +6103,7 @@
       <c r="AI91" s="1"/>
       <c r="AJ91" s="1"/>
     </row>
-    <row r="92" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
@@ -6127,7 +6134,7 @@
       <c r="AI92" s="1"/>
       <c r="AJ92" s="1"/>
     </row>
-    <row r="93" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
@@ -6158,7 +6165,7 @@
       <c r="AI93" s="1"/>
       <c r="AJ93" s="1"/>
     </row>
-    <row r="94" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
@@ -6189,7 +6196,7 @@
       <c r="AI94" s="1"/>
       <c r="AJ94" s="1"/>
     </row>
-    <row r="95" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
@@ -6220,7 +6227,7 @@
       <c r="AI95" s="1"/>
       <c r="AJ95" s="1"/>
     </row>
-    <row r="96" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
@@ -6251,7 +6258,7 @@
       <c r="AI96" s="1"/>
       <c r="AJ96" s="1"/>
     </row>
-    <row r="97" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
@@ -6282,7 +6289,7 @@
       <c r="AI97" s="1"/>
       <c r="AJ97" s="1"/>
     </row>
-    <row r="98" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
@@ -6313,7 +6320,7 @@
       <c r="AI98" s="1"/>
       <c r="AJ98" s="1"/>
     </row>
-    <row r="99" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
@@ -6344,7 +6351,7 @@
       <c r="AI99" s="1"/>
       <c r="AJ99" s="1"/>
     </row>
-    <row r="100" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
@@ -6375,7 +6382,7 @@
       <c r="AI100" s="1"/>
       <c r="AJ100" s="1"/>
     </row>
-    <row r="101" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
@@ -6406,7 +6413,7 @@
       <c r="AI101" s="1"/>
       <c r="AJ101" s="1"/>
     </row>
-    <row r="102" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
@@ -6437,7 +6444,7 @@
       <c r="AI102" s="1"/>
       <c r="AJ102" s="1"/>
     </row>
-    <row r="103" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
@@ -6468,7 +6475,7 @@
       <c r="AI103" s="1"/>
       <c r="AJ103" s="1"/>
     </row>
-    <row r="104" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
@@ -6499,7 +6506,7 @@
       <c r="AI104" s="1"/>
       <c r="AJ104" s="1"/>
     </row>
-    <row r="105" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
@@ -6530,7 +6537,7 @@
       <c r="AI105" s="1"/>
       <c r="AJ105" s="1"/>
     </row>
-    <row r="106" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
@@ -6561,7 +6568,7 @@
       <c r="AI106" s="1"/>
       <c r="AJ106" s="1"/>
     </row>
-    <row r="107" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
@@ -6592,7 +6599,7 @@
       <c r="AI107" s="1"/>
       <c r="AJ107" s="1"/>
     </row>
-    <row r="108" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
@@ -6623,7 +6630,7 @@
       <c r="AI108" s="1"/>
       <c r="AJ108" s="1"/>
     </row>
-    <row r="109" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
@@ -6654,7 +6661,7 @@
       <c r="AI109" s="1"/>
       <c r="AJ109" s="1"/>
     </row>
-    <row r="110" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
@@ -6685,7 +6692,7 @@
       <c r="AI110" s="1"/>
       <c r="AJ110" s="1"/>
     </row>
-    <row r="111" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
@@ -6716,7 +6723,7 @@
       <c r="AI111" s="1"/>
       <c r="AJ111" s="1"/>
     </row>
-    <row r="112" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
@@ -6747,7 +6754,7 @@
       <c r="AI112" s="1"/>
       <c r="AJ112" s="1"/>
     </row>
-    <row r="113" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
@@ -6778,7 +6785,7 @@
       <c r="AI113" s="1"/>
       <c r="AJ113" s="1"/>
     </row>
-    <row r="114" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
@@ -6809,7 +6816,7 @@
       <c r="AI114" s="1"/>
       <c r="AJ114" s="1"/>
     </row>
-    <row r="115" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
@@ -6840,7 +6847,7 @@
       <c r="AI115" s="1"/>
       <c r="AJ115" s="1"/>
     </row>
-    <row r="116" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
@@ -6871,7 +6878,7 @@
       <c r="AI116" s="1"/>
       <c r="AJ116" s="1"/>
     </row>
-    <row r="117" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
@@ -6902,7 +6909,7 @@
       <c r="AI117" s="1"/>
       <c r="AJ117" s="1"/>
     </row>
-    <row r="118" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" s="15"/>
       <c r="C118" s="15"/>
       <c r="D118" s="15"/>
@@ -6933,7 +6940,7 @@
       <c r="AI118" s="1"/>
       <c r="AJ118" s="1"/>
     </row>
-    <row r="119" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
@@ -6964,7 +6971,7 @@
       <c r="AI119" s="1"/>
       <c r="AJ119" s="1"/>
     </row>
-    <row r="120" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
@@ -6995,7 +7002,7 @@
       <c r="AI120" s="1"/>
       <c r="AJ120" s="1"/>
     </row>
-    <row r="121" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
@@ -7026,7 +7033,7 @@
       <c r="AI121" s="1"/>
       <c r="AJ121" s="1"/>
     </row>
-    <row r="122" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122" s="15"/>
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
@@ -7057,7 +7064,7 @@
       <c r="AI122" s="1"/>
       <c r="AJ122" s="1"/>
     </row>
-    <row r="123" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
@@ -7088,7 +7095,7 @@
       <c r="AI123" s="1"/>
       <c r="AJ123" s="1"/>
     </row>
-    <row r="124" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" s="15"/>
       <c r="C124" s="16"/>
       <c r="D124" s="15"/>
@@ -7119,7 +7126,7 @@
       <c r="AI124" s="1"/>
       <c r="AJ124" s="1"/>
     </row>
-    <row r="125" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125" s="15"/>
       <c r="C125" s="16"/>
       <c r="D125" s="15"/>
@@ -7150,7 +7157,7 @@
       <c r="AI125" s="1"/>
       <c r="AJ125" s="1"/>
     </row>
-    <row r="126" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" s="15"/>
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
@@ -7181,7 +7188,7 @@
       <c r="AI126" s="1"/>
       <c r="AJ126" s="1"/>
     </row>
-    <row r="127" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B127" s="15"/>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
@@ -7212,7 +7219,7 @@
       <c r="AI127" s="1"/>
       <c r="AJ127" s="1"/>
     </row>
-    <row r="128" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" s="15"/>
       <c r="C128" s="15"/>
       <c r="D128" s="15"/>
@@ -7243,7 +7250,7 @@
       <c r="AI128" s="1"/>
       <c r="AJ128" s="1"/>
     </row>
-    <row r="129" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
@@ -7274,7 +7281,7 @@
       <c r="AI129" s="1"/>
       <c r="AJ129" s="1"/>
     </row>
-    <row r="130" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" s="15"/>
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
@@ -7305,7 +7312,7 @@
       <c r="AI130" s="1"/>
       <c r="AJ130" s="1"/>
     </row>
-    <row r="131" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" s="15"/>
       <c r="C131" s="16"/>
       <c r="D131" s="15"/>
@@ -7336,7 +7343,7 @@
       <c r="AI131" s="1"/>
       <c r="AJ131" s="1"/>
     </row>
-    <row r="132" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" s="15"/>
       <c r="C132" s="15"/>
       <c r="D132" s="15"/>
@@ -7367,7 +7374,7 @@
       <c r="AI132" s="1"/>
       <c r="AJ132" s="1"/>
     </row>
-    <row r="133" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B133" s="15"/>
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
@@ -7398,7 +7405,7 @@
       <c r="AI133" s="1"/>
       <c r="AJ133" s="1"/>
     </row>
-    <row r="134" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B134" s="15"/>
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
@@ -7429,7 +7436,7 @@
       <c r="AI134" s="1"/>
       <c r="AJ134" s="1"/>
     </row>
-    <row r="135" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" s="15"/>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
@@ -7460,7 +7467,7 @@
       <c r="AI135" s="1"/>
       <c r="AJ135" s="1"/>
     </row>
-    <row r="136" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" s="15"/>
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
@@ -7491,7 +7498,7 @@
       <c r="AI136" s="1"/>
       <c r="AJ136" s="1"/>
     </row>
-    <row r="137" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" s="15"/>
       <c r="C137" s="15"/>
       <c r="D137" s="15"/>
@@ -7522,7 +7529,7 @@
       <c r="AI137" s="1"/>
       <c r="AJ137" s="1"/>
     </row>
-    <row r="138" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" s="15"/>
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
@@ -7553,7 +7560,7 @@
       <c r="AI138" s="1"/>
       <c r="AJ138" s="1"/>
     </row>
-    <row r="139" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
@@ -7584,7 +7591,7 @@
       <c r="AI139" s="1"/>
       <c r="AJ139" s="1"/>
     </row>
-    <row r="140" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" s="15"/>
       <c r="C140" s="15"/>
       <c r="D140" s="15"/>
@@ -7615,7 +7622,7 @@
       <c r="AI140" s="1"/>
       <c r="AJ140" s="1"/>
     </row>
-    <row r="141" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141" s="15"/>
       <c r="C141" s="15"/>
       <c r="D141" s="15"/>
@@ -7646,7 +7653,7 @@
       <c r="AI141" s="1"/>
       <c r="AJ141" s="1"/>
     </row>
-    <row r="142" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B142" s="15"/>
       <c r="C142" s="16"/>
       <c r="D142" s="15"/>
@@ -7677,7 +7684,7 @@
       <c r="AI142" s="1"/>
       <c r="AJ142" s="1"/>
     </row>
-    <row r="143" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" s="15"/>
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
@@ -7708,7 +7715,7 @@
       <c r="AI143" s="1"/>
       <c r="AJ143" s="1"/>
     </row>
-    <row r="144" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B144" s="15"/>
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
@@ -7739,7 +7746,7 @@
       <c r="AI144" s="1"/>
       <c r="AJ144" s="1"/>
     </row>
-    <row r="145" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145" s="15"/>
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
@@ -7770,7 +7777,7 @@
       <c r="AI145" s="1"/>
       <c r="AJ145" s="1"/>
     </row>
-    <row r="146" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146" s="15"/>
       <c r="C146" s="16"/>
       <c r="D146" s="15"/>
@@ -7801,7 +7808,7 @@
       <c r="AI146" s="1"/>
       <c r="AJ146" s="1"/>
     </row>
-    <row r="147" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147" s="15"/>
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
@@ -7832,7 +7839,7 @@
       <c r="AI147" s="1"/>
       <c r="AJ147" s="1"/>
     </row>
-    <row r="148" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
@@ -7863,7 +7870,7 @@
       <c r="AI148" s="1"/>
       <c r="AJ148" s="1"/>
     </row>
-    <row r="149" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" s="15"/>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
@@ -7894,7 +7901,7 @@
       <c r="AI149" s="1"/>
       <c r="AJ149" s="1"/>
     </row>
-    <row r="150" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150" s="15"/>
       <c r="C150" s="15"/>
       <c r="D150" s="15"/>
@@ -7925,7 +7932,7 @@
       <c r="AI150" s="1"/>
       <c r="AJ150" s="1"/>
     </row>
-    <row r="151" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B151" s="15"/>
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
@@ -7956,7 +7963,7 @@
       <c r="AI151" s="1"/>
       <c r="AJ151" s="1"/>
     </row>
-    <row r="152" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" s="15"/>
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
@@ -7987,7 +7994,7 @@
       <c r="AI152" s="1"/>
       <c r="AJ152" s="1"/>
     </row>
-    <row r="153" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153" s="15"/>
       <c r="C153" s="15"/>
       <c r="D153" s="15"/>
@@ -8018,7 +8025,7 @@
       <c r="AI153" s="1"/>
       <c r="AJ153" s="1"/>
     </row>
-    <row r="154" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154" s="15"/>
       <c r="C154" s="15"/>
       <c r="D154" s="15"/>
@@ -8049,7 +8056,7 @@
       <c r="AI154" s="1"/>
       <c r="AJ154" s="1"/>
     </row>
-    <row r="155" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" s="15"/>
       <c r="C155" s="15"/>
       <c r="D155" s="15"/>
@@ -8080,7 +8087,7 @@
       <c r="AI155" s="1"/>
       <c r="AJ155" s="1"/>
     </row>
-    <row r="156" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" s="15"/>
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
@@ -8111,7 +8118,7 @@
       <c r="AI156" s="1"/>
       <c r="AJ156" s="1"/>
     </row>
-    <row r="157" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" s="15"/>
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
@@ -8142,7 +8149,7 @@
       <c r="AI157" s="1"/>
       <c r="AJ157" s="1"/>
     </row>
-    <row r="158" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" s="15"/>
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
@@ -8173,7 +8180,7 @@
       <c r="AI158" s="1"/>
       <c r="AJ158" s="1"/>
     </row>
-    <row r="159" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159" s="15"/>
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
@@ -8204,7 +8211,7 @@
       <c r="AI159" s="1"/>
       <c r="AJ159" s="1"/>
     </row>
-    <row r="160" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B160" s="15"/>
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
@@ -8235,7 +8242,7 @@
       <c r="AI160" s="1"/>
       <c r="AJ160" s="1"/>
     </row>
-    <row r="161" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161" s="15"/>
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
@@ -8266,7 +8273,7 @@
       <c r="AI161" s="1"/>
       <c r="AJ161" s="1"/>
     </row>
-    <row r="162" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B162" s="15"/>
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
@@ -8297,7 +8304,7 @@
       <c r="AI162" s="1"/>
       <c r="AJ162" s="1"/>
     </row>
-    <row r="163" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" s="15"/>
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
@@ -8328,7 +8335,7 @@
       <c r="AI163" s="1"/>
       <c r="AJ163" s="1"/>
     </row>
-    <row r="164" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" s="15"/>
       <c r="C164" s="15"/>
       <c r="D164" s="15"/>
@@ -8359,7 +8366,7 @@
       <c r="AI164" s="1"/>
       <c r="AJ164" s="1"/>
     </row>
-    <row r="165" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" s="15"/>
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
@@ -8390,7 +8397,7 @@
       <c r="AI165" s="1"/>
       <c r="AJ165" s="1"/>
     </row>
-    <row r="166" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166" s="15"/>
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
@@ -8421,7 +8428,7 @@
       <c r="AI166" s="1"/>
       <c r="AJ166" s="1"/>
     </row>
-    <row r="167" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B167" s="15"/>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
@@ -8452,7 +8459,7 @@
       <c r="AI167" s="1"/>
       <c r="AJ167" s="1"/>
     </row>
-    <row r="168" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168" s="15"/>
       <c r="C168" s="15"/>
       <c r="D168" s="15"/>
@@ -8483,7 +8490,7 @@
       <c r="AI168" s="1"/>
       <c r="AJ168" s="1"/>
     </row>
-    <row r="169" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169" s="15"/>
       <c r="C169" s="15"/>
       <c r="D169" s="15"/>
@@ -8514,7 +8521,7 @@
       <c r="AI169" s="1"/>
       <c r="AJ169" s="1"/>
     </row>
-    <row r="170" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170" s="15"/>
       <c r="C170" s="15"/>
       <c r="D170" s="15"/>
@@ -8545,7 +8552,7 @@
       <c r="AI170" s="1"/>
       <c r="AJ170" s="1"/>
     </row>
-    <row r="171" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171" s="15"/>
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
@@ -8576,7 +8583,7 @@
       <c r="AI171" s="1"/>
       <c r="AJ171" s="1"/>
     </row>
-    <row r="172" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172" s="15"/>
       <c r="C172" s="15"/>
       <c r="D172" s="15"/>
@@ -8607,7 +8614,7 @@
       <c r="AI172" s="1"/>
       <c r="AJ172" s="1"/>
     </row>
-    <row r="173" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173" s="15"/>
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
@@ -8638,7 +8645,7 @@
       <c r="AI173" s="1"/>
       <c r="AJ173" s="1"/>
     </row>
-    <row r="174" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174" s="15"/>
       <c r="C174" s="15"/>
       <c r="D174" s="15"/>
@@ -8669,7 +8676,7 @@
       <c r="AI174" s="1"/>
       <c r="AJ174" s="1"/>
     </row>
-    <row r="175" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175" s="15"/>
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
@@ -8700,7 +8707,7 @@
       <c r="AI175" s="1"/>
       <c r="AJ175" s="1"/>
     </row>
-    <row r="176" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176" s="15"/>
       <c r="C176" s="15"/>
       <c r="D176" s="15"/>
@@ -8731,7 +8738,7 @@
       <c r="AI176" s="1"/>
       <c r="AJ176" s="1"/>
     </row>
-    <row r="177" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177" s="15"/>
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
@@ -8762,7 +8769,7 @@
       <c r="AI177" s="1"/>
       <c r="AJ177" s="1"/>
     </row>
-    <row r="178" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178" s="15"/>
       <c r="C178" s="15"/>
       <c r="D178" s="15"/>
@@ -8793,7 +8800,7 @@
       <c r="AI178" s="1"/>
       <c r="AJ178" s="1"/>
     </row>
-    <row r="179" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B179" s="15"/>
       <c r="C179" s="15"/>
       <c r="D179" s="15"/>
@@ -8824,7 +8831,7 @@
       <c r="AI179" s="1"/>
       <c r="AJ179" s="1"/>
     </row>
-    <row r="180" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B180" s="15"/>
       <c r="C180" s="15"/>
       <c r="D180" s="15"/>
@@ -8855,7 +8862,7 @@
       <c r="AI180" s="1"/>
       <c r="AJ180" s="1"/>
     </row>
-    <row r="181" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B181" s="15"/>
       <c r="C181" s="15"/>
       <c r="D181" s="15"/>
@@ -8886,7 +8893,7 @@
       <c r="AI181" s="1"/>
       <c r="AJ181" s="1"/>
     </row>
-    <row r="182" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B182" s="15"/>
       <c r="C182" s="15"/>
       <c r="D182" s="15"/>
@@ -8917,7 +8924,7 @@
       <c r="AI182" s="1"/>
       <c r="AJ182" s="1"/>
     </row>
-    <row r="183" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B183" s="15"/>
       <c r="C183" s="15"/>
       <c r="D183" s="15"/>
@@ -8948,7 +8955,7 @@
       <c r="AI183" s="1"/>
       <c r="AJ183" s="1"/>
     </row>
-    <row r="184" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B184" s="15"/>
       <c r="C184" s="15"/>
       <c r="D184" s="15"/>
@@ -8979,7 +8986,7 @@
       <c r="AI184" s="1"/>
       <c r="AJ184" s="1"/>
     </row>
-    <row r="185" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B185" s="15"/>
       <c r="C185" s="15"/>
       <c r="D185" s="15"/>
@@ -9010,7 +9017,7 @@
       <c r="AI185" s="1"/>
       <c r="AJ185" s="1"/>
     </row>
-    <row r="186" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B186" s="15"/>
       <c r="C186" s="15"/>
       <c r="D186" s="15"/>
@@ -9041,7 +9048,7 @@
       <c r="AI186" s="1"/>
       <c r="AJ186" s="1"/>
     </row>
-    <row r="187" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B187" s="15"/>
       <c r="C187" s="15"/>
       <c r="D187" s="15"/>
@@ -9072,7 +9079,7 @@
       <c r="AI187" s="1"/>
       <c r="AJ187" s="1"/>
     </row>
-    <row r="188" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B188" s="15"/>
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
@@ -9103,7 +9110,7 @@
       <c r="AI188" s="1"/>
       <c r="AJ188" s="1"/>
     </row>
-    <row r="189" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B189" s="15"/>
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
@@ -9134,7 +9141,7 @@
       <c r="AI189" s="1"/>
       <c r="AJ189" s="1"/>
     </row>
-    <row r="190" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B190" s="15"/>
       <c r="C190" s="15"/>
       <c r="D190" s="15"/>
@@ -9165,7 +9172,7 @@
       <c r="AI190" s="1"/>
       <c r="AJ190" s="1"/>
     </row>
-    <row r="191" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B191" s="15"/>
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
@@ -9196,7 +9203,7 @@
       <c r="AI191" s="1"/>
       <c r="AJ191" s="1"/>
     </row>
-    <row r="192" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B192" s="15"/>
       <c r="C192" s="15"/>
       <c r="D192" s="15"/>
@@ -9227,7 +9234,7 @@
       <c r="AI192" s="1"/>
       <c r="AJ192" s="1"/>
     </row>
-    <row r="193" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" s="15"/>
       <c r="C193" s="15"/>
       <c r="D193" s="15"/>
@@ -9258,7 +9265,7 @@
       <c r="AI193" s="1"/>
       <c r="AJ193" s="1"/>
     </row>
-    <row r="194" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B194" s="15"/>
       <c r="C194" s="15"/>
       <c r="D194" s="15"/>
@@ -9289,7 +9296,7 @@
       <c r="AI194" s="1"/>
       <c r="AJ194" s="1"/>
     </row>
-    <row r="195" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B195" s="15"/>
       <c r="C195" s="15"/>
       <c r="D195" s="15"/>
@@ -9320,7 +9327,7 @@
       <c r="AI195" s="1"/>
       <c r="AJ195" s="1"/>
     </row>
-    <row r="196" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B196" s="15"/>
       <c r="C196" s="15"/>
       <c r="D196" s="15"/>
@@ -9351,7 +9358,7 @@
       <c r="AI196" s="1"/>
       <c r="AJ196" s="1"/>
     </row>
-    <row r="197" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B197" s="15"/>
       <c r="C197" s="15"/>
       <c r="D197" s="15"/>
@@ -9382,7 +9389,7 @@
       <c r="AI197" s="1"/>
       <c r="AJ197" s="1"/>
     </row>
-    <row r="198" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B198" s="15"/>
       <c r="C198" s="15"/>
       <c r="D198" s="15"/>
@@ -9413,7 +9420,7 @@
       <c r="AI198" s="1"/>
       <c r="AJ198" s="1"/>
     </row>
-    <row r="199" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B199" s="15"/>
       <c r="C199" s="15"/>
       <c r="D199" s="15"/>
@@ -9444,7 +9451,7 @@
       <c r="AI199" s="1"/>
       <c r="AJ199" s="1"/>
     </row>
-    <row r="200" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B200" s="15"/>
       <c r="C200" s="15"/>
       <c r="D200" s="15"/>
@@ -9475,7 +9482,7 @@
       <c r="AI200" s="1"/>
       <c r="AJ200" s="1"/>
     </row>
-    <row r="201" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201" s="15"/>
       <c r="C201" s="15"/>
       <c r="D201" s="15"/>
@@ -9506,7 +9513,7 @@
       <c r="AI201" s="1"/>
       <c r="AJ201" s="1"/>
     </row>
-    <row r="202" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B202" s="15"/>
       <c r="C202" s="15"/>
       <c r="D202" s="15"/>
@@ -9537,7 +9544,7 @@
       <c r="AI202" s="1"/>
       <c r="AJ202" s="1"/>
     </row>
-    <row r="203" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B203" s="15"/>
       <c r="C203" s="15"/>
       <c r="D203" s="15"/>
@@ -9568,7 +9575,7 @@
       <c r="AI203" s="1"/>
       <c r="AJ203" s="1"/>
     </row>
-    <row r="204" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B204" s="15"/>
       <c r="C204" s="15"/>
       <c r="D204" s="15"/>
@@ -9599,7 +9606,7 @@
       <c r="AI204" s="1"/>
       <c r="AJ204" s="1"/>
     </row>
-    <row r="205" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B205" s="15"/>
       <c r="C205" s="15"/>
       <c r="D205" s="15"/>
@@ -9630,7 +9637,7 @@
       <c r="AI205" s="1"/>
       <c r="AJ205" s="1"/>
     </row>
-    <row r="206" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B206" s="15"/>
       <c r="C206" s="15"/>
       <c r="D206" s="15"/>
@@ -9661,7 +9668,7 @@
       <c r="AI206" s="1"/>
       <c r="AJ206" s="1"/>
     </row>
-    <row r="207" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B207" s="15"/>
       <c r="C207" s="15"/>
       <c r="D207" s="15"/>
@@ -9692,7 +9699,7 @@
       <c r="AI207" s="1"/>
       <c r="AJ207" s="1"/>
     </row>
-    <row r="208" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B208" s="15"/>
       <c r="C208" s="15"/>
       <c r="D208" s="15"/>
@@ -9723,7 +9730,7 @@
       <c r="AI208" s="1"/>
       <c r="AJ208" s="1"/>
     </row>
-    <row r="209" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209" s="15"/>
       <c r="C209" s="15"/>
       <c r="D209" s="15"/>
@@ -9754,7 +9761,7 @@
       <c r="AI209" s="1"/>
       <c r="AJ209" s="1"/>
     </row>
-    <row r="210" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B210" s="15"/>
       <c r="C210" s="15"/>
       <c r="D210" s="15"/>
@@ -9785,7 +9792,7 @@
       <c r="AI210" s="1"/>
       <c r="AJ210" s="1"/>
     </row>
-    <row r="211" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B211" s="15"/>
       <c r="C211" s="15"/>
       <c r="D211" s="15"/>
@@ -9816,7 +9823,7 @@
       <c r="AI211" s="1"/>
       <c r="AJ211" s="1"/>
     </row>
-    <row r="212" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B212" s="15"/>
       <c r="C212" s="15"/>
       <c r="D212" s="15"/>
@@ -9847,7 +9854,7 @@
       <c r="AI212" s="1"/>
       <c r="AJ212" s="1"/>
     </row>
-    <row r="213" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B213" s="15"/>
       <c r="C213" s="15"/>
       <c r="D213" s="15"/>
@@ -9878,7 +9885,7 @@
       <c r="AI213" s="1"/>
       <c r="AJ213" s="1"/>
     </row>
-    <row r="214" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214" s="15"/>
       <c r="C214" s="15"/>
       <c r="D214" s="15"/>
@@ -9909,7 +9916,7 @@
       <c r="AI214" s="1"/>
       <c r="AJ214" s="1"/>
     </row>
-    <row r="215" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215" s="15"/>
       <c r="C215" s="15"/>
       <c r="D215" s="15"/>
@@ -9940,7 +9947,7 @@
       <c r="AI215" s="1"/>
       <c r="AJ215" s="1"/>
     </row>
-    <row r="216" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B216" s="15"/>
       <c r="C216" s="15"/>
       <c r="D216" s="15"/>
@@ -9971,7 +9978,7 @@
       <c r="AI216" s="1"/>
       <c r="AJ216" s="1"/>
     </row>
-    <row r="217" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B217" s="15"/>
       <c r="C217" s="15"/>
       <c r="D217" s="15"/>
@@ -10002,7 +10009,7 @@
       <c r="AI217" s="1"/>
       <c r="AJ217" s="1"/>
     </row>
-    <row r="218" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B218" s="15"/>
       <c r="C218" s="15"/>
       <c r="D218" s="15"/>
@@ -10033,7 +10040,7 @@
       <c r="AI218" s="1"/>
       <c r="AJ218" s="1"/>
     </row>
-    <row r="219" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219" s="15"/>
       <c r="C219" s="15"/>
       <c r="D219" s="15"/>
@@ -10064,7 +10071,7 @@
       <c r="AI219" s="1"/>
       <c r="AJ219" s="1"/>
     </row>
-    <row r="220" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B220" s="15"/>
       <c r="C220" s="15"/>
       <c r="D220" s="15"/>
@@ -10095,7 +10102,7 @@
       <c r="AI220" s="1"/>
       <c r="AJ220" s="1"/>
     </row>
-    <row r="221" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B221" s="15"/>
       <c r="C221" s="15"/>
       <c r="D221" s="15"/>
@@ -10126,7 +10133,7 @@
       <c r="AI221" s="1"/>
       <c r="AJ221" s="1"/>
     </row>
-    <row r="222" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B222" s="15"/>
       <c r="C222" s="15"/>
       <c r="D222" s="15"/>
@@ -10157,7 +10164,7 @@
       <c r="AI222" s="1"/>
       <c r="AJ222" s="1"/>
     </row>
-    <row r="223" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B223" s="15"/>
       <c r="C223" s="15"/>
       <c r="D223" s="15"/>
@@ -10188,7 +10195,7 @@
       <c r="AI223" s="1"/>
       <c r="AJ223" s="1"/>
     </row>
-    <row r="224" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B224" s="15"/>
       <c r="C224" s="15"/>
       <c r="D224" s="15"/>
@@ -10219,7 +10226,7 @@
       <c r="AI224" s="1"/>
       <c r="AJ224" s="1"/>
     </row>
-    <row r="225" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B225" s="15"/>
       <c r="C225" s="15"/>
       <c r="D225" s="15"/>
@@ -10250,7 +10257,7 @@
       <c r="AI225" s="1"/>
       <c r="AJ225" s="1"/>
     </row>
-    <row r="226" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B226" s="15"/>
       <c r="C226" s="15"/>
       <c r="D226" s="15"/>
@@ -10281,7 +10288,7 @@
       <c r="AI226" s="1"/>
       <c r="AJ226" s="1"/>
     </row>
-    <row r="227" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227" s="15"/>
       <c r="C227" s="15"/>
       <c r="D227" s="15"/>
@@ -10312,7 +10319,7 @@
       <c r="AI227" s="1"/>
       <c r="AJ227" s="1"/>
     </row>
-    <row r="228" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228" s="15"/>
       <c r="C228" s="15"/>
       <c r="D228" s="15"/>
@@ -10343,7 +10350,7 @@
       <c r="AI228" s="1"/>
       <c r="AJ228" s="1"/>
     </row>
-    <row r="229" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" s="15"/>
       <c r="C229" s="15"/>
       <c r="D229" s="15"/>
@@ -10374,7 +10381,7 @@
       <c r="AI229" s="1"/>
       <c r="AJ229" s="1"/>
     </row>
-    <row r="230" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" s="15"/>
       <c r="C230" s="15"/>
       <c r="D230" s="15"/>
@@ -10405,7 +10412,7 @@
       <c r="AI230" s="1"/>
       <c r="AJ230" s="1"/>
     </row>
-    <row r="231" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B231" s="15"/>
       <c r="C231" s="15"/>
       <c r="D231" s="15"/>
@@ -10436,7 +10443,7 @@
       <c r="AI231" s="1"/>
       <c r="AJ231" s="1"/>
     </row>
-    <row r="232" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B232" s="15"/>
       <c r="C232" s="15"/>
       <c r="D232" s="15"/>
@@ -10467,7 +10474,7 @@
       <c r="AI232" s="1"/>
       <c r="AJ232" s="1"/>
     </row>
-    <row r="233" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B233" s="15"/>
       <c r="C233" s="15"/>
       <c r="D233" s="15"/>
@@ -10498,7 +10505,7 @@
       <c r="AI233" s="1"/>
       <c r="AJ233" s="1"/>
     </row>
-    <row r="234" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B234" s="15"/>
       <c r="C234" s="15"/>
       <c r="D234" s="15"/>
@@ -10529,7 +10536,7 @@
       <c r="AI234" s="1"/>
       <c r="AJ234" s="1"/>
     </row>
-    <row r="235" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B235" s="15"/>
       <c r="C235" s="15"/>
       <c r="D235" s="15"/>
@@ -10560,7 +10567,7 @@
       <c r="AI235" s="1"/>
       <c r="AJ235" s="1"/>
     </row>
-    <row r="236" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B236" s="15"/>
       <c r="C236" s="15"/>
       <c r="D236" s="15"/>
@@ -10591,7 +10598,7 @@
       <c r="AI236" s="1"/>
       <c r="AJ236" s="1"/>
     </row>
-    <row r="237" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B237" s="15"/>
       <c r="C237" s="15"/>
       <c r="D237" s="15"/>
@@ -10622,7 +10629,7 @@
       <c r="AI237" s="1"/>
       <c r="AJ237" s="1"/>
     </row>
-    <row r="238" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238" s="15"/>
       <c r="C238" s="15"/>
       <c r="D238" s="15"/>
@@ -10653,7 +10660,7 @@
       <c r="AI238" s="1"/>
       <c r="AJ238" s="1"/>
     </row>
-    <row r="239" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B239" s="15"/>
       <c r="C239" s="15"/>
       <c r="D239" s="15"/>
@@ -10684,7 +10691,7 @@
       <c r="AI239" s="1"/>
       <c r="AJ239" s="1"/>
     </row>
-    <row r="240" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B240" s="15"/>
       <c r="C240" s="15"/>
       <c r="D240" s="15"/>
@@ -10715,7 +10722,7 @@
       <c r="AI240" s="1"/>
       <c r="AJ240" s="1"/>
     </row>
-    <row r="241" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B241" s="15"/>
       <c r="C241" s="15"/>
       <c r="D241" s="15"/>
@@ -10746,7 +10753,7 @@
       <c r="AI241" s="1"/>
       <c r="AJ241" s="1"/>
     </row>
-    <row r="242" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B242" s="15"/>
       <c r="C242" s="15"/>
       <c r="D242" s="15"/>
@@ -10777,7 +10784,7 @@
       <c r="AI242" s="1"/>
       <c r="AJ242" s="1"/>
     </row>
-    <row r="243" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B243" s="15"/>
       <c r="C243" s="15"/>
       <c r="D243" s="15"/>
@@ -10808,7 +10815,7 @@
       <c r="AI243" s="1"/>
       <c r="AJ243" s="1"/>
     </row>
-    <row r="244" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B244" s="15"/>
       <c r="C244" s="15"/>
       <c r="D244" s="15"/>
@@ -10839,7 +10846,7 @@
       <c r="AI244" s="1"/>
       <c r="AJ244" s="1"/>
     </row>
-    <row r="245" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B245" s="15"/>
       <c r="C245" s="15"/>
       <c r="D245" s="15"/>
@@ -10870,7 +10877,7 @@
       <c r="AI245" s="1"/>
       <c r="AJ245" s="1"/>
     </row>
-    <row r="246" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B246" s="15"/>
       <c r="C246" s="15"/>
       <c r="D246" s="15"/>
@@ -10901,7 +10908,7 @@
       <c r="AI246" s="1"/>
       <c r="AJ246" s="1"/>
     </row>
-    <row r="247" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B247" s="15"/>
       <c r="C247" s="15"/>
       <c r="D247" s="15"/>
@@ -10932,7 +10939,7 @@
       <c r="AI247" s="1"/>
       <c r="AJ247" s="1"/>
     </row>
-    <row r="248" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B248" s="15"/>
       <c r="C248" s="15"/>
       <c r="D248" s="15"/>
@@ -10963,7 +10970,7 @@
       <c r="AI248" s="1"/>
       <c r="AJ248" s="1"/>
     </row>
-    <row r="249" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B249" s="15"/>
       <c r="C249" s="15"/>
       <c r="D249" s="15"/>
@@ -10994,7 +11001,7 @@
       <c r="AI249" s="1"/>
       <c r="AJ249" s="1"/>
     </row>
-    <row r="250" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B250" s="15"/>
       <c r="C250" s="15"/>
       <c r="D250" s="15"/>
@@ -11025,7 +11032,7 @@
       <c r="AI250" s="1"/>
       <c r="AJ250" s="1"/>
     </row>
-    <row r="251" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B251" s="15"/>
       <c r="C251" s="15"/>
       <c r="D251" s="15"/>
@@ -11056,7 +11063,7 @@
       <c r="AI251" s="1"/>
       <c r="AJ251" s="1"/>
     </row>
-    <row r="252" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B252" s="15"/>
       <c r="C252" s="15"/>
       <c r="D252" s="15"/>
@@ -11087,7 +11094,7 @@
       <c r="AI252" s="1"/>
       <c r="AJ252" s="1"/>
     </row>
-    <row r="253" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B253" s="15"/>
       <c r="C253" s="15"/>
       <c r="D253" s="15"/>
@@ -11118,7 +11125,7 @@
       <c r="AI253" s="1"/>
       <c r="AJ253" s="1"/>
     </row>
-    <row r="254" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B254" s="15"/>
       <c r="C254" s="15"/>
       <c r="D254" s="15"/>
@@ -11149,7 +11156,7 @@
       <c r="AI254" s="1"/>
       <c r="AJ254" s="1"/>
     </row>
-    <row r="255" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B255" s="15"/>
       <c r="C255" s="15"/>
       <c r="D255" s="15"/>
@@ -11180,7 +11187,7 @@
       <c r="AI255" s="1"/>
       <c r="AJ255" s="1"/>
     </row>
-    <row r="256" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B256" s="15"/>
       <c r="C256" s="15"/>
       <c r="D256" s="15"/>
@@ -11211,7 +11218,7 @@
       <c r="AI256" s="1"/>
       <c r="AJ256" s="1"/>
     </row>
-    <row r="257" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B257" s="15"/>
       <c r="C257" s="15"/>
       <c r="D257" s="15"/>
@@ -11242,7 +11249,7 @@
       <c r="AI257" s="1"/>
       <c r="AJ257" s="1"/>
     </row>
-    <row r="258" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B258" s="15"/>
       <c r="C258" s="15"/>
       <c r="D258" s="15"/>
@@ -11273,7 +11280,7 @@
       <c r="AI258" s="1"/>
       <c r="AJ258" s="1"/>
     </row>
-    <row r="259" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B259" s="15"/>
       <c r="C259" s="15"/>
       <c r="D259" s="15"/>
@@ -11304,7 +11311,7 @@
       <c r="AI259" s="1"/>
       <c r="AJ259" s="1"/>
     </row>
-    <row r="260" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B260" s="15"/>
       <c r="C260" s="15"/>
       <c r="D260" s="15"/>
@@ -11335,7 +11342,7 @@
       <c r="AI260" s="1"/>
       <c r="AJ260" s="1"/>
     </row>
-    <row r="261" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B261" s="15"/>
       <c r="C261" s="15"/>
       <c r="D261" s="15"/>
@@ -11366,7 +11373,7 @@
       <c r="AI261" s="1"/>
       <c r="AJ261" s="1"/>
     </row>
-    <row r="262" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B262" s="15"/>
       <c r="C262" s="15"/>
       <c r="D262" s="15"/>
@@ -11397,7 +11404,7 @@
       <c r="AI262" s="1"/>
       <c r="AJ262" s="1"/>
     </row>
-    <row r="263" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B263" s="15"/>
       <c r="C263" s="15"/>
       <c r="D263" s="15"/>
@@ -11428,7 +11435,7 @@
       <c r="AI263" s="1"/>
       <c r="AJ263" s="1"/>
     </row>
-    <row r="264" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B264" s="15"/>
       <c r="C264" s="15"/>
       <c r="D264" s="15"/>
@@ -11459,7 +11466,7 @@
       <c r="AI264" s="1"/>
       <c r="AJ264" s="1"/>
     </row>
-    <row r="265" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B265" s="15"/>
       <c r="C265" s="15"/>
       <c r="D265" s="15"/>
@@ -11490,7 +11497,7 @@
       <c r="AI265" s="1"/>
       <c r="AJ265" s="1"/>
     </row>
-    <row r="266" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B266" s="15"/>
       <c r="C266" s="15"/>
       <c r="D266" s="15"/>
@@ -11521,7 +11528,7 @@
       <c r="AI266" s="1"/>
       <c r="AJ266" s="1"/>
     </row>
-    <row r="267" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B267" s="15"/>
       <c r="C267" s="15"/>
       <c r="D267" s="15"/>
@@ -11552,7 +11559,7 @@
       <c r="AI267" s="1"/>
       <c r="AJ267" s="1"/>
     </row>
-    <row r="268" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B268" s="15"/>
       <c r="C268" s="15"/>
       <c r="D268" s="15"/>
@@ -11583,7 +11590,7 @@
       <c r="AI268" s="1"/>
       <c r="AJ268" s="1"/>
     </row>
-    <row r="269" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B269" s="15"/>
       <c r="C269" s="15"/>
       <c r="D269" s="15"/>
@@ -11614,7 +11621,7 @@
       <c r="AI269" s="1"/>
       <c r="AJ269" s="1"/>
     </row>
-    <row r="270" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B270" s="15"/>
       <c r="C270" s="15"/>
       <c r="D270" s="15"/>
@@ -11645,7 +11652,7 @@
       <c r="AI270" s="1"/>
       <c r="AJ270" s="1"/>
     </row>
-    <row r="271" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B271" s="15"/>
       <c r="C271" s="15"/>
       <c r="D271" s="15"/>
@@ -11676,7 +11683,7 @@
       <c r="AI271" s="1"/>
       <c r="AJ271" s="1"/>
     </row>
-    <row r="272" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B272" s="15"/>
       <c r="C272" s="15"/>
       <c r="D272" s="15"/>
@@ -11707,7 +11714,7 @@
       <c r="AI272" s="1"/>
       <c r="AJ272" s="1"/>
     </row>
-    <row r="273" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B273" s="15"/>
       <c r="C273" s="15"/>
       <c r="D273" s="15"/>
@@ -11738,7 +11745,7 @@
       <c r="AI273" s="1"/>
       <c r="AJ273" s="1"/>
     </row>
-    <row r="274" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B274" s="15"/>
       <c r="C274" s="15"/>
       <c r="D274" s="15"/>
@@ -11769,7 +11776,7 @@
       <c r="AI274" s="1"/>
       <c r="AJ274" s="1"/>
     </row>
-    <row r="275" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B275" s="15"/>
       <c r="C275" s="15"/>
       <c r="D275" s="15"/>
@@ -11800,7 +11807,7 @@
       <c r="AI275" s="1"/>
       <c r="AJ275" s="1"/>
     </row>
-    <row r="276" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B276" s="15"/>
       <c r="C276" s="15"/>
       <c r="D276" s="15"/>
@@ -11831,7 +11838,7 @@
       <c r="AI276" s="1"/>
       <c r="AJ276" s="1"/>
     </row>
-    <row r="277" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B277" s="15"/>
       <c r="C277" s="15"/>
       <c r="D277" s="15"/>
@@ -11862,7 +11869,7 @@
       <c r="AI277" s="1"/>
       <c r="AJ277" s="1"/>
     </row>
-    <row r="278" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B278" s="15"/>
       <c r="C278" s="15"/>
       <c r="D278" s="15"/>
@@ -11893,7 +11900,7 @@
       <c r="AI278" s="1"/>
       <c r="AJ278" s="1"/>
     </row>
-    <row r="279" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B279" s="15"/>
       <c r="C279" s="15"/>
       <c r="D279" s="15"/>
@@ -11924,7 +11931,7 @@
       <c r="AI279" s="1"/>
       <c r="AJ279" s="1"/>
     </row>
-    <row r="280" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B280" s="15"/>
       <c r="C280" s="15"/>
       <c r="D280" s="15"/>
@@ -11955,7 +11962,7 @@
       <c r="AI280" s="1"/>
       <c r="AJ280" s="1"/>
     </row>
-    <row r="281" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B281" s="15"/>
       <c r="C281" s="15"/>
       <c r="D281" s="15"/>
@@ -11986,7 +11993,7 @@
       <c r="AI281" s="1"/>
       <c r="AJ281" s="1"/>
     </row>
-    <row r="282" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B282" s="15"/>
       <c r="C282" s="15"/>
       <c r="D282" s="15"/>
@@ -12017,7 +12024,7 @@
       <c r="AI282" s="1"/>
       <c r="AJ282" s="1"/>
     </row>
-    <row r="283" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B283" s="15"/>
       <c r="C283" s="15"/>
       <c r="D283" s="15"/>
@@ -12048,7 +12055,7 @@
       <c r="AI283" s="1"/>
       <c r="AJ283" s="1"/>
     </row>
-    <row r="284" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B284" s="15"/>
       <c r="C284" s="15"/>
       <c r="D284" s="15"/>
@@ -12079,7 +12086,7 @@
       <c r="AI284" s="1"/>
       <c r="AJ284" s="1"/>
     </row>
-    <row r="285" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B285" s="15"/>
       <c r="C285" s="15"/>
       <c r="D285" s="15"/>
@@ -12110,7 +12117,7 @@
       <c r="AI285" s="1"/>
       <c r="AJ285" s="1"/>
     </row>
-    <row r="286" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B286" s="15"/>
       <c r="C286" s="15"/>
       <c r="D286" s="15"/>
@@ -12141,7 +12148,7 @@
       <c r="AI286" s="1"/>
       <c r="AJ286" s="1"/>
     </row>
-    <row r="287" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B287" s="15"/>
       <c r="C287" s="15"/>
       <c r="D287" s="15"/>
@@ -12172,7 +12179,7 @@
       <c r="AI287" s="1"/>
       <c r="AJ287" s="1"/>
     </row>
-    <row r="288" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B288" s="15"/>
       <c r="C288" s="15"/>
       <c r="D288" s="15"/>
@@ -12203,7 +12210,7 @@
       <c r="AI288" s="1"/>
       <c r="AJ288" s="1"/>
     </row>
-    <row r="289" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B289" s="15"/>
       <c r="C289" s="15"/>
       <c r="D289" s="15"/>
@@ -12234,7 +12241,7 @@
       <c r="AI289" s="1"/>
       <c r="AJ289" s="1"/>
     </row>
-    <row r="290" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B290" s="15"/>
       <c r="C290" s="15"/>
       <c r="D290" s="15"/>
@@ -12265,7 +12272,7 @@
       <c r="AI290" s="1"/>
       <c r="AJ290" s="1"/>
     </row>
-    <row r="291" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B291" s="15"/>
       <c r="C291" s="15"/>
       <c r="D291" s="15"/>
@@ -12296,7 +12303,7 @@
       <c r="AI291" s="1"/>
       <c r="AJ291" s="1"/>
     </row>
-    <row r="292" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B292" s="15"/>
       <c r="C292" s="15"/>
       <c r="D292" s="15"/>
@@ -12327,7 +12334,7 @@
       <c r="AI292" s="1"/>
       <c r="AJ292" s="1"/>
     </row>
-    <row r="293" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B293" s="15"/>
       <c r="C293" s="15"/>
       <c r="D293" s="15"/>
@@ -12358,7 +12365,7 @@
       <c r="AI293" s="1"/>
       <c r="AJ293" s="1"/>
     </row>
-    <row r="294" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B294" s="15"/>
       <c r="C294" s="15"/>
       <c r="D294" s="15"/>
@@ -12389,7 +12396,7 @@
       <c r="AI294" s="1"/>
       <c r="AJ294" s="1"/>
     </row>
-    <row r="295" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B295" s="15"/>
       <c r="C295" s="15"/>
       <c r="D295" s="15"/>
@@ -12420,7 +12427,7 @@
       <c r="AI295" s="1"/>
       <c r="AJ295" s="1"/>
     </row>
-    <row r="296" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B296" s="15"/>
       <c r="C296" s="15"/>
       <c r="D296" s="15"/>
@@ -12451,7 +12458,7 @@
       <c r="AI296" s="1"/>
       <c r="AJ296" s="1"/>
     </row>
-    <row r="297" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B297" s="15"/>
       <c r="C297" s="15"/>
       <c r="D297" s="15"/>
@@ -12482,7 +12489,7 @@
       <c r="AI297" s="1"/>
       <c r="AJ297" s="1"/>
     </row>
-    <row r="298" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B298" s="15"/>
       <c r="C298" s="15"/>
       <c r="D298" s="15"/>
@@ -12513,7 +12520,7 @@
       <c r="AI298" s="1"/>
       <c r="AJ298" s="1"/>
     </row>
-    <row r="299" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B299" s="15"/>
       <c r="C299" s="15"/>
       <c r="D299" s="15"/>
@@ -12544,7 +12551,7 @@
       <c r="AI299" s="1"/>
       <c r="AJ299" s="1"/>
     </row>
-    <row r="300" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B300" s="15"/>
       <c r="C300" s="15"/>
       <c r="D300" s="15"/>
@@ -12575,7 +12582,7 @@
       <c r="AI300" s="1"/>
       <c r="AJ300" s="1"/>
     </row>
-    <row r="301" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B301" s="15"/>
       <c r="C301" s="15"/>
       <c r="D301" s="15"/>
@@ -12606,7 +12613,7 @@
       <c r="AI301" s="1"/>
       <c r="AJ301" s="1"/>
     </row>
-    <row r="302" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B302" s="15"/>
       <c r="C302" s="15"/>
       <c r="D302" s="15"/>
@@ -12637,7 +12644,7 @@
       <c r="AI302" s="1"/>
       <c r="AJ302" s="1"/>
     </row>
-    <row r="303" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B303" s="15"/>
       <c r="C303" s="15"/>
       <c r="D303" s="15"/>
@@ -12668,7 +12675,7 @@
       <c r="AI303" s="1"/>
       <c r="AJ303" s="1"/>
     </row>
-    <row r="304" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B304" s="15"/>
       <c r="C304" s="15"/>
       <c r="D304" s="15"/>
@@ -12699,7 +12706,7 @@
       <c r="AI304" s="1"/>
       <c r="AJ304" s="1"/>
     </row>
-    <row r="305" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B305" s="15"/>
       <c r="C305" s="15"/>
       <c r="D305" s="15"/>
@@ -12730,7 +12737,7 @@
       <c r="AI305" s="1"/>
       <c r="AJ305" s="1"/>
     </row>
-    <row r="306" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B306" s="15"/>
       <c r="C306" s="15"/>
       <c r="D306" s="15"/>
@@ -12761,7 +12768,7 @@
       <c r="AI306" s="1"/>
       <c r="AJ306" s="1"/>
     </row>
-    <row r="307" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B307" s="15"/>
       <c r="C307" s="15"/>
       <c r="D307" s="15"/>
@@ -12792,7 +12799,7 @@
       <c r="AI307" s="1"/>
       <c r="AJ307" s="1"/>
     </row>
-    <row r="308" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B308" s="15"/>
       <c r="C308" s="15"/>
       <c r="D308" s="15"/>
@@ -12823,7 +12830,7 @@
       <c r="AI308" s="1"/>
       <c r="AJ308" s="1"/>
     </row>
-    <row r="309" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B309" s="15"/>
       <c r="C309" s="15"/>
       <c r="D309" s="15"/>
@@ -12854,7 +12861,7 @@
       <c r="AI309" s="1"/>
       <c r="AJ309" s="1"/>
     </row>
-    <row r="310" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B310" s="15"/>
       <c r="C310" s="15"/>
       <c r="D310" s="15"/>
@@ -12885,7 +12892,7 @@
       <c r="AI310" s="1"/>
       <c r="AJ310" s="1"/>
     </row>
-    <row r="311" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B311" s="15"/>
       <c r="C311" s="15"/>
       <c r="D311" s="15"/>
@@ -12916,7 +12923,7 @@
       <c r="AI311" s="1"/>
       <c r="AJ311" s="1"/>
     </row>
-    <row r="312" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B312" s="15"/>
       <c r="C312" s="15"/>
       <c r="D312" s="15"/>
@@ -12947,7 +12954,7 @@
       <c r="AI312" s="1"/>
       <c r="AJ312" s="1"/>
     </row>
-    <row r="313" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B313" s="15"/>
       <c r="C313" s="15"/>
       <c r="D313" s="15"/>
@@ -12978,7 +12985,7 @@
       <c r="AI313" s="1"/>
       <c r="AJ313" s="1"/>
     </row>
-    <row r="314" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B314" s="15"/>
       <c r="C314" s="15"/>
       <c r="D314" s="15"/>
@@ -13009,7 +13016,7 @@
       <c r="AI314" s="1"/>
       <c r="AJ314" s="1"/>
     </row>
-    <row r="315" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B315" s="15"/>
       <c r="C315" s="15"/>
       <c r="D315" s="15"/>
@@ -13040,7 +13047,7 @@
       <c r="AI315" s="1"/>
       <c r="AJ315" s="1"/>
     </row>
-    <row r="316" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B316" s="15"/>
       <c r="C316" s="15"/>
       <c r="D316" s="15"/>
@@ -13071,7 +13078,7 @@
       <c r="AI316" s="1"/>
       <c r="AJ316" s="1"/>
     </row>
-    <row r="317" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B317" s="15"/>
       <c r="C317" s="15"/>
       <c r="D317" s="15"/>
@@ -13102,7 +13109,7 @@
       <c r="AI317" s="1"/>
       <c r="AJ317" s="1"/>
     </row>
-    <row r="318" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B318" s="15"/>
       <c r="C318" s="15"/>
       <c r="D318" s="15"/>
@@ -13133,7 +13140,7 @@
       <c r="AI318" s="1"/>
       <c r="AJ318" s="1"/>
     </row>
-    <row r="319" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B319" s="15"/>
       <c r="C319" s="15"/>
       <c r="D319" s="15"/>
@@ -13164,7 +13171,7 @@
       <c r="AI319" s="1"/>
       <c r="AJ319" s="1"/>
     </row>
-    <row r="320" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B320" s="15"/>
       <c r="C320" s="15"/>
       <c r="D320" s="15"/>
@@ -13195,7 +13202,7 @@
       <c r="AI320" s="1"/>
       <c r="AJ320" s="1"/>
     </row>
-    <row r="321" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B321" s="15"/>
       <c r="C321" s="15"/>
       <c r="D321" s="15"/>
@@ -13226,7 +13233,7 @@
       <c r="AI321" s="1"/>
       <c r="AJ321" s="1"/>
     </row>
-    <row r="322" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B322" s="15"/>
       <c r="C322" s="15"/>
       <c r="D322" s="15"/>
@@ -13257,7 +13264,7 @@
       <c r="AI322" s="1"/>
       <c r="AJ322" s="1"/>
     </row>
-    <row r="323" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B323" s="15"/>
       <c r="C323" s="15"/>
       <c r="D323" s="15"/>
@@ -13288,7 +13295,7 @@
       <c r="AI323" s="1"/>
       <c r="AJ323" s="1"/>
     </row>
-    <row r="324" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B324" s="15"/>
       <c r="C324" s="15"/>
       <c r="D324" s="15"/>
@@ -13319,7 +13326,7 @@
       <c r="AI324" s="1"/>
       <c r="AJ324" s="1"/>
     </row>
-    <row r="325" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B325" s="15"/>
       <c r="C325" s="15"/>
       <c r="D325" s="15"/>
@@ -13350,7 +13357,7 @@
       <c r="AI325" s="1"/>
       <c r="AJ325" s="1"/>
     </row>
-    <row r="326" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B326" s="15"/>
       <c r="C326" s="15"/>
       <c r="D326" s="15"/>
@@ -13381,7 +13388,7 @@
       <c r="AI326" s="1"/>
       <c r="AJ326" s="1"/>
     </row>
-    <row r="327" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B327" s="15"/>
       <c r="C327" s="15"/>
       <c r="D327" s="15"/>
@@ -13412,7 +13419,7 @@
       <c r="AI327" s="1"/>
       <c r="AJ327" s="1"/>
     </row>
-    <row r="328" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B328" s="15"/>
       <c r="C328" s="15"/>
       <c r="D328" s="15"/>
@@ -13443,7 +13450,7 @@
       <c r="AI328" s="1"/>
       <c r="AJ328" s="1"/>
     </row>
-    <row r="329" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B329" s="15"/>
       <c r="C329" s="15"/>
       <c r="D329" s="15"/>
@@ -13474,7 +13481,7 @@
       <c r="AI329" s="1"/>
       <c r="AJ329" s="1"/>
     </row>
-    <row r="330" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B330" s="15"/>
       <c r="C330" s="15"/>
       <c r="D330" s="15"/>
@@ -13505,7 +13512,7 @@
       <c r="AI330" s="1"/>
       <c r="AJ330" s="1"/>
     </row>
-    <row r="331" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B331" s="15"/>
       <c r="C331" s="15"/>
       <c r="D331" s="15"/>
@@ -13536,7 +13543,7 @@
       <c r="AI331" s="1"/>
       <c r="AJ331" s="1"/>
     </row>
-    <row r="332" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B332" s="15"/>
       <c r="C332" s="15"/>
       <c r="D332" s="15"/>
@@ -13567,7 +13574,7 @@
       <c r="AI332" s="1"/>
       <c r="AJ332" s="1"/>
     </row>
-    <row r="333" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B333" s="15"/>
       <c r="C333" s="15"/>
       <c r="D333" s="15"/>
@@ -13598,7 +13605,7 @@
       <c r="AI333" s="1"/>
       <c r="AJ333" s="1"/>
     </row>
-    <row r="334" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B334" s="15"/>
       <c r="C334" s="15"/>
       <c r="D334" s="15"/>
@@ -13629,7 +13636,7 @@
       <c r="AI334" s="1"/>
       <c r="AJ334" s="1"/>
     </row>
-    <row r="335" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B335" s="15"/>
       <c r="C335" s="15"/>
       <c r="D335" s="15"/>
@@ -13660,7 +13667,7 @@
       <c r="AI335" s="1"/>
       <c r="AJ335" s="1"/>
     </row>
-    <row r="336" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B336" s="15"/>
       <c r="C336" s="15"/>
       <c r="D336" s="15"/>
@@ -13691,7 +13698,7 @@
       <c r="AI336" s="1"/>
       <c r="AJ336" s="1"/>
     </row>
-    <row r="337" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B337" s="15"/>
       <c r="C337" s="15"/>
       <c r="D337" s="15"/>
@@ -13722,7 +13729,7 @@
       <c r="AI337" s="1"/>
       <c r="AJ337" s="1"/>
     </row>
-    <row r="338" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B338" s="15"/>
       <c r="C338" s="15"/>
       <c r="D338" s="15"/>
@@ -13753,7 +13760,7 @@
       <c r="AI338" s="1"/>
       <c r="AJ338" s="1"/>
     </row>
-    <row r="339" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B339" s="15"/>
       <c r="C339" s="15"/>
       <c r="D339" s="15"/>
@@ -13784,7 +13791,7 @@
       <c r="AI339" s="1"/>
       <c r="AJ339" s="1"/>
     </row>
-    <row r="340" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B340" s="15"/>
       <c r="C340" s="15"/>
       <c r="D340" s="15"/>
@@ -13815,7 +13822,7 @@
       <c r="AI340" s="1"/>
       <c r="AJ340" s="1"/>
     </row>
-    <row r="341" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B341" s="15"/>
       <c r="C341" s="15"/>
       <c r="D341" s="15"/>
@@ -13846,7 +13853,7 @@
       <c r="AI341" s="1"/>
       <c r="AJ341" s="1"/>
     </row>
-    <row r="342" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B342" s="15"/>
       <c r="C342" s="15"/>
       <c r="D342" s="15"/>
@@ -13877,7 +13884,7 @@
       <c r="AI342" s="1"/>
       <c r="AJ342" s="1"/>
     </row>
-    <row r="343" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B343" s="15"/>
       <c r="C343" s="15"/>
       <c r="D343" s="15"/>
@@ -13908,7 +13915,7 @@
       <c r="AI343" s="1"/>
       <c r="AJ343" s="1"/>
     </row>
-    <row r="344" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B344" s="15"/>
       <c r="C344" s="15"/>
       <c r="D344" s="15"/>
@@ -13939,7 +13946,7 @@
       <c r="AI344" s="1"/>
       <c r="AJ344" s="1"/>
     </row>
-    <row r="345" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B345" s="15"/>
       <c r="C345" s="15"/>
       <c r="D345" s="15"/>
@@ -13970,7 +13977,7 @@
       <c r="AI345" s="1"/>
       <c r="AJ345" s="1"/>
     </row>
-    <row r="346" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B346" s="15"/>
       <c r="C346" s="15"/>
       <c r="D346" s="15"/>
@@ -14001,7 +14008,7 @@
       <c r="AI346" s="1"/>
       <c r="AJ346" s="1"/>
     </row>
-    <row r="347" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B347" s="15"/>
       <c r="C347" s="15"/>
       <c r="D347" s="15"/>
@@ -14032,7 +14039,7 @@
       <c r="AI347" s="1"/>
       <c r="AJ347" s="1"/>
     </row>
-    <row r="348" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B348" s="15"/>
       <c r="C348" s="15"/>
       <c r="D348" s="15"/>
@@ -14063,7 +14070,7 @@
       <c r="AI348" s="1"/>
       <c r="AJ348" s="1"/>
     </row>
-    <row r="349" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B349" s="15"/>
       <c r="C349" s="15"/>
       <c r="D349" s="15"/>
@@ -14094,7 +14101,7 @@
       <c r="AI349" s="1"/>
       <c r="AJ349" s="1"/>
     </row>
-    <row r="350" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B350" s="15"/>
       <c r="C350" s="15"/>
       <c r="D350" s="15"/>
@@ -14125,7 +14132,7 @@
       <c r="AI350" s="1"/>
       <c r="AJ350" s="1"/>
     </row>
-    <row r="351" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B351" s="15"/>
       <c r="C351" s="15"/>
       <c r="D351" s="15"/>
@@ -14156,7 +14163,7 @@
       <c r="AI351" s="1"/>
       <c r="AJ351" s="1"/>
     </row>
-    <row r="352" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B352" s="15"/>
       <c r="C352" s="15"/>
       <c r="D352" s="15"/>
@@ -14187,7 +14194,7 @@
       <c r="AI352" s="1"/>
       <c r="AJ352" s="1"/>
     </row>
-    <row r="353" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B353" s="15"/>
       <c r="C353" s="15"/>
       <c r="D353" s="15"/>
@@ -14218,7 +14225,7 @@
       <c r="AI353" s="1"/>
       <c r="AJ353" s="1"/>
     </row>
-    <row r="354" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B354" s="15"/>
       <c r="C354" s="15"/>
       <c r="D354" s="15"/>
@@ -14249,7 +14256,7 @@
       <c r="AI354" s="1"/>
       <c r="AJ354" s="1"/>
     </row>
-    <row r="355" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B355" s="15"/>
       <c r="C355" s="15"/>
       <c r="D355" s="15"/>
@@ -14280,7 +14287,7 @@
       <c r="AI355" s="1"/>
       <c r="AJ355" s="1"/>
     </row>
-    <row r="356" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B356" s="15"/>
       <c r="C356" s="15"/>
       <c r="D356" s="15"/>
@@ -14311,7 +14318,7 @@
       <c r="AI356" s="1"/>
       <c r="AJ356" s="1"/>
     </row>
-    <row r="357" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B357" s="15"/>
       <c r="C357" s="15"/>
       <c r="D357" s="15"/>
@@ -14342,7 +14349,7 @@
       <c r="AI357" s="1"/>
       <c r="AJ357" s="1"/>
     </row>
-    <row r="358" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B358" s="15"/>
       <c r="C358" s="15"/>
       <c r="D358" s="15"/>
@@ -14373,7 +14380,7 @@
       <c r="AI358" s="1"/>
       <c r="AJ358" s="1"/>
     </row>
-    <row r="359" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B359" s="15"/>
       <c r="C359" s="15"/>
       <c r="D359" s="15"/>
@@ -14404,7 +14411,7 @@
       <c r="AI359" s="1"/>
       <c r="AJ359" s="1"/>
     </row>
-    <row r="360" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B360" s="15"/>
       <c r="C360" s="15"/>
       <c r="D360" s="15"/>
@@ -14435,7 +14442,7 @@
       <c r="AI360" s="1"/>
       <c r="AJ360" s="1"/>
     </row>
-    <row r="361" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B361" s="15"/>
       <c r="C361" s="15"/>
       <c r="D361" s="15"/>
@@ -14466,7 +14473,7 @@
       <c r="AI361" s="1"/>
       <c r="AJ361" s="1"/>
     </row>
-    <row r="362" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B362" s="15"/>
       <c r="C362" s="15"/>
       <c r="D362" s="15"/>
@@ -14497,7 +14504,7 @@
       <c r="AI362" s="1"/>
       <c r="AJ362" s="1"/>
     </row>
-    <row r="363" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B363" s="15"/>
       <c r="C363" s="15"/>
       <c r="D363" s="15"/>
@@ -14528,7 +14535,7 @@
       <c r="AI363" s="1"/>
       <c r="AJ363" s="1"/>
     </row>
-    <row r="364" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B364" s="15"/>
       <c r="C364" s="15"/>
       <c r="D364" s="15"/>
@@ -14559,7 +14566,7 @@
       <c r="AI364" s="1"/>
       <c r="AJ364" s="1"/>
     </row>
-    <row r="365" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B365" s="15"/>
       <c r="C365" s="15"/>
       <c r="D365" s="15"/>
@@ -14590,7 +14597,7 @@
       <c r="AI365" s="1"/>
       <c r="AJ365" s="1"/>
     </row>
-    <row r="366" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B366" s="15"/>
       <c r="C366" s="15"/>
       <c r="D366" s="15"/>
@@ -14621,7 +14628,7 @@
       <c r="AI366" s="1"/>
       <c r="AJ366" s="1"/>
     </row>
-    <row r="367" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B367" s="15"/>
       <c r="C367" s="15"/>
       <c r="D367" s="15"/>
@@ -14652,7 +14659,7 @@
       <c r="AI367" s="1"/>
       <c r="AJ367" s="1"/>
     </row>
-    <row r="368" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B368" s="15"/>
       <c r="C368" s="15"/>
       <c r="D368" s="15"/>
@@ -14683,7 +14690,7 @@
       <c r="AI368" s="1"/>
       <c r="AJ368" s="1"/>
     </row>
-    <row r="369" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B369" s="15"/>
       <c r="C369" s="15"/>
       <c r="D369" s="15"/>
@@ -14714,7 +14721,7 @@
       <c r="AI369" s="1"/>
       <c r="AJ369" s="1"/>
     </row>
-    <row r="370" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B370" s="15"/>
       <c r="C370" s="15"/>
       <c r="D370" s="15"/>
@@ -14745,7 +14752,7 @@
       <c r="AI370" s="1"/>
       <c r="AJ370" s="1"/>
     </row>
-    <row r="371" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B371" s="15"/>
       <c r="C371" s="15"/>
       <c r="D371" s="15"/>
@@ -14776,7 +14783,7 @@
       <c r="AI371" s="1"/>
       <c r="AJ371" s="1"/>
     </row>
-    <row r="372" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B372" s="15"/>
       <c r="C372" s="15"/>
       <c r="D372" s="15"/>
@@ -14807,7 +14814,7 @@
       <c r="AI372" s="1"/>
       <c r="AJ372" s="1"/>
     </row>
-    <row r="373" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B373" s="15"/>
       <c r="C373" s="15"/>
       <c r="D373" s="15"/>
@@ -14838,7 +14845,7 @@
       <c r="AI373" s="1"/>
       <c r="AJ373" s="1"/>
     </row>
-    <row r="374" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B374" s="15"/>
       <c r="C374" s="15"/>
       <c r="D374" s="15"/>
@@ -14869,7 +14876,7 @@
       <c r="AI374" s="1"/>
       <c r="AJ374" s="1"/>
     </row>
-    <row r="375" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B375" s="15"/>
       <c r="C375" s="15"/>
       <c r="D375" s="15"/>
@@ -14900,7 +14907,7 @@
       <c r="AI375" s="1"/>
       <c r="AJ375" s="1"/>
     </row>
-    <row r="376" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B376" s="15"/>
       <c r="C376" s="15"/>
       <c r="D376" s="15"/>
@@ -14931,7 +14938,7 @@
       <c r="AI376" s="1"/>
       <c r="AJ376" s="1"/>
     </row>
-    <row r="377" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B377" s="15"/>
       <c r="C377" s="15"/>
       <c r="D377" s="15"/>
@@ -14962,7 +14969,7 @@
       <c r="AI377" s="1"/>
       <c r="AJ377" s="1"/>
     </row>
-    <row r="378" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B378" s="15"/>
       <c r="C378" s="15"/>
       <c r="D378" s="15"/>
@@ -14993,7 +15000,7 @@
       <c r="AI378" s="1"/>
       <c r="AJ378" s="1"/>
     </row>
-    <row r="379" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B379" s="15"/>
       <c r="C379" s="15"/>
       <c r="D379" s="15"/>
@@ -15024,7 +15031,7 @@
       <c r="AI379" s="1"/>
       <c r="AJ379" s="1"/>
     </row>
-    <row r="380" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B380" s="15"/>
       <c r="C380" s="15"/>
       <c r="D380" s="15"/>
@@ -15055,7 +15062,7 @@
       <c r="AI380" s="1"/>
       <c r="AJ380" s="1"/>
     </row>
-    <row r="381" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B381" s="15"/>
       <c r="C381" s="15"/>
       <c r="D381" s="15"/>
@@ -15086,7 +15093,7 @@
       <c r="AI381" s="1"/>
       <c r="AJ381" s="1"/>
     </row>
-    <row r="382" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B382" s="15"/>
       <c r="C382" s="15"/>
       <c r="D382" s="15"/>
@@ -15117,7 +15124,7 @@
       <c r="AI382" s="1"/>
       <c r="AJ382" s="1"/>
     </row>
-    <row r="383" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B383" s="15"/>
       <c r="C383" s="15"/>
       <c r="D383" s="15"/>
@@ -15148,7 +15155,7 @@
       <c r="AI383" s="1"/>
       <c r="AJ383" s="1"/>
     </row>
-    <row r="384" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B384" s="15"/>
       <c r="C384" s="15"/>
       <c r="D384" s="15"/>
@@ -15179,7 +15186,7 @@
       <c r="AI384" s="1"/>
       <c r="AJ384" s="1"/>
     </row>
-    <row r="385" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B385" s="15"/>
       <c r="C385" s="15"/>
       <c r="D385" s="15"/>
@@ -15210,7 +15217,7 @@
       <c r="AI385" s="1"/>
       <c r="AJ385" s="1"/>
     </row>
-    <row r="386" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B386" s="15"/>
       <c r="C386" s="15"/>
       <c r="D386" s="15"/>
@@ -15241,7 +15248,7 @@
       <c r="AI386" s="1"/>
       <c r="AJ386" s="1"/>
     </row>
-    <row r="387" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B387" s="15"/>
       <c r="C387" s="15"/>
       <c r="D387" s="15"/>
@@ -15272,7 +15279,7 @@
       <c r="AI387" s="1"/>
       <c r="AJ387" s="1"/>
     </row>
-    <row r="388" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B388" s="15"/>
       <c r="C388" s="15"/>
       <c r="D388" s="15"/>
@@ -15303,7 +15310,7 @@
       <c r="AI388" s="1"/>
       <c r="AJ388" s="1"/>
     </row>
-    <row r="389" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B389" s="15"/>
       <c r="C389" s="15"/>
       <c r="D389" s="15"/>
@@ -15334,7 +15341,7 @@
       <c r="AI389" s="1"/>
       <c r="AJ389" s="1"/>
     </row>
-    <row r="390" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B390" s="15"/>
       <c r="C390" s="15"/>
       <c r="D390" s="15"/>
@@ -15365,7 +15372,7 @@
       <c r="AI390" s="1"/>
       <c r="AJ390" s="1"/>
     </row>
-    <row r="391" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B391" s="15"/>
       <c r="C391" s="15"/>
       <c r="D391" s="15"/>
@@ -15396,7 +15403,7 @@
       <c r="AI391" s="1"/>
       <c r="AJ391" s="1"/>
     </row>
-    <row r="392" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B392" s="15"/>
       <c r="C392" s="15"/>
       <c r="D392" s="15"/>
@@ -15427,7 +15434,7 @@
       <c r="AI392" s="1"/>
       <c r="AJ392" s="1"/>
     </row>
-    <row r="393" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B393" s="15"/>
       <c r="C393" s="15"/>
       <c r="D393" s="15"/>
@@ -15458,7 +15465,7 @@
       <c r="AI393" s="1"/>
       <c r="AJ393" s="1"/>
     </row>
-    <row r="394" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B394" s="15"/>
       <c r="C394" s="15"/>
       <c r="D394" s="15"/>
@@ -15489,7 +15496,7 @@
       <c r="AI394" s="1"/>
       <c r="AJ394" s="1"/>
     </row>
-    <row r="395" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B395" s="15"/>
       <c r="C395" s="15"/>
       <c r="D395" s="15"/>
@@ -15520,7 +15527,7 @@
       <c r="AI395" s="1"/>
       <c r="AJ395" s="1"/>
     </row>
-    <row r="396" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B396" s="15"/>
       <c r="C396" s="15"/>
       <c r="D396" s="15"/>
@@ -15551,7 +15558,7 @@
       <c r="AI396" s="1"/>
       <c r="AJ396" s="1"/>
     </row>
-    <row r="397" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B397" s="15"/>
       <c r="C397" s="15"/>
       <c r="D397" s="15"/>
@@ -15582,7 +15589,7 @@
       <c r="AI397" s="1"/>
       <c r="AJ397" s="1"/>
     </row>
-    <row r="398" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B398" s="15"/>
       <c r="C398" s="15"/>
       <c r="D398" s="15"/>
@@ -15613,7 +15620,7 @@
       <c r="AI398" s="1"/>
       <c r="AJ398" s="1"/>
     </row>
-    <row r="399" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B399" s="15"/>
       <c r="C399" s="15"/>
       <c r="D399" s="15"/>
@@ -15644,7 +15651,7 @@
       <c r="AI399" s="1"/>
       <c r="AJ399" s="1"/>
     </row>
-    <row r="400" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B400" s="15"/>
       <c r="C400" s="15"/>
       <c r="D400" s="15"/>
@@ -15675,7 +15682,7 @@
       <c r="AI400" s="1"/>
       <c r="AJ400" s="1"/>
     </row>
-    <row r="401" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B401" s="15"/>
       <c r="C401" s="15"/>
       <c r="D401" s="15"/>
@@ -15706,7 +15713,7 @@
       <c r="AI401" s="1"/>
       <c r="AJ401" s="1"/>
     </row>
-    <row r="402" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B402" s="15"/>
       <c r="C402" s="15"/>
       <c r="D402" s="15"/>
@@ -15737,7 +15744,7 @@
       <c r="AI402" s="1"/>
       <c r="AJ402" s="1"/>
     </row>
-    <row r="403" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B403" s="15"/>
       <c r="C403" s="15"/>
       <c r="D403" s="15"/>
@@ -15768,7 +15775,7 @@
       <c r="AI403" s="1"/>
       <c r="AJ403" s="1"/>
     </row>
-    <row r="404" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B404" s="15"/>
       <c r="C404" s="15"/>
       <c r="D404" s="15"/>
@@ -15799,7 +15806,7 @@
       <c r="AI404" s="1"/>
       <c r="AJ404" s="1"/>
     </row>
-    <row r="405" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B405" s="15"/>
       <c r="C405" s="15"/>
       <c r="D405" s="15"/>
@@ -15830,7 +15837,7 @@
       <c r="AI405" s="1"/>
       <c r="AJ405" s="1"/>
     </row>
-    <row r="406" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B406" s="15"/>
       <c r="C406" s="15"/>
       <c r="D406" s="15"/>
@@ -15861,7 +15868,7 @@
       <c r="AI406" s="1"/>
       <c r="AJ406" s="1"/>
     </row>
-    <row r="407" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B407" s="15"/>
       <c r="C407" s="15"/>
       <c r="D407" s="15"/>
@@ -15892,7 +15899,7 @@
       <c r="AI407" s="1"/>
       <c r="AJ407" s="1"/>
     </row>
-    <row r="408" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B408" s="15"/>
       <c r="C408" s="15"/>
       <c r="D408" s="15"/>
@@ -15923,7 +15930,7 @@
       <c r="AI408" s="1"/>
       <c r="AJ408" s="1"/>
     </row>
-    <row r="409" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B409" s="15"/>
       <c r="C409" s="15"/>
       <c r="D409" s="15"/>
@@ -15954,7 +15961,7 @@
       <c r="AI409" s="1"/>
       <c r="AJ409" s="1"/>
     </row>
-    <row r="410" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B410" s="15"/>
       <c r="C410" s="15"/>
       <c r="D410" s="15"/>
@@ -15985,7 +15992,7 @@
       <c r="AI410" s="1"/>
       <c r="AJ410" s="1"/>
     </row>
-    <row r="411" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B411" s="15"/>
       <c r="C411" s="15"/>
       <c r="D411" s="15"/>
@@ -16016,7 +16023,7 @@
       <c r="AI411" s="1"/>
       <c r="AJ411" s="1"/>
     </row>
-    <row r="412" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B412" s="15"/>
       <c r="C412" s="15"/>
       <c r="D412" s="15"/>
@@ -16047,7 +16054,7 @@
       <c r="AI412" s="1"/>
       <c r="AJ412" s="1"/>
     </row>
-    <row r="413" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B413" s="15"/>
       <c r="C413" s="15"/>
       <c r="D413" s="15"/>
@@ -16078,7 +16085,7 @@
       <c r="AI413" s="1"/>
       <c r="AJ413" s="1"/>
     </row>
-    <row r="414" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B414" s="15"/>
       <c r="C414" s="15"/>
       <c r="D414" s="15"/>
@@ -16109,7 +16116,7 @@
       <c r="AI414" s="1"/>
       <c r="AJ414" s="1"/>
     </row>
-    <row r="415" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B415" s="15"/>
       <c r="C415" s="15"/>
       <c r="D415" s="15"/>
@@ -16140,7 +16147,7 @@
       <c r="AI415" s="1"/>
       <c r="AJ415" s="1"/>
     </row>
-    <row r="416" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B416" s="15"/>
       <c r="C416" s="15"/>
       <c r="D416" s="15"/>
@@ -16171,7 +16178,7 @@
       <c r="AI416" s="1"/>
       <c r="AJ416" s="1"/>
     </row>
-    <row r="417" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B417" s="15"/>
       <c r="C417" s="15"/>
       <c r="D417" s="15"/>
@@ -16202,7 +16209,7 @@
       <c r="AI417" s="1"/>
       <c r="AJ417" s="1"/>
     </row>
-    <row r="418" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B418" s="15"/>
       <c r="C418" s="15"/>
       <c r="D418" s="15"/>
@@ -16233,7 +16240,7 @@
       <c r="AI418" s="1"/>
       <c r="AJ418" s="1"/>
     </row>
-    <row r="419" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B419" s="15"/>
       <c r="C419" s="15"/>
       <c r="D419" s="15"/>
@@ -16264,7 +16271,7 @@
       <c r="AI419" s="1"/>
       <c r="AJ419" s="1"/>
     </row>
-    <row r="420" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B420" s="15"/>
       <c r="C420" s="15"/>
       <c r="D420" s="15"/>
@@ -16295,7 +16302,7 @@
       <c r="AI420" s="1"/>
       <c r="AJ420" s="1"/>
     </row>
-    <row r="421" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B421" s="15"/>
       <c r="C421" s="15"/>
       <c r="D421" s="15"/>
@@ -16326,7 +16333,7 @@
       <c r="AI421" s="1"/>
       <c r="AJ421" s="1"/>
     </row>
-    <row r="422" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B422" s="15"/>
       <c r="C422" s="15"/>
       <c r="D422" s="15"/>
@@ -16357,7 +16364,7 @@
       <c r="AI422" s="1"/>
       <c r="AJ422" s="1"/>
     </row>
-    <row r="423" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B423" s="15"/>
       <c r="C423" s="15"/>
       <c r="D423" s="15"/>
@@ -16388,7 +16395,7 @@
       <c r="AI423" s="1"/>
       <c r="AJ423" s="1"/>
     </row>
-    <row r="424" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B424" s="15"/>
       <c r="C424" s="15"/>
       <c r="D424" s="15"/>
@@ -16419,7 +16426,7 @@
       <c r="AI424" s="1"/>
       <c r="AJ424" s="1"/>
     </row>
-    <row r="425" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B425" s="15"/>
       <c r="C425" s="15"/>
       <c r="D425" s="15"/>
@@ -16450,7 +16457,7 @@
       <c r="AI425" s="1"/>
       <c r="AJ425" s="1"/>
     </row>
-    <row r="426" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B426" s="15"/>
       <c r="C426" s="15"/>
       <c r="D426" s="15"/>
@@ -16481,7 +16488,7 @@
       <c r="AI426" s="1"/>
       <c r="AJ426" s="1"/>
     </row>
-    <row r="427" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B427" s="15"/>
       <c r="C427" s="15"/>
       <c r="D427" s="15"/>
@@ -16512,7 +16519,7 @@
       <c r="AI427" s="1"/>
       <c r="AJ427" s="1"/>
     </row>
-    <row r="428" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B428" s="15"/>
       <c r="C428" s="15"/>
       <c r="D428" s="15"/>
@@ -16543,7 +16550,7 @@
       <c r="AI428" s="1"/>
       <c r="AJ428" s="1"/>
     </row>
-    <row r="429" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B429" s="15"/>
       <c r="C429" s="15"/>
       <c r="D429" s="15"/>
@@ -16574,7 +16581,7 @@
       <c r="AI429" s="1"/>
       <c r="AJ429" s="1"/>
     </row>
-    <row r="430" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B430" s="15"/>
       <c r="C430" s="15"/>
       <c r="D430" s="15"/>
@@ -16605,7 +16612,7 @@
       <c r="AI430" s="1"/>
       <c r="AJ430" s="1"/>
     </row>
-    <row r="431" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B431" s="15"/>
       <c r="C431" s="15"/>
       <c r="D431" s="15"/>
@@ -16636,7 +16643,7 @@
       <c r="AI431" s="1"/>
       <c r="AJ431" s="1"/>
     </row>
-    <row r="432" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B432" s="15"/>
       <c r="C432" s="15"/>
       <c r="D432" s="15"/>
@@ -16667,7 +16674,7 @@
       <c r="AI432" s="1"/>
       <c r="AJ432" s="1"/>
     </row>
-    <row r="433" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B433" s="15"/>
       <c r="C433" s="15"/>
       <c r="D433" s="15"/>
@@ -16698,7 +16705,7 @@
       <c r="AI433" s="1"/>
       <c r="AJ433" s="1"/>
     </row>
-    <row r="434" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B434" s="15"/>
       <c r="C434" s="15"/>
       <c r="D434" s="15"/>
@@ -16729,7 +16736,7 @@
       <c r="AI434" s="1"/>
       <c r="AJ434" s="1"/>
     </row>
-    <row r="435" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B435" s="15"/>
       <c r="C435" s="15"/>
       <c r="D435" s="15"/>
@@ -16760,7 +16767,7 @@
       <c r="AI435" s="1"/>
       <c r="AJ435" s="1"/>
     </row>
-    <row r="436" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B436" s="15"/>
       <c r="C436" s="15"/>
       <c r="D436" s="15"/>
@@ -16791,7 +16798,7 @@
       <c r="AI436" s="1"/>
       <c r="AJ436" s="1"/>
     </row>
-    <row r="437" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B437" s="15"/>
       <c r="C437" s="15"/>
       <c r="D437" s="15"/>
@@ -16822,7 +16829,7 @@
       <c r="AI437" s="1"/>
       <c r="AJ437" s="1"/>
     </row>
-    <row r="438" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B438" s="15"/>
       <c r="C438" s="15"/>
       <c r="D438" s="15"/>
@@ -16853,7 +16860,7 @@
       <c r="AI438" s="1"/>
       <c r="AJ438" s="1"/>
     </row>
-    <row r="439" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B439" s="15"/>
       <c r="C439" s="15"/>
       <c r="D439" s="15"/>
@@ -16884,7 +16891,7 @@
       <c r="AI439" s="1"/>
       <c r="AJ439" s="1"/>
     </row>
-    <row r="440" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B440" s="15"/>
       <c r="C440" s="15"/>
       <c r="D440" s="15"/>
@@ -16915,7 +16922,7 @@
       <c r="AI440" s="1"/>
       <c r="AJ440" s="1"/>
     </row>
-    <row r="441" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B441" s="15"/>
       <c r="C441" s="15"/>
       <c r="D441" s="15"/>
@@ -16946,7 +16953,7 @@
       <c r="AI441" s="1"/>
       <c r="AJ441" s="1"/>
     </row>
-    <row r="442" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B442" s="15"/>
       <c r="C442" s="15"/>
       <c r="D442" s="15"/>
@@ -16977,7 +16984,7 @@
       <c r="AI442" s="1"/>
       <c r="AJ442" s="1"/>
     </row>
-    <row r="443" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B443" s="15"/>
       <c r="C443" s="15"/>
       <c r="D443" s="15"/>
@@ -17008,7 +17015,7 @@
       <c r="AI443" s="1"/>
       <c r="AJ443" s="1"/>
     </row>
-    <row r="444" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B444" s="15"/>
       <c r="C444" s="15"/>
       <c r="D444" s="15"/>
@@ -17039,7 +17046,7 @@
       <c r="AI444" s="1"/>
       <c r="AJ444" s="1"/>
     </row>
-    <row r="445" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B445" s="15"/>
       <c r="C445" s="15"/>
       <c r="D445" s="15"/>
@@ -17070,7 +17077,7 @@
       <c r="AI445" s="1"/>
       <c r="AJ445" s="1"/>
     </row>
-    <row r="446" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B446" s="15"/>
       <c r="C446" s="15"/>
       <c r="D446" s="15"/>
@@ -17101,7 +17108,7 @@
       <c r="AI446" s="1"/>
       <c r="AJ446" s="1"/>
     </row>
-    <row r="447" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B447" s="15"/>
       <c r="C447" s="15"/>
       <c r="D447" s="15"/>
@@ -17132,7 +17139,7 @@
       <c r="AI447" s="1"/>
       <c r="AJ447" s="1"/>
     </row>
-    <row r="448" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B448" s="15"/>
       <c r="C448" s="15"/>
       <c r="D448" s="15"/>
@@ -17163,7 +17170,7 @@
       <c r="AI448" s="1"/>
       <c r="AJ448" s="1"/>
     </row>
-    <row r="449" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B449" s="15"/>
       <c r="C449" s="15"/>
       <c r="D449" s="15"/>
@@ -17194,7 +17201,7 @@
       <c r="AI449" s="1"/>
       <c r="AJ449" s="1"/>
     </row>
-    <row r="450" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B450" s="15"/>
       <c r="C450" s="15"/>
       <c r="D450" s="15"/>
@@ -17225,7 +17232,7 @@
       <c r="AI450" s="1"/>
       <c r="AJ450" s="1"/>
     </row>
-    <row r="451" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B451" s="15"/>
       <c r="C451" s="15"/>
       <c r="D451" s="15"/>
@@ -17256,7 +17263,7 @@
       <c r="AI451" s="1"/>
       <c r="AJ451" s="1"/>
     </row>
-    <row r="452" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B452" s="15"/>
       <c r="C452" s="15"/>
       <c r="D452" s="15"/>
@@ -17287,7 +17294,7 @@
       <c r="AI452" s="1"/>
       <c r="AJ452" s="1"/>
     </row>
-    <row r="453" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B453" s="15"/>
       <c r="C453" s="15"/>
       <c r="D453" s="15"/>
@@ -17318,7 +17325,7 @@
       <c r="AI453" s="1"/>
       <c r="AJ453" s="1"/>
     </row>
-    <row r="454" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B454" s="15"/>
       <c r="C454" s="15"/>
       <c r="D454" s="15"/>
@@ -17349,7 +17356,7 @@
       <c r="AI454" s="1"/>
       <c r="AJ454" s="1"/>
     </row>
-    <row r="455" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B455" s="15"/>
       <c r="C455" s="15"/>
       <c r="D455" s="15"/>
@@ -17380,7 +17387,7 @@
       <c r="AI455" s="1"/>
       <c r="AJ455" s="1"/>
     </row>
-    <row r="456" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B456" s="15"/>
       <c r="C456" s="15"/>
       <c r="D456" s="15"/>
@@ -17411,7 +17418,7 @@
       <c r="AI456" s="1"/>
       <c r="AJ456" s="1"/>
     </row>
-    <row r="457" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E457" s="12"/>
       <c r="F457" s="14"/>
       <c r="G457" s="12"/>
@@ -17439,7 +17446,7 @@
       <c r="AI457" s="1"/>
       <c r="AJ457" s="1"/>
     </row>
-    <row r="458" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E458" s="12"/>
       <c r="F458" s="14"/>
       <c r="G458" s="12"/>
@@ -17467,7 +17474,7 @@
       <c r="AI458" s="1"/>
       <c r="AJ458" s="1"/>
     </row>
-    <row r="459" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E459" s="12"/>
       <c r="F459" s="14"/>
       <c r="G459" s="12"/>
@@ -17495,7 +17502,7 @@
       <c r="AI459" s="1"/>
       <c r="AJ459" s="1"/>
     </row>
-    <row r="460" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E460" s="12"/>
       <c r="F460" s="14"/>
       <c r="G460" s="12"/>
@@ -17523,7 +17530,7 @@
       <c r="AI460" s="1"/>
       <c r="AJ460" s="1"/>
     </row>
-    <row r="461" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E461" s="12"/>
       <c r="F461" s="14"/>
       <c r="G461" s="12"/>
@@ -17551,7 +17558,7 @@
       <c r="AI461" s="1"/>
       <c r="AJ461" s="1"/>
     </row>
-    <row r="462" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E462" s="12"/>
       <c r="F462" s="14"/>
       <c r="G462" s="12"/>
@@ -17579,7 +17586,7 @@
       <c r="AI462" s="1"/>
       <c r="AJ462" s="1"/>
     </row>
-    <row r="463" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E463" s="12"/>
       <c r="F463" s="14"/>
       <c r="G463" s="12"/>
@@ -17607,7 +17614,7 @@
       <c r="AI463" s="1"/>
       <c r="AJ463" s="1"/>
     </row>
-    <row r="464" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E464" s="12"/>
       <c r="F464" s="14"/>
       <c r="G464" s="12"/>
@@ -17635,7 +17642,7 @@
       <c r="AI464" s="1"/>
       <c r="AJ464" s="1"/>
     </row>
-    <row r="465" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="465" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E465" s="12"/>
       <c r="F465" s="14"/>
       <c r="G465" s="12"/>
@@ -17663,7 +17670,7 @@
       <c r="AI465" s="1"/>
       <c r="AJ465" s="1"/>
     </row>
-    <row r="466" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="466" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E466" s="12"/>
       <c r="F466" s="14"/>
       <c r="G466" s="12"/>
@@ -17691,7 +17698,7 @@
       <c r="AI466" s="1"/>
       <c r="AJ466" s="1"/>
     </row>
-    <row r="467" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="467" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E467" s="12"/>
       <c r="F467" s="14"/>
       <c r="G467" s="12"/>
@@ -17719,7 +17726,7 @@
       <c r="AI467" s="1"/>
       <c r="AJ467" s="1"/>
     </row>
-    <row r="468" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="468" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E468" s="12"/>
       <c r="F468" s="14"/>
       <c r="G468" s="12"/>
@@ -17747,7 +17754,7 @@
       <c r="AI468" s="1"/>
       <c r="AJ468" s="1"/>
     </row>
-    <row r="469" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="469" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E469" s="12"/>
       <c r="F469" s="14"/>
       <c r="G469" s="12"/>
@@ -17775,7 +17782,7 @@
       <c r="AI469" s="1"/>
       <c r="AJ469" s="1"/>
     </row>
-    <row r="470" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="470" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E470" s="12"/>
       <c r="F470" s="14"/>
       <c r="G470" s="12"/>
@@ -17803,7 +17810,7 @@
       <c r="AI470" s="1"/>
       <c r="AJ470" s="1"/>
     </row>
-    <row r="471" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="471" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E471" s="12"/>
       <c r="F471" s="14"/>
       <c r="G471" s="12"/>
@@ -17831,7 +17838,7 @@
       <c r="AI471" s="1"/>
       <c r="AJ471" s="1"/>
     </row>
-    <row r="472" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="472" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E472" s="12"/>
       <c r="F472" s="14"/>
       <c r="G472" s="12"/>
@@ -17859,7 +17866,7 @@
       <c r="AI472" s="1"/>
       <c r="AJ472" s="1"/>
     </row>
-    <row r="473" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="473" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E473" s="12"/>
       <c r="F473" s="14"/>
       <c r="G473" s="12"/>
@@ -17887,7 +17894,7 @@
       <c r="AI473" s="1"/>
       <c r="AJ473" s="1"/>
     </row>
-    <row r="474" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="474" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E474" s="12"/>
       <c r="F474" s="14"/>
       <c r="G474" s="12"/>
@@ -17915,7 +17922,7 @@
       <c r="AI474" s="1"/>
       <c r="AJ474" s="1"/>
     </row>
-    <row r="475" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="475" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E475" s="12"/>
       <c r="F475" s="14"/>
       <c r="G475" s="12"/>
@@ -17943,7 +17950,7 @@
       <c r="AI475" s="1"/>
       <c r="AJ475" s="1"/>
     </row>
-    <row r="476" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="476" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E476" s="12"/>
       <c r="F476" s="14"/>
       <c r="G476" s="12"/>
@@ -17971,7 +17978,7 @@
       <c r="AI476" s="1"/>
       <c r="AJ476" s="1"/>
     </row>
-    <row r="477" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="477" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E477" s="12"/>
       <c r="F477" s="14"/>
       <c r="G477" s="12"/>
@@ -17999,7 +18006,7 @@
       <c r="AI477" s="1"/>
       <c r="AJ477" s="1"/>
     </row>
-    <row r="478" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="478" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E478" s="12"/>
       <c r="F478" s="14"/>
       <c r="G478" s="12"/>
@@ -18027,7 +18034,7 @@
       <c r="AI478" s="1"/>
       <c r="AJ478" s="1"/>
     </row>
-    <row r="479" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="479" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E479" s="12"/>
       <c r="F479" s="14"/>
       <c r="G479" s="12"/>
@@ -18055,7 +18062,7 @@
       <c r="AI479" s="1"/>
       <c r="AJ479" s="1"/>
     </row>
-    <row r="480" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="480" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E480" s="12"/>
       <c r="F480" s="14"/>
       <c r="G480" s="12"/>
@@ -18083,7 +18090,7 @@
       <c r="AI480" s="1"/>
       <c r="AJ480" s="1"/>
     </row>
-    <row r="481" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="481" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E481" s="12"/>
       <c r="F481" s="14"/>
       <c r="G481" s="12"/>
@@ -18111,7 +18118,7 @@
       <c r="AI481" s="1"/>
       <c r="AJ481" s="1"/>
     </row>
-    <row r="482" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="482" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E482" s="12"/>
       <c r="F482" s="14"/>
       <c r="G482" s="12"/>
@@ -18139,7 +18146,7 @@
       <c r="AI482" s="1"/>
       <c r="AJ482" s="1"/>
     </row>
-    <row r="483" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="483" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E483" s="12"/>
       <c r="F483" s="14"/>
       <c r="G483" s="12"/>
@@ -18167,7 +18174,7 @@
       <c r="AI483" s="1"/>
       <c r="AJ483" s="1"/>
     </row>
-    <row r="484" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="484" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E484" s="12"/>
       <c r="F484" s="14"/>
       <c r="G484" s="12"/>
@@ -18195,7 +18202,7 @@
       <c r="AI484" s="1"/>
       <c r="AJ484" s="1"/>
     </row>
-    <row r="485" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="485" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E485" s="12"/>
       <c r="F485" s="14"/>
       <c r="G485" s="12"/>
@@ -18223,7 +18230,7 @@
       <c r="AI485" s="1"/>
       <c r="AJ485" s="1"/>
     </row>
-    <row r="486" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="486" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E486" s="12"/>
       <c r="F486" s="14"/>
       <c r="G486" s="12"/>
@@ -18251,7 +18258,7 @@
       <c r="AI486" s="1"/>
       <c r="AJ486" s="1"/>
     </row>
-    <row r="487" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="487" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E487" s="12"/>
       <c r="F487" s="14"/>
       <c r="G487" s="12"/>
@@ -18279,7 +18286,7 @@
       <c r="AI487" s="1"/>
       <c r="AJ487" s="1"/>
     </row>
-    <row r="488" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="488" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E488" s="12"/>
       <c r="F488" s="14"/>
       <c r="G488" s="12"/>
@@ -18307,7 +18314,7 @@
       <c r="AI488" s="1"/>
       <c r="AJ488" s="1"/>
     </row>
-    <row r="489" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="489" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E489" s="12"/>
       <c r="F489" s="14"/>
       <c r="G489" s="12"/>
@@ -18335,7 +18342,7 @@
       <c r="AI489" s="1"/>
       <c r="AJ489" s="1"/>
     </row>
-    <row r="490" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="490" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E490" s="12"/>
       <c r="F490" s="14"/>
       <c r="G490" s="12"/>
@@ -18363,7 +18370,7 @@
       <c r="AI490" s="1"/>
       <c r="AJ490" s="1"/>
     </row>
-    <row r="491" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="491" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E491" s="12"/>
       <c r="F491" s="14"/>
       <c r="G491" s="12"/>
@@ -18391,7 +18398,7 @@
       <c r="AI491" s="1"/>
       <c r="AJ491" s="1"/>
     </row>
-    <row r="492" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="492" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E492" s="12"/>
       <c r="F492" s="14"/>
       <c r="G492" s="12"/>
@@ -18419,7 +18426,7 @@
       <c r="AI492" s="1"/>
       <c r="AJ492" s="1"/>
     </row>
-    <row r="493" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="493" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E493" s="12"/>
       <c r="F493" s="14"/>
       <c r="G493" s="12"/>
@@ -18447,7 +18454,7 @@
       <c r="AI493" s="1"/>
       <c r="AJ493" s="1"/>
     </row>
-    <row r="494" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="494" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E494" s="12"/>
       <c r="F494" s="14"/>
       <c r="G494" s="12"/>
@@ -18475,7 +18482,7 @@
       <c r="AI494" s="1"/>
       <c r="AJ494" s="1"/>
     </row>
-    <row r="495" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="495" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E495" s="12"/>
       <c r="F495" s="14"/>
       <c r="G495" s="12"/>
@@ -18503,7 +18510,7 @@
       <c r="AI495" s="1"/>
       <c r="AJ495" s="1"/>
     </row>
-    <row r="496" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="496" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E496" s="12"/>
       <c r="F496" s="14"/>
       <c r="G496" s="12"/>
@@ -18531,7 +18538,7 @@
       <c r="AI496" s="1"/>
       <c r="AJ496" s="1"/>
     </row>
-    <row r="497" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="497" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E497" s="12"/>
       <c r="F497" s="14"/>
       <c r="G497" s="12"/>
@@ -18559,7 +18566,7 @@
       <c r="AI497" s="1"/>
       <c r="AJ497" s="1"/>
     </row>
-    <row r="498" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="498" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E498" s="12"/>
       <c r="F498" s="14"/>
       <c r="G498" s="12"/>
@@ -18587,7 +18594,7 @@
       <c r="AI498" s="1"/>
       <c r="AJ498" s="1"/>
     </row>
-    <row r="499" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="499" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E499" s="12"/>
       <c r="F499" s="14"/>
       <c r="G499" s="12"/>
@@ -18615,7 +18622,7 @@
       <c r="AI499" s="1"/>
       <c r="AJ499" s="1"/>
     </row>
-    <row r="500" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="500" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E500" s="12"/>
       <c r="F500" s="14"/>
       <c r="G500" s="12"/>
@@ -18643,7 +18650,7 @@
       <c r="AI500" s="1"/>
       <c r="AJ500" s="1"/>
     </row>
-    <row r="501" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="501" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E501" s="12"/>
       <c r="F501" s="14"/>
       <c r="G501" s="12"/>
@@ -18671,7 +18678,7 @@
       <c r="AI501" s="1"/>
       <c r="AJ501" s="1"/>
     </row>
-    <row r="502" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="502" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E502" s="12"/>
       <c r="F502" s="14"/>
       <c r="G502" s="12"/>
@@ -18699,7 +18706,7 @@
       <c r="AI502" s="1"/>
       <c r="AJ502" s="1"/>
     </row>
-    <row r="503" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="503" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E503" s="12"/>
       <c r="F503" s="14"/>
       <c r="G503" s="12"/>
@@ -18727,7 +18734,7 @@
       <c r="AI503" s="1"/>
       <c r="AJ503" s="1"/>
     </row>
-    <row r="504" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="504" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E504" s="12"/>
       <c r="F504" s="14"/>
       <c r="G504" s="12"/>
@@ -18755,7 +18762,7 @@
       <c r="AI504" s="1"/>
       <c r="AJ504" s="1"/>
     </row>
-    <row r="505" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="505" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E505" s="12"/>
       <c r="F505" s="14"/>
       <c r="G505" s="12"/>
@@ -18783,7 +18790,7 @@
       <c r="AI505" s="1"/>
       <c r="AJ505" s="1"/>
     </row>
-    <row r="506" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="506" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E506" s="12"/>
       <c r="F506" s="14"/>
       <c r="G506" s="12"/>
@@ -18811,7 +18818,7 @@
       <c r="AI506" s="1"/>
       <c r="AJ506" s="1"/>
     </row>
-    <row r="507" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="507" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E507" s="12"/>
       <c r="F507" s="14"/>
       <c r="G507" s="12"/>
@@ -18839,7 +18846,7 @@
       <c r="AI507" s="1"/>
       <c r="AJ507" s="1"/>
     </row>
-    <row r="508" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="508" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E508" s="12"/>
       <c r="F508" s="14"/>
       <c r="G508" s="12"/>
@@ -18867,7 +18874,7 @@
       <c r="AI508" s="1"/>
       <c r="AJ508" s="1"/>
     </row>
-    <row r="509" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="509" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E509" s="12"/>
       <c r="F509" s="14"/>
       <c r="G509" s="12"/>
@@ -18895,7 +18902,7 @@
       <c r="AI509" s="1"/>
       <c r="AJ509" s="1"/>
     </row>
-    <row r="510" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="510" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E510" s="12"/>
       <c r="F510" s="14"/>
       <c r="G510" s="12"/>
@@ -18923,7 +18930,7 @@
       <c r="AI510" s="1"/>
       <c r="AJ510" s="1"/>
     </row>
-    <row r="511" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="511" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E511" s="12"/>
       <c r="F511" s="14"/>
       <c r="G511" s="12"/>
@@ -18951,7 +18958,7 @@
       <c r="AI511" s="1"/>
       <c r="AJ511" s="1"/>
     </row>
-    <row r="512" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="512" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E512" s="12"/>
       <c r="F512" s="14"/>
       <c r="G512" s="12"/>
@@ -18979,7 +18986,7 @@
       <c r="AI512" s="1"/>
       <c r="AJ512" s="1"/>
     </row>
-    <row r="513" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="513" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E513" s="12"/>
       <c r="F513" s="14"/>
       <c r="G513" s="12"/>
@@ -19007,7 +19014,7 @@
       <c r="AI513" s="1"/>
       <c r="AJ513" s="1"/>
     </row>
-    <row r="514" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="514" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E514" s="12"/>
       <c r="F514" s="14"/>
       <c r="G514" s="12"/>
@@ -19035,7 +19042,7 @@
       <c r="AI514" s="1"/>
       <c r="AJ514" s="1"/>
     </row>
-    <row r="515" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="515" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E515" s="12"/>
       <c r="F515" s="14"/>
       <c r="G515" s="12"/>
@@ -19063,7 +19070,7 @@
       <c r="AI515" s="1"/>
       <c r="AJ515" s="1"/>
     </row>
-    <row r="516" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="516" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E516" s="12"/>
       <c r="F516" s="14"/>
       <c r="G516" s="12"/>
@@ -19091,7 +19098,7 @@
       <c r="AI516" s="1"/>
       <c r="AJ516" s="1"/>
     </row>
-    <row r="517" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="517" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E517" s="12"/>
       <c r="F517" s="14"/>
       <c r="G517" s="12"/>
@@ -19119,7 +19126,7 @@
       <c r="AI517" s="1"/>
       <c r="AJ517" s="1"/>
     </row>
-    <row r="518" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="518" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E518" s="12"/>
       <c r="F518" s="14"/>
       <c r="G518" s="12"/>
@@ -19147,7 +19154,7 @@
       <c r="AI518" s="1"/>
       <c r="AJ518" s="1"/>
     </row>
-    <row r="519" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="519" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E519" s="12"/>
       <c r="F519" s="14"/>
       <c r="G519" s="12"/>
@@ -19175,7 +19182,7 @@
       <c r="AI519" s="1"/>
       <c r="AJ519" s="1"/>
     </row>
-    <row r="520" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="520" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E520" s="12"/>
       <c r="F520" s="14"/>
       <c r="G520" s="12"/>
@@ -19203,7 +19210,7 @@
       <c r="AI520" s="1"/>
       <c r="AJ520" s="1"/>
     </row>
-    <row r="521" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="521" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E521" s="12"/>
       <c r="F521" s="14"/>
       <c r="G521" s="12"/>
@@ -19231,7 +19238,7 @@
       <c r="AI521" s="1"/>
       <c r="AJ521" s="1"/>
     </row>
-    <row r="522" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="522" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E522" s="12"/>
       <c r="F522" s="14"/>
       <c r="G522" s="12"/>
@@ -19259,7 +19266,7 @@
       <c r="AI522" s="1"/>
       <c r="AJ522" s="1"/>
     </row>
-    <row r="523" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="523" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E523" s="12"/>
       <c r="F523" s="14"/>
       <c r="G523" s="12"/>
@@ -19287,7 +19294,7 @@
       <c r="AI523" s="1"/>
       <c r="AJ523" s="1"/>
     </row>
-    <row r="524" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="524" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E524" s="12"/>
       <c r="F524" s="14"/>
       <c r="G524" s="12"/>
@@ -19315,7 +19322,7 @@
       <c r="AI524" s="1"/>
       <c r="AJ524" s="1"/>
     </row>
-    <row r="525" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="525" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E525" s="12"/>
       <c r="F525" s="14"/>
       <c r="G525" s="12"/>
@@ -19343,7 +19350,7 @@
       <c r="AI525" s="1"/>
       <c r="AJ525" s="1"/>
     </row>
-    <row r="526" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="526" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E526" s="12"/>
       <c r="F526" s="14"/>
       <c r="G526" s="12"/>
@@ -19371,7 +19378,7 @@
       <c r="AI526" s="1"/>
       <c r="AJ526" s="1"/>
     </row>
-    <row r="527" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="527" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E527" s="12"/>
       <c r="F527" s="14"/>
       <c r="G527" s="12"/>
@@ -19399,7 +19406,7 @@
       <c r="AI527" s="1"/>
       <c r="AJ527" s="1"/>
     </row>
-    <row r="528" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="528" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E528" s="12"/>
       <c r="F528" s="14"/>
       <c r="G528" s="12"/>
@@ -19427,7 +19434,7 @@
       <c r="AI528" s="1"/>
       <c r="AJ528" s="1"/>
     </row>
-    <row r="529" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="529" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E529" s="12"/>
       <c r="F529" s="14"/>
       <c r="G529" s="12"/>
@@ -19455,7 +19462,7 @@
       <c r="AI529" s="1"/>
       <c r="AJ529" s="1"/>
     </row>
-    <row r="530" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="530" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E530" s="12"/>
       <c r="F530" s="14"/>
       <c r="G530" s="12"/>
@@ -19483,7 +19490,7 @@
       <c r="AI530" s="1"/>
       <c r="AJ530" s="1"/>
     </row>
-    <row r="531" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="531" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E531" s="12"/>
       <c r="F531" s="14"/>
       <c r="G531" s="12"/>
@@ -19511,7 +19518,7 @@
       <c r="AI531" s="1"/>
       <c r="AJ531" s="1"/>
     </row>
-    <row r="532" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="532" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E532" s="12"/>
       <c r="F532" s="14"/>
       <c r="G532" s="12"/>
@@ -19539,7 +19546,7 @@
       <c r="AI532" s="1"/>
       <c r="AJ532" s="1"/>
     </row>
-    <row r="533" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="533" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E533" s="12"/>
       <c r="F533" s="14"/>
       <c r="G533" s="12"/>
@@ -19567,7 +19574,7 @@
       <c r="AI533" s="1"/>
       <c r="AJ533" s="1"/>
     </row>
-    <row r="534" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="534" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E534" s="12"/>
       <c r="F534" s="14"/>
       <c r="G534" s="12"/>
@@ -19595,7 +19602,7 @@
       <c r="AI534" s="1"/>
       <c r="AJ534" s="1"/>
     </row>
-    <row r="535" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="535" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E535" s="12"/>
       <c r="F535" s="14"/>
       <c r="G535" s="12"/>
@@ -19623,7 +19630,7 @@
       <c r="AI535" s="1"/>
       <c r="AJ535" s="1"/>
     </row>
-    <row r="536" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="536" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E536" s="12"/>
       <c r="F536" s="14"/>
       <c r="G536" s="12"/>
@@ -19651,7 +19658,7 @@
       <c r="AI536" s="1"/>
       <c r="AJ536" s="1"/>
     </row>
-    <row r="537" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="537" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E537" s="12"/>
       <c r="F537" s="14"/>
       <c r="G537" s="12"/>
@@ -19679,7 +19686,7 @@
       <c r="AI537" s="1"/>
       <c r="AJ537" s="1"/>
     </row>
-    <row r="538" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="538" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E538" s="12"/>
       <c r="F538" s="14"/>
       <c r="G538" s="12"/>
@@ -19707,7 +19714,7 @@
       <c r="AI538" s="1"/>
       <c r="AJ538" s="1"/>
     </row>
-    <row r="539" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="539" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E539" s="12"/>
       <c r="F539" s="14"/>
       <c r="G539" s="12"/>
@@ -19735,7 +19742,7 @@
       <c r="AI539" s="1"/>
       <c r="AJ539" s="1"/>
     </row>
-    <row r="540" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="540" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E540" s="12"/>
       <c r="F540" s="14"/>
       <c r="G540" s="12"/>
@@ -19763,7 +19770,7 @@
       <c r="AI540" s="1"/>
       <c r="AJ540" s="1"/>
     </row>
-    <row r="541" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="541" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E541" s="12"/>
       <c r="F541" s="14"/>
       <c r="G541" s="12"/>
@@ -19791,7 +19798,7 @@
       <c r="AI541" s="1"/>
       <c r="AJ541" s="1"/>
     </row>
-    <row r="542" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="542" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E542" s="12"/>
       <c r="F542" s="14"/>
       <c r="G542" s="12"/>
@@ -19819,7 +19826,7 @@
       <c r="AI542" s="1"/>
       <c r="AJ542" s="1"/>
     </row>
-    <row r="543" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="543" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E543" s="12"/>
       <c r="F543" s="14"/>
       <c r="G543" s="12"/>
@@ -19847,7 +19854,7 @@
       <c r="AI543" s="1"/>
       <c r="AJ543" s="1"/>
     </row>
-    <row r="544" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="544" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E544" s="12"/>
       <c r="F544" s="14"/>
       <c r="G544" s="12"/>
@@ -19875,7 +19882,7 @@
       <c r="AI544" s="1"/>
       <c r="AJ544" s="1"/>
     </row>
-    <row r="545" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="545" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E545" s="12"/>
       <c r="F545" s="14"/>
       <c r="G545" s="12"/>
@@ -19903,7 +19910,7 @@
       <c r="AI545" s="1"/>
       <c r="AJ545" s="1"/>
     </row>
-    <row r="546" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="546" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E546" s="12"/>
       <c r="F546" s="14"/>
       <c r="G546" s="12"/>
@@ -19931,7 +19938,7 @@
       <c r="AI546" s="1"/>
       <c r="AJ546" s="1"/>
     </row>
-    <row r="547" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="547" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E547" s="12"/>
       <c r="F547" s="14"/>
       <c r="G547" s="12"/>
@@ -19959,7 +19966,7 @@
       <c r="AI547" s="1"/>
       <c r="AJ547" s="1"/>
     </row>
-    <row r="548" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="548" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E548" s="12"/>
       <c r="F548" s="14"/>
       <c r="G548" s="12"/>
@@ -19987,7 +19994,7 @@
       <c r="AI548" s="1"/>
       <c r="AJ548" s="1"/>
     </row>
-    <row r="549" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="549" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E549" s="12"/>
       <c r="F549" s="14"/>
       <c r="G549" s="12"/>
@@ -20015,7 +20022,7 @@
       <c r="AI549" s="1"/>
       <c r="AJ549" s="1"/>
     </row>
-    <row r="550" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="550" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E550" s="12"/>
       <c r="F550" s="14"/>
       <c r="G550" s="12"/>
@@ -20043,7 +20050,7 @@
       <c r="AI550" s="1"/>
       <c r="AJ550" s="1"/>
     </row>
-    <row r="551" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="551" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E551" s="12"/>
       <c r="F551" s="14"/>
       <c r="G551" s="12"/>
@@ -20071,7 +20078,7 @@
       <c r="AI551" s="1"/>
       <c r="AJ551" s="1"/>
     </row>
-    <row r="552" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="552" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E552" s="12"/>
       <c r="F552" s="14"/>
       <c r="G552" s="12"/>
@@ -20099,7 +20106,7 @@
       <c r="AI552" s="1"/>
       <c r="AJ552" s="1"/>
     </row>
-    <row r="553" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="553" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E553" s="12"/>
       <c r="F553" s="14"/>
       <c r="G553" s="12"/>
@@ -20127,7 +20134,7 @@
       <c r="AI553" s="1"/>
       <c r="AJ553" s="1"/>
     </row>
-    <row r="554" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="554" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E554" s="12"/>
       <c r="F554" s="14"/>
       <c r="G554" s="12"/>
@@ -20155,7 +20162,7 @@
       <c r="AI554" s="1"/>
       <c r="AJ554" s="1"/>
     </row>
-    <row r="555" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="555" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E555" s="12"/>
       <c r="F555" s="14"/>
       <c r="G555" s="12"/>
@@ -20183,7 +20190,7 @@
       <c r="AI555" s="1"/>
       <c r="AJ555" s="1"/>
     </row>
-    <row r="556" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="556" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E556" s="12"/>
       <c r="F556" s="14"/>
       <c r="G556" s="12"/>
@@ -20211,7 +20218,7 @@
       <c r="AI556" s="1"/>
       <c r="AJ556" s="1"/>
     </row>
-    <row r="557" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="557" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E557" s="12"/>
       <c r="F557" s="14"/>
       <c r="G557" s="12"/>
@@ -20239,7 +20246,7 @@
       <c r="AI557" s="1"/>
       <c r="AJ557" s="1"/>
     </row>
-    <row r="558" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="558" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E558" s="12"/>
       <c r="F558" s="14"/>
       <c r="G558" s="12"/>
@@ -20267,7 +20274,7 @@
       <c r="AI558" s="1"/>
       <c r="AJ558" s="1"/>
     </row>
-    <row r="559" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="559" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E559" s="12"/>
       <c r="F559" s="14"/>
       <c r="G559" s="12"/>
@@ -20295,7 +20302,7 @@
       <c r="AI559" s="1"/>
       <c r="AJ559" s="1"/>
     </row>
-    <row r="560" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="560" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E560" s="12"/>
       <c r="F560" s="14"/>
       <c r="G560" s="12"/>
@@ -20323,7 +20330,7 @@
       <c r="AI560" s="1"/>
       <c r="AJ560" s="1"/>
     </row>
-    <row r="561" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="561" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E561" s="12"/>
       <c r="F561" s="14"/>
       <c r="G561" s="12"/>
@@ -20351,7 +20358,7 @@
       <c r="AI561" s="1"/>
       <c r="AJ561" s="1"/>
     </row>
-    <row r="562" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="562" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E562" s="12"/>
       <c r="F562" s="14"/>
       <c r="G562" s="12"/>
@@ -20379,7 +20386,7 @@
       <c r="AI562" s="1"/>
       <c r="AJ562" s="1"/>
     </row>
-    <row r="563" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="563" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E563" s="12"/>
       <c r="F563" s="14"/>
       <c r="G563" s="12"/>
@@ -20407,7 +20414,7 @@
       <c r="AI563" s="1"/>
       <c r="AJ563" s="1"/>
     </row>
-    <row r="564" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="564" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E564" s="12"/>
       <c r="F564" s="14"/>
       <c r="G564" s="12"/>
@@ -20435,7 +20442,7 @@
       <c r="AI564" s="1"/>
       <c r="AJ564" s="1"/>
     </row>
-    <row r="565" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="565" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E565" s="12"/>
       <c r="F565" s="14"/>
       <c r="G565" s="12"/>
@@ -20463,7 +20470,7 @@
       <c r="AI565" s="1"/>
       <c r="AJ565" s="1"/>
     </row>
-    <row r="566" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="566" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E566" s="12"/>
       <c r="F566" s="14"/>
       <c r="G566" s="12"/>
@@ -20491,7 +20498,7 @@
       <c r="AI566" s="1"/>
       <c r="AJ566" s="1"/>
     </row>
-    <row r="567" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="567" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E567" s="12"/>
       <c r="F567" s="14"/>
       <c r="G567" s="12"/>
@@ -20519,7 +20526,7 @@
       <c r="AI567" s="1"/>
       <c r="AJ567" s="1"/>
     </row>
-    <row r="568" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="568" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E568" s="12"/>
       <c r="F568" s="14"/>
       <c r="G568" s="12"/>
@@ -20547,7 +20554,7 @@
       <c r="AI568" s="1"/>
       <c r="AJ568" s="1"/>
     </row>
-    <row r="569" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="569" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E569" s="12"/>
       <c r="F569" s="14"/>
       <c r="G569" s="12"/>
@@ -20575,7 +20582,7 @@
       <c r="AI569" s="1"/>
       <c r="AJ569" s="1"/>
     </row>
-    <row r="570" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="570" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E570" s="12"/>
       <c r="F570" s="14"/>
       <c r="G570" s="12"/>
@@ -20603,7 +20610,7 @@
       <c r="AI570" s="1"/>
       <c r="AJ570" s="1"/>
     </row>
-    <row r="571" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="571" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E571" s="12"/>
       <c r="F571" s="14"/>
       <c r="G571" s="12"/>
@@ -20631,7 +20638,7 @@
       <c r="AI571" s="1"/>
       <c r="AJ571" s="1"/>
     </row>
-    <row r="572" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="572" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E572" s="12"/>
       <c r="F572" s="14"/>
       <c r="G572" s="12"/>
@@ -20659,7 +20666,7 @@
       <c r="AI572" s="1"/>
       <c r="AJ572" s="1"/>
     </row>
-    <row r="573" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="573" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E573" s="12"/>
       <c r="F573" s="14"/>
       <c r="G573" s="12"/>
@@ -20687,7 +20694,7 @@
       <c r="AI573" s="1"/>
       <c r="AJ573" s="1"/>
     </row>
-    <row r="574" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="574" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E574" s="12"/>
       <c r="F574" s="14"/>
       <c r="G574" s="12"/>
@@ -20715,7 +20722,7 @@
       <c r="AI574" s="1"/>
       <c r="AJ574" s="1"/>
     </row>
-    <row r="575" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="575" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E575" s="12"/>
       <c r="F575" s="14"/>
       <c r="G575" s="12"/>
@@ -20743,7 +20750,7 @@
       <c r="AI575" s="1"/>
       <c r="AJ575" s="1"/>
     </row>
-    <row r="576" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="576" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E576" s="12"/>
       <c r="F576" s="14"/>
       <c r="G576" s="12"/>
@@ -20771,7 +20778,7 @@
       <c r="AI576" s="1"/>
       <c r="AJ576" s="1"/>
     </row>
-    <row r="577" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="577" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E577" s="12"/>
       <c r="F577" s="14"/>
       <c r="G577" s="12"/>
@@ -20799,7 +20806,7 @@
       <c r="AI577" s="1"/>
       <c r="AJ577" s="1"/>
     </row>
-    <row r="578" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="578" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E578" s="12"/>
       <c r="F578" s="14"/>
       <c r="G578" s="12"/>
@@ -20827,7 +20834,7 @@
       <c r="AI578" s="1"/>
       <c r="AJ578" s="1"/>
     </row>
-    <row r="579" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="579" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E579" s="12"/>
       <c r="F579" s="14"/>
       <c r="G579" s="12"/>
@@ -20855,7 +20862,7 @@
       <c r="AI579" s="1"/>
       <c r="AJ579" s="1"/>
     </row>
-    <row r="580" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="580" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E580" s="12"/>
       <c r="F580" s="14"/>
       <c r="G580" s="12"/>
@@ -20883,7 +20890,7 @@
       <c r="AI580" s="1"/>
       <c r="AJ580" s="1"/>
     </row>
-    <row r="581" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="581" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E581" s="12"/>
       <c r="F581" s="14"/>
       <c r="G581" s="12"/>
@@ -20911,7 +20918,7 @@
       <c r="AI581" s="1"/>
       <c r="AJ581" s="1"/>
     </row>
-    <row r="582" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="582" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E582" s="12"/>
       <c r="F582" s="14"/>
       <c r="G582" s="12"/>
@@ -20939,7 +20946,7 @@
       <c r="AI582" s="1"/>
       <c r="AJ582" s="1"/>
     </row>
-    <row r="583" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="583" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E583" s="12"/>
       <c r="F583" s="14"/>
       <c r="G583" s="12"/>
@@ -20967,7 +20974,7 @@
       <c r="AI583" s="1"/>
       <c r="AJ583" s="1"/>
     </row>
-    <row r="584" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="584" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E584" s="12"/>
       <c r="F584" s="14"/>
       <c r="G584" s="12"/>
@@ -20995,7 +21002,7 @@
       <c r="AI584" s="1"/>
       <c r="AJ584" s="1"/>
     </row>
-    <row r="585" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="585" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E585" s="12"/>
       <c r="F585" s="14"/>
       <c r="G585" s="12"/>
@@ -21023,7 +21030,7 @@
       <c r="AI585" s="1"/>
       <c r="AJ585" s="1"/>
     </row>
-    <row r="586" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="586" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E586" s="12"/>
       <c r="F586" s="14"/>
       <c r="G586" s="12"/>
@@ -21051,7 +21058,7 @@
       <c r="AI586" s="1"/>
       <c r="AJ586" s="1"/>
     </row>
-    <row r="587" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="587" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E587" s="12"/>
       <c r="F587" s="14"/>
       <c r="G587" s="12"/>
@@ -21079,7 +21086,7 @@
       <c r="AI587" s="1"/>
       <c r="AJ587" s="1"/>
     </row>
-    <row r="588" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="588" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E588" s="12"/>
       <c r="F588" s="14"/>
       <c r="G588" s="12"/>
@@ -21107,7 +21114,7 @@
       <c r="AI588" s="1"/>
       <c r="AJ588" s="1"/>
     </row>
-    <row r="589" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="589" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E589" s="12"/>
       <c r="F589" s="14"/>
       <c r="G589" s="12"/>
@@ -21135,7 +21142,7 @@
       <c r="AI589" s="1"/>
       <c r="AJ589" s="1"/>
     </row>
-    <row r="590" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="590" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E590" s="12"/>
       <c r="F590" s="14"/>
       <c r="G590" s="12"/>
@@ -21163,7 +21170,7 @@
       <c r="AI590" s="1"/>
       <c r="AJ590" s="1"/>
     </row>
-    <row r="591" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="591" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E591" s="12"/>
       <c r="F591" s="14"/>
       <c r="G591" s="12"/>
@@ -21191,7 +21198,7 @@
       <c r="AI591" s="1"/>
       <c r="AJ591" s="1"/>
     </row>
-    <row r="592" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="592" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E592" s="12"/>
       <c r="F592" s="14"/>
       <c r="G592" s="12"/>
@@ -21219,7 +21226,7 @@
       <c r="AI592" s="1"/>
       <c r="AJ592" s="1"/>
     </row>
-    <row r="593" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="593" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E593" s="12"/>
       <c r="F593" s="14"/>
       <c r="G593" s="12"/>
@@ -21247,7 +21254,7 @@
       <c r="AI593" s="1"/>
       <c r="AJ593" s="1"/>
     </row>
-    <row r="594" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="594" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E594" s="12"/>
       <c r="F594" s="14"/>
       <c r="G594" s="12"/>
@@ -21275,7 +21282,7 @@
       <c r="AI594" s="1"/>
       <c r="AJ594" s="1"/>
     </row>
-    <row r="595" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="595" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E595" s="12"/>
       <c r="F595" s="14"/>
       <c r="G595" s="12"/>
@@ -21303,7 +21310,7 @@
       <c r="AI595" s="1"/>
       <c r="AJ595" s="1"/>
     </row>
-    <row r="596" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="596" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E596" s="12"/>
       <c r="F596" s="14"/>
       <c r="G596" s="12"/>
@@ -21331,7 +21338,7 @@
       <c r="AI596" s="1"/>
       <c r="AJ596" s="1"/>
     </row>
-    <row r="597" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="597" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E597" s="12"/>
       <c r="F597" s="14"/>
       <c r="G597" s="12"/>
@@ -21359,7 +21366,7 @@
       <c r="AI597" s="1"/>
       <c r="AJ597" s="1"/>
     </row>
-    <row r="598" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="598" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E598" s="12"/>
       <c r="F598" s="14"/>
       <c r="G598" s="12"/>
@@ -21387,7 +21394,7 @@
       <c r="AI598" s="1"/>
       <c r="AJ598" s="1"/>
     </row>
-    <row r="599" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="599" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E599" s="12"/>
       <c r="F599" s="14"/>
       <c r="G599" s="12"/>
@@ -21415,7 +21422,7 @@
       <c r="AI599" s="1"/>
       <c r="AJ599" s="1"/>
     </row>
-    <row r="600" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="600" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E600" s="12"/>
       <c r="F600" s="14"/>
       <c r="G600" s="12"/>
@@ -21443,7 +21450,7 @@
       <c r="AI600" s="1"/>
       <c r="AJ600" s="1"/>
     </row>
-    <row r="601" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="601" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E601" s="12"/>
       <c r="F601" s="14"/>
       <c r="G601" s="12"/>
@@ -21471,7 +21478,7 @@
       <c r="AI601" s="1"/>
       <c r="AJ601" s="1"/>
     </row>
-    <row r="602" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="602" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E602" s="12"/>
       <c r="F602" s="14"/>
       <c r="G602" s="12"/>
@@ -21499,7 +21506,7 @@
       <c r="AI602" s="1"/>
       <c r="AJ602" s="1"/>
     </row>
-    <row r="603" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="603" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E603" s="12"/>
       <c r="F603" s="14"/>
       <c r="G603" s="12"/>
@@ -21527,7 +21534,7 @@
       <c r="AI603" s="1"/>
       <c r="AJ603" s="1"/>
     </row>
-    <row r="604" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="604" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E604" s="12"/>
       <c r="F604" s="14"/>
       <c r="G604" s="12"/>
@@ -21555,7 +21562,7 @@
       <c r="AI604" s="1"/>
       <c r="AJ604" s="1"/>
     </row>
-    <row r="605" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="605" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E605" s="12"/>
       <c r="F605" s="14"/>
       <c r="G605" s="12"/>
@@ -21583,7 +21590,7 @@
       <c r="AI605" s="1"/>
       <c r="AJ605" s="1"/>
     </row>
-    <row r="606" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="606" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E606" s="12"/>
       <c r="F606" s="14"/>
       <c r="G606" s="12"/>
@@ -21611,7 +21618,7 @@
       <c r="AI606" s="1"/>
       <c r="AJ606" s="1"/>
     </row>
-    <row r="607" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="607" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E607" s="12"/>
       <c r="F607" s="14"/>
       <c r="G607" s="12"/>
@@ -21639,7 +21646,7 @@
       <c r="AI607" s="1"/>
       <c r="AJ607" s="1"/>
     </row>
-    <row r="608" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="608" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E608" s="12"/>
       <c r="F608" s="14"/>
       <c r="G608" s="12"/>
@@ -21667,7 +21674,7 @@
       <c r="AI608" s="1"/>
       <c r="AJ608" s="1"/>
     </row>
-    <row r="609" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="609" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E609" s="12"/>
       <c r="F609" s="14"/>
       <c r="G609" s="12"/>
@@ -21695,7 +21702,7 @@
       <c r="AI609" s="1"/>
       <c r="AJ609" s="1"/>
     </row>
-    <row r="610" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="610" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E610" s="12"/>
       <c r="F610" s="14"/>
       <c r="G610" s="12"/>
@@ -21723,7 +21730,7 @@
       <c r="AI610" s="1"/>
       <c r="AJ610" s="1"/>
     </row>
-    <row r="611" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="611" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E611" s="12"/>
       <c r="F611" s="14"/>
       <c r="G611" s="12"/>
@@ -21751,7 +21758,7 @@
       <c r="AI611" s="1"/>
       <c r="AJ611" s="1"/>
     </row>
-    <row r="612" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="612" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E612" s="12"/>
       <c r="F612" s="14"/>
       <c r="G612" s="12"/>
@@ -21779,7 +21786,7 @@
       <c r="AI612" s="1"/>
       <c r="AJ612" s="1"/>
     </row>
-    <row r="613" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="613" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E613" s="12"/>
       <c r="F613" s="14"/>
       <c r="G613" s="12"/>
@@ -21807,7 +21814,7 @@
       <c r="AI613" s="1"/>
       <c r="AJ613" s="1"/>
     </row>
-    <row r="614" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="614" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E614" s="12"/>
       <c r="F614" s="14"/>
       <c r="G614" s="12"/>
@@ -21835,7 +21842,7 @@
       <c r="AI614" s="1"/>
       <c r="AJ614" s="1"/>
     </row>
-    <row r="615" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="615" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E615" s="12"/>
       <c r="F615" s="14"/>
       <c r="G615" s="12"/>
@@ -21863,7 +21870,7 @@
       <c r="AI615" s="1"/>
       <c r="AJ615" s="1"/>
     </row>
-    <row r="616" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="616" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E616" s="12"/>
       <c r="F616" s="14"/>
       <c r="G616" s="12"/>
@@ -21891,7 +21898,7 @@
       <c r="AI616" s="1"/>
       <c r="AJ616" s="1"/>
     </row>
-    <row r="617" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="617" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E617" s="12"/>
       <c r="F617" s="14"/>
       <c r="G617" s="12"/>
@@ -21919,7 +21926,7 @@
       <c r="AI617" s="1"/>
       <c r="AJ617" s="1"/>
     </row>
-    <row r="618" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="618" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E618" s="12"/>
       <c r="F618" s="14"/>
       <c r="G618" s="12"/>
@@ -21947,7 +21954,7 @@
       <c r="AI618" s="1"/>
       <c r="AJ618" s="1"/>
     </row>
-    <row r="619" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="619" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E619" s="12"/>
       <c r="F619" s="14"/>
       <c r="G619" s="12"/>
@@ -21975,7 +21982,7 @@
       <c r="AI619" s="1"/>
       <c r="AJ619" s="1"/>
     </row>
-    <row r="620" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="620" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E620" s="12"/>
       <c r="F620" s="14"/>
       <c r="G620" s="12"/>
@@ -22003,7 +22010,7 @@
       <c r="AI620" s="1"/>
       <c r="AJ620" s="1"/>
     </row>
-    <row r="621" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="621" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E621" s="12"/>
       <c r="F621" s="14"/>
       <c r="G621" s="12"/>
@@ -22031,7 +22038,7 @@
       <c r="AI621" s="1"/>
       <c r="AJ621" s="1"/>
     </row>
-    <row r="622" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="622" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E622" s="12"/>
       <c r="F622" s="14"/>
       <c r="G622" s="12"/>
@@ -22059,7 +22066,7 @@
       <c r="AI622" s="1"/>
       <c r="AJ622" s="1"/>
     </row>
-    <row r="623" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="623" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E623" s="12"/>
       <c r="F623" s="14"/>
       <c r="G623" s="12"/>
@@ -22087,7 +22094,7 @@
       <c r="AI623" s="1"/>
       <c r="AJ623" s="1"/>
     </row>
-    <row r="624" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="624" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E624" s="12"/>
       <c r="F624" s="14"/>
       <c r="G624" s="12"/>
@@ -22115,7 +22122,7 @@
       <c r="AI624" s="1"/>
       <c r="AJ624" s="1"/>
     </row>
-    <row r="625" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="625" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E625" s="12"/>
       <c r="F625" s="14"/>
       <c r="G625" s="12"/>
@@ -22143,7 +22150,7 @@
       <c r="AI625" s="1"/>
       <c r="AJ625" s="1"/>
     </row>
-    <row r="626" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="626" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E626" s="12"/>
       <c r="F626" s="14"/>
       <c r="G626" s="12"/>
@@ -22171,7 +22178,7 @@
       <c r="AI626" s="1"/>
       <c r="AJ626" s="1"/>
     </row>
-    <row r="627" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="627" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E627" s="12"/>
       <c r="F627" s="14"/>
       <c r="G627" s="12"/>
@@ -22199,7 +22206,7 @@
       <c r="AI627" s="1"/>
       <c r="AJ627" s="1"/>
     </row>
-    <row r="628" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="628" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E628" s="12"/>
       <c r="F628" s="14"/>
       <c r="G628" s="12"/>
@@ -22227,7 +22234,7 @@
       <c r="AI628" s="1"/>
       <c r="AJ628" s="1"/>
     </row>
-    <row r="629" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="629" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E629" s="12"/>
       <c r="F629" s="14"/>
       <c r="G629" s="12"/>
@@ -22255,7 +22262,7 @@
       <c r="AI629" s="1"/>
       <c r="AJ629" s="1"/>
     </row>
-    <row r="630" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="630" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E630" s="12"/>
       <c r="F630" s="14"/>
       <c r="G630" s="12"/>
@@ -22283,7 +22290,7 @@
       <c r="AI630" s="1"/>
       <c r="AJ630" s="1"/>
     </row>
-    <row r="631" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="631" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E631" s="12"/>
       <c r="F631" s="14"/>
       <c r="G631" s="12"/>
@@ -22311,7 +22318,7 @@
       <c r="AI631" s="1"/>
       <c r="AJ631" s="1"/>
     </row>
-    <row r="632" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="632" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E632" s="12"/>
       <c r="F632" s="14"/>
       <c r="G632" s="12"/>
@@ -22339,7 +22346,7 @@
       <c r="AI632" s="1"/>
       <c r="AJ632" s="1"/>
     </row>
-    <row r="633" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="633" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E633" s="12"/>
       <c r="F633" s="14"/>
       <c r="G633" s="12"/>
@@ -22367,7 +22374,7 @@
       <c r="AI633" s="1"/>
       <c r="AJ633" s="1"/>
     </row>
-    <row r="634" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="634" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E634" s="12"/>
       <c r="F634" s="14"/>
       <c r="G634" s="12"/>
@@ -22395,7 +22402,7 @@
       <c r="AI634" s="1"/>
       <c r="AJ634" s="1"/>
     </row>
-    <row r="635" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="635" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E635" s="12"/>
       <c r="F635" s="14"/>
       <c r="G635" s="12"/>
@@ -22423,7 +22430,7 @@
       <c r="AI635" s="1"/>
       <c r="AJ635" s="1"/>
     </row>
-    <row r="636" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="636" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E636" s="12"/>
       <c r="F636" s="14"/>
       <c r="G636" s="12"/>
@@ -22451,7 +22458,7 @@
       <c r="AI636" s="1"/>
       <c r="AJ636" s="1"/>
     </row>
-    <row r="637" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="637" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E637" s="12"/>
       <c r="F637" s="14"/>
       <c r="G637" s="12"/>
@@ -22479,7 +22486,7 @@
       <c r="AI637" s="1"/>
       <c r="AJ637" s="1"/>
     </row>
-    <row r="638" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="638" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E638" s="12"/>
       <c r="F638" s="14"/>
       <c r="G638" s="12"/>
@@ -22507,7 +22514,7 @@
       <c r="AI638" s="1"/>
       <c r="AJ638" s="1"/>
     </row>
-    <row r="639" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="639" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E639" s="12"/>
       <c r="F639" s="14"/>
       <c r="G639" s="12"/>
@@ -22535,7 +22542,7 @@
       <c r="AI639" s="1"/>
       <c r="AJ639" s="1"/>
     </row>
-    <row r="640" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="640" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E640" s="12"/>
       <c r="F640" s="14"/>
       <c r="G640" s="12"/>
@@ -22563,7 +22570,7 @@
       <c r="AI640" s="1"/>
       <c r="AJ640" s="1"/>
     </row>
-    <row r="641" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="641" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E641" s="12"/>
       <c r="F641" s="14"/>
       <c r="G641" s="12"/>
@@ -22591,7 +22598,7 @@
       <c r="AI641" s="1"/>
       <c r="AJ641" s="1"/>
     </row>
-    <row r="642" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="642" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E642" s="12"/>
       <c r="F642" s="14"/>
       <c r="G642" s="12"/>
@@ -22619,7 +22626,7 @@
       <c r="AI642" s="1"/>
       <c r="AJ642" s="1"/>
     </row>
-    <row r="643" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="643" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E643" s="12"/>
       <c r="F643" s="14"/>
       <c r="G643" s="12"/>
@@ -22647,7 +22654,7 @@
       <c r="AI643" s="1"/>
       <c r="AJ643" s="1"/>
     </row>
-    <row r="644" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="644" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E644" s="12"/>
       <c r="F644" s="14"/>
       <c r="G644" s="12"/>
@@ -22675,7 +22682,7 @@
       <c r="AI644" s="1"/>
       <c r="AJ644" s="1"/>
     </row>
-    <row r="645" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="645" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E645" s="12"/>
       <c r="F645" s="14"/>
       <c r="G645" s="12"/>
@@ -22703,7 +22710,7 @@
       <c r="AI645" s="1"/>
       <c r="AJ645" s="1"/>
     </row>
-    <row r="646" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="646" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E646" s="12"/>
       <c r="F646" s="14"/>
       <c r="G646" s="12"/>
@@ -22731,7 +22738,7 @@
       <c r="AI646" s="1"/>
       <c r="AJ646" s="1"/>
     </row>
-    <row r="647" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="647" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E647" s="12"/>
       <c r="F647" s="14"/>
       <c r="G647" s="12"/>
@@ -22759,7 +22766,7 @@
       <c r="AI647" s="1"/>
       <c r="AJ647" s="1"/>
     </row>
-    <row r="648" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="648" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E648" s="12"/>
       <c r="F648" s="14"/>
       <c r="G648" s="12"/>
@@ -22787,7 +22794,7 @@
       <c r="AI648" s="1"/>
       <c r="AJ648" s="1"/>
     </row>
-    <row r="649" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="649" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E649" s="12"/>
       <c r="F649" s="14"/>
       <c r="G649" s="12"/>
@@ -22815,7 +22822,7 @@
       <c r="AI649" s="1"/>
       <c r="AJ649" s="1"/>
     </row>
-    <row r="650" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="650" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E650" s="12"/>
       <c r="F650" s="14"/>
       <c r="G650" s="12"/>
@@ -22843,7 +22850,7 @@
       <c r="AI650" s="1"/>
       <c r="AJ650" s="1"/>
     </row>
-    <row r="651" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="651" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E651" s="12"/>
       <c r="F651" s="14"/>
       <c r="G651" s="12"/>
@@ -22871,7 +22878,7 @@
       <c r="AI651" s="1"/>
       <c r="AJ651" s="1"/>
     </row>
-    <row r="652" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="652" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E652" s="12"/>
       <c r="F652" s="14"/>
       <c r="G652" s="12"/>
@@ -22899,7 +22906,7 @@
       <c r="AI652" s="1"/>
       <c r="AJ652" s="1"/>
     </row>
-    <row r="653" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="653" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E653" s="12"/>
       <c r="F653" s="14"/>
       <c r="G653" s="12"/>
@@ -22927,7 +22934,7 @@
       <c r="AI653" s="1"/>
       <c r="AJ653" s="1"/>
     </row>
-    <row r="654" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="654" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E654" s="12"/>
       <c r="F654" s="14"/>
       <c r="G654" s="12"/>
@@ -22955,7 +22962,7 @@
       <c r="AI654" s="1"/>
       <c r="AJ654" s="1"/>
     </row>
-    <row r="655" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="655" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E655" s="12"/>
       <c r="F655" s="14"/>
       <c r="G655" s="12"/>
@@ -22983,7 +22990,7 @@
       <c r="AI655" s="1"/>
       <c r="AJ655" s="1"/>
     </row>
-    <row r="656" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="656" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E656" s="12"/>
       <c r="F656" s="14"/>
       <c r="G656" s="12"/>
@@ -23011,7 +23018,7 @@
       <c r="AI656" s="1"/>
       <c r="AJ656" s="1"/>
     </row>
-    <row r="657" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="657" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E657" s="12"/>
       <c r="F657" s="14"/>
       <c r="G657" s="12"/>
@@ -23039,7 +23046,7 @@
       <c r="AI657" s="1"/>
       <c r="AJ657" s="1"/>
     </row>
-    <row r="658" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="658" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E658" s="12"/>
       <c r="F658" s="14"/>
       <c r="G658" s="12"/>
@@ -23067,7 +23074,7 @@
       <c r="AI658" s="1"/>
       <c r="AJ658" s="1"/>
     </row>
-    <row r="659" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="659" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E659" s="12"/>
       <c r="F659" s="14"/>
       <c r="G659" s="12"/>
@@ -23095,7 +23102,7 @@
       <c r="AI659" s="1"/>
       <c r="AJ659" s="1"/>
     </row>
-    <row r="660" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="660" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E660" s="12"/>
       <c r="F660" s="14"/>
       <c r="G660" s="12"/>
@@ -23123,7 +23130,7 @@
       <c r="AI660" s="1"/>
       <c r="AJ660" s="1"/>
     </row>
-    <row r="661" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="661" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E661" s="12"/>
       <c r="F661" s="14"/>
       <c r="G661" s="12"/>
@@ -23151,7 +23158,7 @@
       <c r="AI661" s="1"/>
       <c r="AJ661" s="1"/>
     </row>
-    <row r="662" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="662" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E662" s="12"/>
       <c r="F662" s="14"/>
       <c r="G662" s="12"/>
@@ -23179,7 +23186,7 @@
       <c r="AI662" s="1"/>
       <c r="AJ662" s="1"/>
     </row>
-    <row r="663" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="663" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E663" s="12"/>
       <c r="F663" s="14"/>
       <c r="G663" s="12"/>
@@ -23207,7 +23214,7 @@
       <c r="AI663" s="1"/>
       <c r="AJ663" s="1"/>
     </row>
-    <row r="664" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="664" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E664" s="12"/>
       <c r="F664" s="14"/>
       <c r="G664" s="12"/>
@@ -23235,7 +23242,7 @@
       <c r="AI664" s="1"/>
       <c r="AJ664" s="1"/>
     </row>
-    <row r="665" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="665" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E665" s="12"/>
       <c r="F665" s="14"/>
       <c r="G665" s="12"/>
@@ -23263,7 +23270,7 @@
       <c r="AI665" s="1"/>
       <c r="AJ665" s="1"/>
     </row>
-    <row r="666" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="666" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E666" s="12"/>
       <c r="F666" s="14"/>
       <c r="G666" s="12"/>
@@ -23291,7 +23298,7 @@
       <c r="AI666" s="1"/>
       <c r="AJ666" s="1"/>
     </row>
-    <row r="667" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="667" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E667" s="12"/>
       <c r="F667" s="14"/>
       <c r="G667" s="12"/>
@@ -23319,7 +23326,7 @@
       <c r="AI667" s="1"/>
       <c r="AJ667" s="1"/>
     </row>
-    <row r="668" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="668" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E668" s="12"/>
       <c r="F668" s="14"/>
       <c r="G668" s="12"/>
@@ -23347,7 +23354,7 @@
       <c r="AI668" s="1"/>
       <c r="AJ668" s="1"/>
     </row>
-    <row r="669" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="669" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E669" s="12"/>
       <c r="F669" s="14"/>
       <c r="G669" s="12"/>
@@ -23375,7 +23382,7 @@
       <c r="AI669" s="1"/>
       <c r="AJ669" s="1"/>
     </row>
-    <row r="670" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="670" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E670" s="12"/>
       <c r="F670" s="14"/>
       <c r="G670" s="12"/>
@@ -23403,7 +23410,7 @@
       <c r="AI670" s="1"/>
       <c r="AJ670" s="1"/>
     </row>
-    <row r="671" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="671" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E671" s="12"/>
       <c r="F671" s="14"/>
       <c r="G671" s="12"/>
@@ -23431,7 +23438,7 @@
       <c r="AI671" s="1"/>
       <c r="AJ671" s="1"/>
     </row>
-    <row r="672" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="672" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E672" s="12"/>
       <c r="F672" s="14"/>
       <c r="G672" s="12"/>
@@ -23459,7 +23466,7 @@
       <c r="AI672" s="1"/>
       <c r="AJ672" s="1"/>
     </row>
-    <row r="673" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="673" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E673" s="12"/>
       <c r="F673" s="14"/>
       <c r="G673" s="12"/>
@@ -23487,7 +23494,7 @@
       <c r="AI673" s="1"/>
       <c r="AJ673" s="1"/>
     </row>
-    <row r="674" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="674" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E674" s="12"/>
       <c r="F674" s="14"/>
       <c r="G674" s="12"/>
@@ -23515,7 +23522,7 @@
       <c r="AI674" s="1"/>
       <c r="AJ674" s="1"/>
     </row>
-    <row r="675" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="675" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E675" s="12"/>
       <c r="F675" s="14"/>
       <c r="G675" s="12"/>
@@ -23543,7 +23550,7 @@
       <c r="AI675" s="1"/>
       <c r="AJ675" s="1"/>
     </row>
-    <row r="676" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="676" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E676" s="12"/>
       <c r="F676" s="14"/>
       <c r="G676" s="12"/>
@@ -23571,7 +23578,7 @@
       <c r="AI676" s="1"/>
       <c r="AJ676" s="1"/>
     </row>
-    <row r="677" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="677" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E677" s="12"/>
       <c r="F677" s="14"/>
       <c r="G677" s="12"/>
@@ -23599,7 +23606,7 @@
       <c r="AI677" s="1"/>
       <c r="AJ677" s="1"/>
     </row>
-    <row r="678" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="678" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E678" s="12"/>
       <c r="F678" s="14"/>
       <c r="G678" s="12"/>
@@ -23627,7 +23634,7 @@
       <c r="AI678" s="1"/>
       <c r="AJ678" s="1"/>
     </row>
-    <row r="679" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="679" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E679" s="12"/>
       <c r="F679" s="14"/>
       <c r="G679" s="12"/>
@@ -23655,7 +23662,7 @@
       <c r="AI679" s="1"/>
       <c r="AJ679" s="1"/>
     </row>
-    <row r="680" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="680" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E680" s="12"/>
       <c r="F680" s="14"/>
       <c r="G680" s="12"/>
@@ -23683,7 +23690,7 @@
       <c r="AI680" s="1"/>
       <c r="AJ680" s="1"/>
     </row>
-    <row r="681" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="681" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E681" s="12"/>
       <c r="F681" s="14"/>
       <c r="G681" s="12"/>
@@ -23711,7 +23718,7 @@
       <c r="AI681" s="1"/>
       <c r="AJ681" s="1"/>
     </row>
-    <row r="682" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="682" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E682" s="12"/>
       <c r="F682" s="14"/>
       <c r="G682" s="12"/>
@@ -23739,7 +23746,7 @@
       <c r="AI682" s="1"/>
       <c r="AJ682" s="1"/>
     </row>
-    <row r="683" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="683" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E683" s="12"/>
       <c r="F683" s="14"/>
       <c r="G683" s="12"/>
@@ -23767,7 +23774,7 @@
       <c r="AI683" s="1"/>
       <c r="AJ683" s="1"/>
     </row>
-    <row r="684" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="684" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E684" s="12"/>
       <c r="F684" s="14"/>
       <c r="G684" s="12"/>
@@ -23795,7 +23802,7 @@
       <c r="AI684" s="1"/>
       <c r="AJ684" s="1"/>
     </row>
-    <row r="685" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="685" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E685" s="12"/>
       <c r="F685" s="14"/>
       <c r="G685" s="12"/>
@@ -23823,7 +23830,7 @@
       <c r="AI685" s="1"/>
       <c r="AJ685" s="1"/>
     </row>
-    <row r="686" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="686" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E686" s="12"/>
       <c r="F686" s="14"/>
       <c r="G686" s="12"/>
@@ -23851,7 +23858,7 @@
       <c r="AI686" s="1"/>
       <c r="AJ686" s="1"/>
     </row>
-    <row r="687" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="687" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E687" s="12"/>
       <c r="F687" s="14"/>
       <c r="G687" s="12"/>
@@ -23879,7 +23886,7 @@
       <c r="AI687" s="1"/>
       <c r="AJ687" s="1"/>
     </row>
-    <row r="688" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="688" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E688" s="12"/>
       <c r="F688" s="14"/>
       <c r="G688" s="12"/>
@@ -23907,7 +23914,7 @@
       <c r="AI688" s="1"/>
       <c r="AJ688" s="1"/>
     </row>
-    <row r="689" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="689" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E689" s="12"/>
       <c r="F689" s="14"/>
       <c r="G689" s="12"/>
@@ -23935,7 +23942,7 @@
       <c r="AI689" s="1"/>
       <c r="AJ689" s="1"/>
     </row>
-    <row r="690" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="690" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E690" s="12"/>
       <c r="F690" s="14"/>
       <c r="G690" s="12"/>
@@ -23963,7 +23970,7 @@
       <c r="AI690" s="1"/>
       <c r="AJ690" s="1"/>
     </row>
-    <row r="691" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="691" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E691" s="12"/>
       <c r="F691" s="14"/>
       <c r="G691" s="12"/>
@@ -23991,7 +23998,7 @@
       <c r="AI691" s="1"/>
       <c r="AJ691" s="1"/>
     </row>
-    <row r="692" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="692" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E692" s="12"/>
       <c r="F692" s="14"/>
       <c r="G692" s="12"/>
@@ -24019,7 +24026,7 @@
       <c r="AI692" s="1"/>
       <c r="AJ692" s="1"/>
     </row>
-    <row r="693" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="693" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E693" s="12"/>
       <c r="F693" s="14"/>
       <c r="G693" s="12"/>
@@ -24047,7 +24054,7 @@
       <c r="AI693" s="1"/>
       <c r="AJ693" s="1"/>
     </row>
-    <row r="694" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="694" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E694" s="12"/>
       <c r="F694" s="14"/>
       <c r="G694" s="12"/>
@@ -24075,7 +24082,7 @@
       <c r="AI694" s="1"/>
       <c r="AJ694" s="1"/>
     </row>
-    <row r="695" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="695" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E695" s="12"/>
       <c r="F695" s="14"/>
       <c r="G695" s="12"/>
@@ -24103,7 +24110,7 @@
       <c r="AI695" s="1"/>
       <c r="AJ695" s="1"/>
     </row>
-    <row r="696" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="696" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E696" s="12"/>
       <c r="F696" s="14"/>
       <c r="G696" s="12"/>
@@ -24131,7 +24138,7 @@
       <c r="AI696" s="1"/>
       <c r="AJ696" s="1"/>
     </row>
-    <row r="697" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="697" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E697" s="12"/>
       <c r="F697" s="14"/>
       <c r="G697" s="12"/>
@@ -24159,7 +24166,7 @@
       <c r="AI697" s="1"/>
       <c r="AJ697" s="1"/>
     </row>
-    <row r="698" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="698" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E698" s="12"/>
       <c r="F698" s="14"/>
       <c r="G698" s="12"/>
@@ -24187,7 +24194,7 @@
       <c r="AI698" s="1"/>
       <c r="AJ698" s="1"/>
     </row>
-    <row r="699" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="699" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E699" s="12"/>
       <c r="F699" s="14"/>
       <c r="G699" s="12"/>
@@ -24215,7 +24222,7 @@
       <c r="AI699" s="1"/>
       <c r="AJ699" s="1"/>
     </row>
-    <row r="700" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="700" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E700" s="12"/>
       <c r="F700" s="14"/>
       <c r="G700" s="12"/>
@@ -24243,7 +24250,7 @@
       <c r="AI700" s="1"/>
       <c r="AJ700" s="1"/>
     </row>
-    <row r="701" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="701" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E701" s="12"/>
       <c r="F701" s="14"/>
       <c r="G701" s="12"/>
@@ -24271,7 +24278,7 @@
       <c r="AI701" s="1"/>
       <c r="AJ701" s="1"/>
     </row>
-    <row r="702" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="702" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E702" s="12"/>
       <c r="F702" s="14"/>
       <c r="G702" s="12"/>
@@ -24299,7 +24306,7 @@
       <c r="AI702" s="1"/>
       <c r="AJ702" s="1"/>
     </row>
-    <row r="703" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="703" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E703" s="12"/>
       <c r="F703" s="14"/>
       <c r="G703" s="12"/>
@@ -24327,7 +24334,7 @@
       <c r="AI703" s="1"/>
       <c r="AJ703" s="1"/>
     </row>
-    <row r="704" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="704" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E704" s="12"/>
       <c r="F704" s="14"/>
       <c r="G704" s="12"/>
@@ -24355,7 +24362,7 @@
       <c r="AI704" s="1"/>
       <c r="AJ704" s="1"/>
     </row>
-    <row r="705" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="705" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E705" s="12"/>
       <c r="F705" s="14"/>
       <c r="G705" s="12"/>
@@ -24383,7 +24390,7 @@
       <c r="AI705" s="1"/>
       <c r="AJ705" s="1"/>
     </row>
-    <row r="706" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="706" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E706" s="12"/>
       <c r="F706" s="14"/>
       <c r="G706" s="12"/>
@@ -24411,7 +24418,7 @@
       <c r="AI706" s="1"/>
       <c r="AJ706" s="1"/>
     </row>
-    <row r="707" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="707" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E707" s="12"/>
       <c r="F707" s="14"/>
       <c r="G707" s="12"/>
@@ -24439,7 +24446,7 @@
       <c r="AI707" s="1"/>
       <c r="AJ707" s="1"/>
     </row>
-    <row r="708" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="708" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E708" s="12"/>
       <c r="F708" s="14"/>
       <c r="G708" s="12"/>
@@ -24467,7 +24474,7 @@
       <c r="AI708" s="1"/>
       <c r="AJ708" s="1"/>
     </row>
-    <row r="709" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="709" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E709" s="12"/>
       <c r="F709" s="14"/>
       <c r="G709" s="12"/>
@@ -24495,7 +24502,7 @@
       <c r="AI709" s="1"/>
       <c r="AJ709" s="1"/>
     </row>
-    <row r="710" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="710" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E710" s="12"/>
       <c r="F710" s="14"/>
       <c r="G710" s="12"/>
@@ -24523,7 +24530,7 @@
       <c r="AI710" s="1"/>
       <c r="AJ710" s="1"/>
     </row>
-    <row r="711" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="711" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E711" s="12"/>
       <c r="F711" s="14"/>
       <c r="G711" s="12"/>
@@ -24551,7 +24558,7 @@
       <c r="AI711" s="1"/>
       <c r="AJ711" s="1"/>
     </row>
-    <row r="712" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="712" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E712" s="12"/>
       <c r="F712" s="14"/>
       <c r="G712" s="12"/>
@@ -24579,7 +24586,7 @@
       <c r="AI712" s="1"/>
       <c r="AJ712" s="1"/>
     </row>
-    <row r="713" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="713" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E713" s="12"/>
       <c r="F713" s="14"/>
       <c r="G713" s="12"/>
@@ -24607,7 +24614,7 @@
       <c r="AI713" s="1"/>
       <c r="AJ713" s="1"/>
     </row>
-    <row r="714" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="714" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E714" s="12"/>
       <c r="F714" s="14"/>
       <c r="G714" s="12"/>
@@ -24635,7 +24642,7 @@
       <c r="AI714" s="1"/>
       <c r="AJ714" s="1"/>
     </row>
-    <row r="715" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="715" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E715" s="12"/>
       <c r="F715" s="14"/>
       <c r="G715" s="12"/>
@@ -24663,7 +24670,7 @@
       <c r="AI715" s="1"/>
       <c r="AJ715" s="1"/>
     </row>
-    <row r="716" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="716" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E716" s="12"/>
       <c r="F716" s="14"/>
       <c r="G716" s="12"/>
@@ -24691,7 +24698,7 @@
       <c r="AI716" s="1"/>
       <c r="AJ716" s="1"/>
     </row>
-    <row r="717" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="717" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E717" s="12"/>
       <c r="F717" s="14"/>
       <c r="G717" s="12"/>
@@ -24719,7 +24726,7 @@
       <c r="AI717" s="1"/>
       <c r="AJ717" s="1"/>
     </row>
-    <row r="718" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="718" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E718" s="12"/>
       <c r="F718" s="14"/>
       <c r="G718" s="12"/>
@@ -24747,7 +24754,7 @@
       <c r="AI718" s="1"/>
       <c r="AJ718" s="1"/>
     </row>
-    <row r="719" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="719" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E719" s="12"/>
       <c r="F719" s="14"/>
       <c r="G719" s="12"/>
@@ -24775,7 +24782,7 @@
       <c r="AI719" s="1"/>
       <c r="AJ719" s="1"/>
     </row>
-    <row r="720" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="720" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E720" s="12"/>
       <c r="F720" s="14"/>
       <c r="G720" s="12"/>
@@ -24803,7 +24810,7 @@
       <c r="AI720" s="1"/>
       <c r="AJ720" s="1"/>
     </row>
-    <row r="721" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="721" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E721" s="12"/>
       <c r="F721" s="14"/>
       <c r="G721" s="12"/>
@@ -24831,7 +24838,7 @@
       <c r="AI721" s="1"/>
       <c r="AJ721" s="1"/>
     </row>
-    <row r="722" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="722" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E722" s="12"/>
       <c r="F722" s="14"/>
       <c r="G722" s="12"/>
@@ -24859,7 +24866,7 @@
       <c r="AI722" s="1"/>
       <c r="AJ722" s="1"/>
     </row>
-    <row r="723" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="723" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E723" s="12"/>
       <c r="F723" s="14"/>
       <c r="G723" s="12"/>
@@ -24887,7 +24894,7 @@
       <c r="AI723" s="1"/>
       <c r="AJ723" s="1"/>
     </row>
-    <row r="724" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="724" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E724" s="12"/>
       <c r="F724" s="14"/>
       <c r="G724" s="12"/>
@@ -24915,7 +24922,7 @@
       <c r="AI724" s="1"/>
       <c r="AJ724" s="1"/>
     </row>
-    <row r="725" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="725" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E725" s="12"/>
       <c r="F725" s="14"/>
       <c r="G725" s="12"/>
@@ -24943,7 +24950,7 @@
       <c r="AI725" s="1"/>
       <c r="AJ725" s="1"/>
     </row>
-    <row r="726" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="726" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E726" s="12"/>
       <c r="F726" s="14"/>
       <c r="G726" s="12"/>
@@ -24971,7 +24978,7 @@
       <c r="AI726" s="1"/>
       <c r="AJ726" s="1"/>
     </row>
-    <row r="727" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="727" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E727" s="12"/>
       <c r="F727" s="14"/>
       <c r="G727" s="12"/>
@@ -24999,7 +25006,7 @@
       <c r="AI727" s="1"/>
       <c r="AJ727" s="1"/>
     </row>
-    <row r="728" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="728" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E728" s="12"/>
       <c r="F728" s="14"/>
       <c r="G728" s="12"/>
@@ -25027,7 +25034,7 @@
       <c r="AI728" s="1"/>
       <c r="AJ728" s="1"/>
     </row>
-    <row r="729" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="729" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E729" s="12"/>
       <c r="F729" s="14"/>
       <c r="G729" s="12"/>
@@ -25055,7 +25062,7 @@
       <c r="AI729" s="1"/>
       <c r="AJ729" s="1"/>
     </row>
-    <row r="730" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="730" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E730" s="12"/>
       <c r="F730" s="14"/>
       <c r="G730" s="12"/>
@@ -25083,7 +25090,7 @@
       <c r="AI730" s="1"/>
       <c r="AJ730" s="1"/>
     </row>
-    <row r="731" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="731" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E731" s="12"/>
       <c r="F731" s="14"/>
       <c r="G731" s="12"/>
@@ -25111,7 +25118,7 @@
       <c r="AI731" s="1"/>
       <c r="AJ731" s="1"/>
     </row>
-    <row r="732" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="732" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E732" s="12"/>
       <c r="F732" s="14"/>
       <c r="G732" s="12"/>
@@ -25139,7 +25146,7 @@
       <c r="AI732" s="1"/>
       <c r="AJ732" s="1"/>
     </row>
-    <row r="733" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="733" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E733" s="12"/>
       <c r="F733" s="14"/>
       <c r="G733" s="12"/>
@@ -25167,7 +25174,7 @@
       <c r="AI733" s="1"/>
       <c r="AJ733" s="1"/>
     </row>
-    <row r="734" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="734" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E734" s="12"/>
       <c r="F734" s="14"/>
       <c r="G734" s="12"/>
@@ -25195,7 +25202,7 @@
       <c r="AI734" s="1"/>
       <c r="AJ734" s="1"/>
     </row>
-    <row r="735" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="735" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E735" s="12"/>
       <c r="F735" s="14"/>
       <c r="G735" s="12"/>
@@ -25223,7 +25230,7 @@
       <c r="AI735" s="1"/>
       <c r="AJ735" s="1"/>
     </row>
-    <row r="736" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="736" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E736" s="12"/>
       <c r="F736" s="14"/>
       <c r="G736" s="12"/>
@@ -25251,7 +25258,7 @@
       <c r="AI736" s="1"/>
       <c r="AJ736" s="1"/>
     </row>
-    <row r="737" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="737" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E737" s="12"/>
       <c r="F737" s="14"/>
       <c r="G737" s="12"/>
@@ -25279,7 +25286,7 @@
       <c r="AI737" s="1"/>
       <c r="AJ737" s="1"/>
     </row>
-    <row r="738" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="738" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E738" s="12"/>
       <c r="F738" s="14"/>
       <c r="G738" s="12"/>
@@ -25307,7 +25314,7 @@
       <c r="AI738" s="1"/>
       <c r="AJ738" s="1"/>
     </row>
-    <row r="739" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="739" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E739" s="12"/>
       <c r="F739" s="14"/>
       <c r="G739" s="12"/>
@@ -25335,7 +25342,7 @@
       <c r="AI739" s="1"/>
       <c r="AJ739" s="1"/>
     </row>
-    <row r="740" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="740" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E740" s="12"/>
       <c r="F740" s="14"/>
       <c r="G740" s="12"/>
@@ -25363,7 +25370,7 @@
       <c r="AI740" s="1"/>
       <c r="AJ740" s="1"/>
     </row>
-    <row r="741" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="741" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E741" s="12"/>
       <c r="F741" s="14"/>
       <c r="G741" s="12"/>
@@ -25391,7 +25398,7 @@
       <c r="AI741" s="1"/>
       <c r="AJ741" s="1"/>
     </row>
-    <row r="742" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="742" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E742" s="12"/>
       <c r="F742" s="14"/>
       <c r="G742" s="12"/>
@@ -25419,7 +25426,7 @@
       <c r="AI742" s="1"/>
       <c r="AJ742" s="1"/>
     </row>
-    <row r="743" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="743" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E743" s="12"/>
       <c r="F743" s="14"/>
       <c r="G743" s="12"/>
@@ -25447,7 +25454,7 @@
       <c r="AI743" s="1"/>
       <c r="AJ743" s="1"/>
     </row>
-    <row r="744" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="744" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E744" s="12"/>
       <c r="F744" s="14"/>
       <c r="G744" s="12"/>
@@ -25475,7 +25482,7 @@
       <c r="AI744" s="1"/>
       <c r="AJ744" s="1"/>
     </row>
-    <row r="745" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="745" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E745" s="12"/>
       <c r="F745" s="14"/>
       <c r="G745" s="12"/>
@@ -25503,7 +25510,7 @@
       <c r="AI745" s="1"/>
       <c r="AJ745" s="1"/>
     </row>
-    <row r="746" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="746" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E746" s="12"/>
       <c r="F746" s="14"/>
       <c r="G746" s="12"/>
@@ -25531,7 +25538,7 @@
       <c r="AI746" s="1"/>
       <c r="AJ746" s="1"/>
     </row>
-    <row r="747" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="747" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E747" s="12"/>
       <c r="F747" s="14"/>
       <c r="G747" s="12"/>
@@ -25559,7 +25566,7 @@
       <c r="AI747" s="1"/>
       <c r="AJ747" s="1"/>
     </row>
-    <row r="748" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="748" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E748" s="12"/>
       <c r="F748" s="14"/>
       <c r="G748" s="12"/>
@@ -25587,7 +25594,7 @@
       <c r="AI748" s="1"/>
       <c r="AJ748" s="1"/>
     </row>
-    <row r="749" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="749" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E749" s="12"/>
       <c r="F749" s="14"/>
       <c r="G749" s="12"/>
@@ -25615,7 +25622,7 @@
       <c r="AI749" s="1"/>
       <c r="AJ749" s="1"/>
     </row>
-    <row r="750" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="750" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E750" s="12"/>
       <c r="F750" s="14"/>
       <c r="G750" s="12"/>
@@ -25643,7 +25650,7 @@
       <c r="AI750" s="1"/>
       <c r="AJ750" s="1"/>
     </row>
-    <row r="751" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="751" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E751" s="12"/>
       <c r="F751" s="14"/>
       <c r="G751" s="12"/>
@@ -25671,7 +25678,7 @@
       <c r="AI751" s="1"/>
       <c r="AJ751" s="1"/>
     </row>
-    <row r="752" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="752" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E752" s="12"/>
       <c r="F752" s="14"/>
       <c r="G752" s="12"/>
@@ -25699,7 +25706,7 @@
       <c r="AI752" s="1"/>
       <c r="AJ752" s="1"/>
     </row>
-    <row r="753" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="753" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E753" s="12"/>
       <c r="F753" s="14"/>
       <c r="G753" s="12"/>
@@ -25727,7 +25734,7 @@
       <c r="AI753" s="1"/>
       <c r="AJ753" s="1"/>
     </row>
-    <row r="754" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="754" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E754" s="12"/>
       <c r="F754" s="14"/>
       <c r="G754" s="12"/>
@@ -25755,7 +25762,7 @@
       <c r="AI754" s="1"/>
       <c r="AJ754" s="1"/>
     </row>
-    <row r="755" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="755" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E755" s="12"/>
       <c r="F755" s="14"/>
       <c r="G755" s="12"/>
@@ -25783,7 +25790,7 @@
       <c r="AI755" s="1"/>
       <c r="AJ755" s="1"/>
     </row>
-    <row r="756" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="756" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E756" s="12"/>
       <c r="F756" s="14"/>
       <c r="G756" s="12"/>
@@ -25811,7 +25818,7 @@
       <c r="AI756" s="1"/>
       <c r="AJ756" s="1"/>
     </row>
-    <row r="757" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="757" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E757" s="12"/>
       <c r="F757" s="14"/>
       <c r="G757" s="12"/>
@@ -25839,7 +25846,7 @@
       <c r="AI757" s="1"/>
       <c r="AJ757" s="1"/>
     </row>
-    <row r="758" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="758" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E758" s="12"/>
       <c r="F758" s="14"/>
       <c r="G758" s="12"/>
@@ -25867,7 +25874,7 @@
       <c r="AI758" s="1"/>
       <c r="AJ758" s="1"/>
     </row>
-    <row r="759" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="759" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E759" s="12"/>
       <c r="F759" s="14"/>
       <c r="G759" s="12"/>
@@ -25895,7 +25902,7 @@
       <c r="AI759" s="1"/>
       <c r="AJ759" s="1"/>
     </row>
-    <row r="760" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="760" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E760" s="12"/>
       <c r="F760" s="14"/>
       <c r="G760" s="12"/>
@@ -25923,7 +25930,7 @@
       <c r="AI760" s="1"/>
       <c r="AJ760" s="1"/>
     </row>
-    <row r="761" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="761" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E761" s="12"/>
       <c r="F761" s="14"/>
       <c r="G761" s="12"/>
@@ -25951,7 +25958,7 @@
       <c r="AI761" s="1"/>
       <c r="AJ761" s="1"/>
     </row>
-    <row r="762" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="762" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E762" s="12"/>
       <c r="F762" s="14"/>
       <c r="G762" s="12"/>
@@ -25979,7 +25986,7 @@
       <c r="AI762" s="1"/>
       <c r="AJ762" s="1"/>
     </row>
-    <row r="763" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="763" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E763" s="12"/>
       <c r="F763" s="14"/>
       <c r="G763" s="12"/>
@@ -26007,7 +26014,7 @@
       <c r="AI763" s="1"/>
       <c r="AJ763" s="1"/>
     </row>
-    <row r="764" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="764" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E764" s="12"/>
       <c r="F764" s="14"/>
       <c r="G764" s="12"/>
@@ -26035,7 +26042,7 @@
       <c r="AI764" s="1"/>
       <c r="AJ764" s="1"/>
     </row>
-    <row r="765" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="765" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E765" s="12"/>
       <c r="F765" s="14"/>
       <c r="G765" s="12"/>
@@ -26063,7 +26070,7 @@
       <c r="AI765" s="1"/>
       <c r="AJ765" s="1"/>
     </row>
-    <row r="766" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="766" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E766" s="12"/>
       <c r="F766" s="14"/>
       <c r="G766" s="12"/>
@@ -26091,7 +26098,7 @@
       <c r="AI766" s="1"/>
       <c r="AJ766" s="1"/>
     </row>
-    <row r="767" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="767" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E767" s="12"/>
       <c r="F767" s="14"/>
       <c r="G767" s="12"/>
@@ -26119,7 +26126,7 @@
       <c r="AI767" s="1"/>
       <c r="AJ767" s="1"/>
     </row>
-    <row r="768" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="768" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E768" s="12"/>
       <c r="F768" s="14"/>
       <c r="G768" s="12"/>
@@ -26147,7 +26154,7 @@
       <c r="AI768" s="1"/>
       <c r="AJ768" s="1"/>
     </row>
-    <row r="769" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="769" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E769" s="12"/>
       <c r="F769" s="14"/>
       <c r="G769" s="12"/>
@@ -26175,7 +26182,7 @@
       <c r="AI769" s="1"/>
       <c r="AJ769" s="1"/>
     </row>
-    <row r="770" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="770" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E770" s="12"/>
       <c r="F770" s="14"/>
       <c r="G770" s="12"/>
@@ -26203,7 +26210,7 @@
       <c r="AI770" s="1"/>
       <c r="AJ770" s="1"/>
     </row>
-    <row r="771" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="771" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E771" s="12"/>
       <c r="F771" s="14"/>
       <c r="G771" s="12"/>
@@ -26231,7 +26238,7 @@
       <c r="AI771" s="1"/>
       <c r="AJ771" s="1"/>
     </row>
-    <row r="772" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="772" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E772" s="12"/>
       <c r="F772" s="14"/>
       <c r="G772" s="12"/>
@@ -26259,7 +26266,7 @@
       <c r="AI772" s="1"/>
       <c r="AJ772" s="1"/>
     </row>
-    <row r="773" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="773" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E773" s="12"/>
       <c r="F773" s="14"/>
       <c r="G773" s="12"/>
@@ -26287,7 +26294,7 @@
       <c r="AI773" s="1"/>
       <c r="AJ773" s="1"/>
     </row>
-    <row r="774" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="774" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E774" s="12"/>
       <c r="F774" s="14"/>
       <c r="G774" s="12"/>
@@ -26315,7 +26322,7 @@
       <c r="AI774" s="1"/>
       <c r="AJ774" s="1"/>
     </row>
-    <row r="775" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="775" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E775" s="12"/>
       <c r="F775" s="14"/>
       <c r="G775" s="12"/>
@@ -26343,7 +26350,7 @@
       <c r="AI775" s="1"/>
       <c r="AJ775" s="1"/>
     </row>
-    <row r="776" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="776" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E776" s="12"/>
       <c r="F776" s="14"/>
       <c r="G776" s="12"/>
@@ -26371,7 +26378,7 @@
       <c r="AI776" s="1"/>
       <c r="AJ776" s="1"/>
     </row>
-    <row r="777" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="777" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E777" s="12"/>
       <c r="F777" s="14"/>
       <c r="G777" s="12"/>
@@ -26399,7 +26406,7 @@
       <c r="AI777" s="1"/>
       <c r="AJ777" s="1"/>
     </row>
-    <row r="778" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="778" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E778" s="12"/>
       <c r="F778" s="14"/>
       <c r="G778" s="12"/>
@@ -26427,7 +26434,7 @@
       <c r="AI778" s="1"/>
       <c r="AJ778" s="1"/>
     </row>
-    <row r="779" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="779" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E779" s="12"/>
       <c r="F779" s="14"/>
       <c r="G779" s="12"/>
@@ -26455,7 +26462,7 @@
       <c r="AI779" s="1"/>
       <c r="AJ779" s="1"/>
     </row>
-    <row r="780" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="780" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E780" s="12"/>
       <c r="F780" s="14"/>
       <c r="G780" s="12"/>
@@ -26483,7 +26490,7 @@
       <c r="AI780" s="1"/>
       <c r="AJ780" s="1"/>
     </row>
-    <row r="781" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="781" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E781" s="12"/>
       <c r="F781" s="14"/>
       <c r="G781" s="12"/>
@@ -26511,7 +26518,7 @@
       <c r="AI781" s="1"/>
       <c r="AJ781" s="1"/>
     </row>
-    <row r="782" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="782" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E782" s="12"/>
       <c r="F782" s="14"/>
       <c r="G782" s="12"/>
@@ -26539,7 +26546,7 @@
       <c r="AI782" s="1"/>
       <c r="AJ782" s="1"/>
     </row>
-    <row r="783" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="783" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E783" s="12"/>
       <c r="F783" s="14"/>
       <c r="G783" s="12"/>
@@ -26567,7 +26574,7 @@
       <c r="AI783" s="1"/>
       <c r="AJ783" s="1"/>
     </row>
-    <row r="784" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="784" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E784" s="12"/>
       <c r="F784" s="14"/>
       <c r="G784" s="12"/>
@@ -26595,7 +26602,7 @@
       <c r="AI784" s="1"/>
       <c r="AJ784" s="1"/>
     </row>
-    <row r="785" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="785" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E785" s="12"/>
       <c r="F785" s="14"/>
       <c r="G785" s="12"/>
@@ -26623,7 +26630,7 @@
       <c r="AI785" s="1"/>
       <c r="AJ785" s="1"/>
     </row>
-    <row r="786" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="786" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E786" s="12"/>
       <c r="F786" s="14"/>
       <c r="G786" s="12"/>
@@ -26651,7 +26658,7 @@
       <c r="AI786" s="1"/>
       <c r="AJ786" s="1"/>
     </row>
-    <row r="787" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="787" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E787" s="12"/>
       <c r="F787" s="14"/>
       <c r="G787" s="12"/>
@@ -26679,7 +26686,7 @@
       <c r="AI787" s="1"/>
       <c r="AJ787" s="1"/>
     </row>
-    <row r="788" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="788" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E788" s="12"/>
       <c r="F788" s="14"/>
       <c r="G788" s="12"/>
@@ -26707,7 +26714,7 @@
       <c r="AI788" s="1"/>
       <c r="AJ788" s="1"/>
     </row>
-    <row r="789" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="789" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E789" s="12"/>
       <c r="F789" s="14"/>
       <c r="G789" s="12"/>
@@ -26735,7 +26742,7 @@
       <c r="AI789" s="1"/>
       <c r="AJ789" s="1"/>
     </row>
-    <row r="790" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="790" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E790" s="12"/>
       <c r="F790" s="14"/>
       <c r="G790" s="12"/>
@@ -26763,7 +26770,7 @@
       <c r="AI790" s="1"/>
       <c r="AJ790" s="1"/>
     </row>
-    <row r="791" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="791" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E791" s="12"/>
       <c r="F791" s="14"/>
       <c r="G791" s="12"/>
@@ -26791,7 +26798,7 @@
       <c r="AI791" s="1"/>
       <c r="AJ791" s="1"/>
     </row>
-    <row r="792" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="792" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E792" s="12"/>
       <c r="F792" s="14"/>
       <c r="G792" s="12"/>
@@ -26819,7 +26826,7 @@
       <c r="AI792" s="1"/>
       <c r="AJ792" s="1"/>
     </row>
-    <row r="793" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="793" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E793" s="12"/>
       <c r="F793" s="14"/>
       <c r="G793" s="12"/>
@@ -26847,7 +26854,7 @@
       <c r="AI793" s="1"/>
       <c r="AJ793" s="1"/>
     </row>
-    <row r="794" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="794" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E794" s="12"/>
       <c r="F794" s="14"/>
       <c r="G794" s="12"/>
@@ -26875,7 +26882,7 @@
       <c r="AI794" s="1"/>
       <c r="AJ794" s="1"/>
     </row>
-    <row r="795" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="795" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E795" s="12"/>
       <c r="F795" s="14"/>
       <c r="G795" s="12"/>
@@ -26903,7 +26910,7 @@
       <c r="AI795" s="1"/>
       <c r="AJ795" s="1"/>
     </row>
-    <row r="796" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="796" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E796" s="12"/>
       <c r="F796" s="14"/>
       <c r="G796" s="12"/>
@@ -26931,7 +26938,7 @@
       <c r="AI796" s="1"/>
       <c r="AJ796" s="1"/>
     </row>
-    <row r="797" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="797" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E797" s="12"/>
       <c r="F797" s="14"/>
       <c r="G797" s="12"/>
@@ -26959,7 +26966,7 @@
       <c r="AI797" s="1"/>
       <c r="AJ797" s="1"/>
     </row>
-    <row r="798" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="798" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E798" s="12"/>
       <c r="F798" s="14"/>
       <c r="G798" s="12"/>
@@ -26987,7 +26994,7 @@
       <c r="AI798" s="1"/>
       <c r="AJ798" s="1"/>
     </row>
-    <row r="799" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="799" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E799" s="12"/>
       <c r="F799" s="14"/>
       <c r="G799" s="12"/>
@@ -27015,7 +27022,7 @@
       <c r="AI799" s="1"/>
       <c r="AJ799" s="1"/>
     </row>
-    <row r="800" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="800" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E800" s="12"/>
       <c r="F800" s="14"/>
       <c r="G800" s="12"/>
@@ -27043,7 +27050,7 @@
       <c r="AI800" s="1"/>
       <c r="AJ800" s="1"/>
     </row>
-    <row r="801" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="801" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E801" s="12"/>
       <c r="F801" s="14"/>
       <c r="G801" s="12"/>
@@ -27071,7 +27078,7 @@
       <c r="AI801" s="1"/>
       <c r="AJ801" s="1"/>
     </row>
-    <row r="802" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="802" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E802" s="12"/>
       <c r="F802" s="14"/>
       <c r="G802" s="12"/>
@@ -27099,7 +27106,7 @@
       <c r="AI802" s="1"/>
       <c r="AJ802" s="1"/>
     </row>
-    <row r="803" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="803" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E803" s="12"/>
       <c r="F803" s="14"/>
       <c r="G803" s="12"/>
@@ -27127,7 +27134,7 @@
       <c r="AI803" s="1"/>
       <c r="AJ803" s="1"/>
     </row>
-    <row r="804" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="804" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E804" s="12"/>
       <c r="F804" s="14"/>
       <c r="G804" s="12"/>
@@ -27155,7 +27162,7 @@
       <c r="AI804" s="1"/>
       <c r="AJ804" s="1"/>
     </row>
-    <row r="805" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="805" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E805" s="12"/>
       <c r="F805" s="14"/>
       <c r="G805" s="12"/>
@@ -27183,7 +27190,7 @@
       <c r="AI805" s="1"/>
       <c r="AJ805" s="1"/>
     </row>
-    <row r="806" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="806" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E806" s="12"/>
       <c r="F806" s="14"/>
       <c r="G806" s="12"/>
@@ -27211,7 +27218,7 @@
       <c r="AI806" s="1"/>
       <c r="AJ806" s="1"/>
     </row>
-    <row r="807" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="807" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E807" s="12"/>
       <c r="F807" s="14"/>
       <c r="G807" s="12"/>
@@ -27239,7 +27246,7 @@
       <c r="AI807" s="1"/>
       <c r="AJ807" s="1"/>
     </row>
-    <row r="808" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="808" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E808" s="12"/>
       <c r="F808" s="14"/>
       <c r="G808" s="12"/>
@@ -27267,7 +27274,7 @@
       <c r="AI808" s="1"/>
       <c r="AJ808" s="1"/>
     </row>
-    <row r="809" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="809" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E809" s="12"/>
       <c r="F809" s="14"/>
       <c r="G809" s="12"/>
@@ -27295,7 +27302,7 @@
       <c r="AI809" s="1"/>
       <c r="AJ809" s="1"/>
     </row>
-    <row r="810" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="810" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E810" s="12"/>
       <c r="F810" s="14"/>
       <c r="G810" s="12"/>
@@ -27323,7 +27330,7 @@
       <c r="AI810" s="1"/>
       <c r="AJ810" s="1"/>
     </row>
-    <row r="811" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="811" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E811" s="12"/>
       <c r="F811" s="14"/>
       <c r="G811" s="12"/>
@@ -27351,7 +27358,7 @@
       <c r="AI811" s="1"/>
       <c r="AJ811" s="1"/>
     </row>
-    <row r="812" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="812" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E812" s="12"/>
       <c r="F812" s="14"/>
       <c r="G812" s="12"/>
@@ -27379,7 +27386,7 @@
       <c r="AI812" s="1"/>
       <c r="AJ812" s="1"/>
     </row>
-    <row r="813" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="813" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E813" s="12"/>
       <c r="F813" s="14"/>
       <c r="G813" s="12"/>
@@ -27407,7 +27414,7 @@
       <c r="AI813" s="1"/>
       <c r="AJ813" s="1"/>
     </row>
-    <row r="814" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="814" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E814" s="12"/>
       <c r="F814" s="14"/>
       <c r="G814" s="12"/>
@@ -27435,7 +27442,7 @@
       <c r="AI814" s="1"/>
       <c r="AJ814" s="1"/>
     </row>
-    <row r="815" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="815" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E815" s="12"/>
       <c r="F815" s="14"/>
       <c r="G815" s="12"/>
@@ -27463,7 +27470,7 @@
       <c r="AI815" s="1"/>
       <c r="AJ815" s="1"/>
     </row>
-    <row r="816" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="816" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E816" s="12"/>
       <c r="F816" s="14"/>
       <c r="G816" s="12"/>
@@ -27491,7 +27498,7 @@
       <c r="AI816" s="1"/>
       <c r="AJ816" s="1"/>
     </row>
-    <row r="817" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="817" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E817" s="12"/>
       <c r="F817" s="14"/>
       <c r="G817" s="12"/>
@@ -27519,7 +27526,7 @@
       <c r="AI817" s="1"/>
       <c r="AJ817" s="1"/>
     </row>
-    <row r="818" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="818" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E818" s="12"/>
       <c r="F818" s="14"/>
       <c r="G818" s="12"/>
@@ -27547,7 +27554,7 @@
       <c r="AI818" s="1"/>
       <c r="AJ818" s="1"/>
     </row>
-    <row r="819" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="819" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E819" s="12"/>
       <c r="F819" s="14"/>
       <c r="G819" s="12"/>
@@ -27575,7 +27582,7 @@
       <c r="AI819" s="1"/>
       <c r="AJ819" s="1"/>
     </row>
-    <row r="820" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="820" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E820" s="12"/>
       <c r="F820" s="14"/>
       <c r="G820" s="12"/>
@@ -27603,7 +27610,7 @@
       <c r="AI820" s="1"/>
       <c r="AJ820" s="1"/>
     </row>
-    <row r="821" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="821" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E821" s="12"/>
       <c r="F821" s="14"/>
       <c r="G821" s="12"/>
@@ -27631,7 +27638,7 @@
       <c r="AI821" s="1"/>
       <c r="AJ821" s="1"/>
     </row>
-    <row r="822" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="822" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E822" s="12"/>
       <c r="F822" s="14"/>
       <c r="G822" s="12"/>
@@ -27659,7 +27666,7 @@
       <c r="AI822" s="1"/>
       <c r="AJ822" s="1"/>
     </row>
-    <row r="823" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="823" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E823" s="12"/>
       <c r="F823" s="14"/>
       <c r="G823" s="12"/>
@@ -27687,7 +27694,7 @@
       <c r="AI823" s="1"/>
       <c r="AJ823" s="1"/>
     </row>
-    <row r="824" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="824" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E824" s="12"/>
       <c r="F824" s="14"/>
       <c r="G824" s="12"/>
@@ -27715,7 +27722,7 @@
       <c r="AI824" s="1"/>
       <c r="AJ824" s="1"/>
     </row>
-    <row r="825" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="825" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E825" s="12"/>
       <c r="F825" s="14"/>
       <c r="G825" s="12"/>
@@ -27743,7 +27750,7 @@
       <c r="AI825" s="1"/>
       <c r="AJ825" s="1"/>
     </row>
-    <row r="826" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="826" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E826" s="12"/>
       <c r="F826" s="14"/>
       <c r="G826" s="12"/>
@@ -27771,7 +27778,7 @@
       <c r="AI826" s="1"/>
       <c r="AJ826" s="1"/>
     </row>
-    <row r="827" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="827" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E827" s="12"/>
       <c r="F827" s="14"/>
       <c r="G827" s="12"/>
@@ -27799,7 +27806,7 @@
       <c r="AI827" s="1"/>
       <c r="AJ827" s="1"/>
     </row>
-    <row r="828" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="828" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E828" s="12"/>
       <c r="F828" s="14"/>
       <c r="G828" s="12"/>
@@ -27827,7 +27834,7 @@
       <c r="AI828" s="1"/>
       <c r="AJ828" s="1"/>
     </row>
-    <row r="829" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="829" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E829" s="12"/>
       <c r="F829" s="14"/>
       <c r="G829" s="12"/>
@@ -27855,7 +27862,7 @@
       <c r="AI829" s="1"/>
       <c r="AJ829" s="1"/>
     </row>
-    <row r="830" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="830" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E830" s="12"/>
       <c r="F830" s="14"/>
       <c r="G830" s="12"/>
@@ -27883,7 +27890,7 @@
       <c r="AI830" s="1"/>
       <c r="AJ830" s="1"/>
     </row>
-    <row r="831" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="831" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E831" s="12"/>
       <c r="F831" s="14"/>
       <c r="G831" s="12"/>
@@ -27911,7 +27918,7 @@
       <c r="AI831" s="1"/>
       <c r="AJ831" s="1"/>
     </row>
-    <row r="832" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="832" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E832" s="12"/>
       <c r="F832" s="14"/>
       <c r="G832" s="12"/>
@@ -27939,7 +27946,7 @@
       <c r="AI832" s="1"/>
       <c r="AJ832" s="1"/>
     </row>
-    <row r="833" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="833" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E833" s="12"/>
       <c r="F833" s="14"/>
       <c r="G833" s="12"/>
@@ -27967,7 +27974,7 @@
       <c r="AI833" s="1"/>
       <c r="AJ833" s="1"/>
     </row>
-    <row r="834" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="834" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E834" s="12"/>
       <c r="F834" s="14"/>
       <c r="G834" s="12"/>
@@ -27995,7 +28002,7 @@
       <c r="AI834" s="1"/>
       <c r="AJ834" s="1"/>
     </row>
-    <row r="835" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="835" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E835" s="12"/>
       <c r="F835" s="14"/>
       <c r="G835" s="12"/>
@@ -28023,7 +28030,7 @@
       <c r="AI835" s="1"/>
       <c r="AJ835" s="1"/>
     </row>
-    <row r="836" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="836" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E836" s="12"/>
       <c r="F836" s="14"/>
       <c r="G836" s="12"/>
@@ -28051,7 +28058,7 @@
       <c r="AI836" s="1"/>
       <c r="AJ836" s="1"/>
     </row>
-    <row r="837" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="837" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E837" s="12"/>
       <c r="F837" s="14"/>
       <c r="G837" s="12"/>
@@ -28079,7 +28086,7 @@
       <c r="AI837" s="1"/>
       <c r="AJ837" s="1"/>
     </row>
-    <row r="838" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="838" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E838" s="12"/>
       <c r="F838" s="14"/>
       <c r="G838" s="12"/>
@@ -28107,7 +28114,7 @@
       <c r="AI838" s="1"/>
       <c r="AJ838" s="1"/>
     </row>
-    <row r="839" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="839" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E839" s="12"/>
       <c r="F839" s="14"/>
       <c r="G839" s="12"/>
@@ -28135,7 +28142,7 @@
       <c r="AI839" s="1"/>
       <c r="AJ839" s="1"/>
     </row>
-    <row r="840" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="840" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E840" s="12"/>
       <c r="F840" s="14"/>
       <c r="G840" s="12"/>
@@ -28163,7 +28170,7 @@
       <c r="AI840" s="1"/>
       <c r="AJ840" s="1"/>
     </row>
-    <row r="841" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="841" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E841" s="12"/>
       <c r="F841" s="14"/>
       <c r="G841" s="12"/>
@@ -28191,7 +28198,7 @@
       <c r="AI841" s="1"/>
       <c r="AJ841" s="1"/>
     </row>
-    <row r="842" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="842" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E842" s="12"/>
       <c r="F842" s="14"/>
       <c r="G842" s="12"/>
@@ -28219,7 +28226,7 @@
       <c r="AI842" s="1"/>
       <c r="AJ842" s="1"/>
     </row>
-    <row r="843" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="843" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E843" s="12"/>
       <c r="F843" s="14"/>
       <c r="G843" s="12"/>
@@ -28247,7 +28254,7 @@
       <c r="AI843" s="1"/>
       <c r="AJ843" s="1"/>
     </row>
-    <row r="844" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="844" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E844" s="12"/>
       <c r="F844" s="14"/>
       <c r="G844" s="12"/>
@@ -28275,7 +28282,7 @@
       <c r="AI844" s="1"/>
       <c r="AJ844" s="1"/>
     </row>
-    <row r="845" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="845" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E845" s="12"/>
       <c r="F845" s="14"/>
       <c r="G845" s="12"/>
@@ -28303,7 +28310,7 @@
       <c r="AI845" s="1"/>
       <c r="AJ845" s="1"/>
     </row>
-    <row r="846" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="846" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E846" s="12"/>
       <c r="F846" s="14"/>
       <c r="G846" s="12"/>
@@ -28331,7 +28338,7 @@
       <c r="AI846" s="1"/>
       <c r="AJ846" s="1"/>
     </row>
-    <row r="847" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="847" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E847" s="12"/>
       <c r="F847" s="14"/>
       <c r="G847" s="12"/>
@@ -28359,7 +28366,7 @@
       <c r="AI847" s="1"/>
       <c r="AJ847" s="1"/>
     </row>
-    <row r="848" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="848" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E848" s="12"/>
       <c r="F848" s="14"/>
       <c r="G848" s="12"/>
@@ -28387,7 +28394,7 @@
       <c r="AI848" s="1"/>
       <c r="AJ848" s="1"/>
     </row>
-    <row r="849" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="849" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E849" s="12"/>
       <c r="F849" s="14"/>
       <c r="G849" s="12"/>
@@ -28415,7 +28422,7 @@
       <c r="AI849" s="1"/>
       <c r="AJ849" s="1"/>
     </row>
-    <row r="850" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="850" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E850" s="12"/>
       <c r="F850" s="14"/>
       <c r="G850" s="12"/>
@@ -28443,7 +28450,7 @@
       <c r="AI850" s="1"/>
       <c r="AJ850" s="1"/>
     </row>
-    <row r="851" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="851" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E851" s="12"/>
       <c r="F851" s="14"/>
       <c r="G851" s="12"/>
@@ -28471,7 +28478,7 @@
       <c r="AI851" s="1"/>
       <c r="AJ851" s="1"/>
     </row>
-    <row r="852" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="852" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E852" s="12"/>
       <c r="F852" s="14"/>
       <c r="G852" s="12"/>
@@ -28499,7 +28506,7 @@
       <c r="AI852" s="1"/>
       <c r="AJ852" s="1"/>
     </row>
-    <row r="853" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="853" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E853" s="12"/>
       <c r="F853" s="14"/>
       <c r="G853" s="12"/>
@@ -28527,7 +28534,7 @@
       <c r="AI853" s="1"/>
       <c r="AJ853" s="1"/>
     </row>
-    <row r="854" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="854" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E854" s="12"/>
       <c r="F854" s="14"/>
       <c r="G854" s="12"/>
@@ -28555,7 +28562,7 @@
       <c r="AI854" s="1"/>
       <c r="AJ854" s="1"/>
     </row>
-    <row r="855" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="855" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E855" s="12"/>
       <c r="F855" s="14"/>
       <c r="G855" s="12"/>
@@ -28583,7 +28590,7 @@
       <c r="AI855" s="1"/>
       <c r="AJ855" s="1"/>
     </row>
-    <row r="856" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="856" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E856" s="12"/>
       <c r="F856" s="14"/>
       <c r="G856" s="12"/>
@@ -28611,7 +28618,7 @@
       <c r="AI856" s="1"/>
       <c r="AJ856" s="1"/>
     </row>
-    <row r="857" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="857" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E857" s="12"/>
       <c r="F857" s="14"/>
       <c r="G857" s="12"/>
@@ -28639,7 +28646,7 @@
       <c r="AI857" s="1"/>
       <c r="AJ857" s="1"/>
     </row>
-    <row r="858" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="858" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E858" s="12"/>
       <c r="F858" s="14"/>
       <c r="G858" s="12"/>
@@ -28667,7 +28674,7 @@
       <c r="AI858" s="1"/>
       <c r="AJ858" s="1"/>
     </row>
-    <row r="859" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="859" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E859" s="12"/>
       <c r="F859" s="14"/>
       <c r="G859" s="12"/>
@@ -28695,7 +28702,7 @@
       <c r="AI859" s="1"/>
       <c r="AJ859" s="1"/>
     </row>
-    <row r="860" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="860" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E860" s="12"/>
       <c r="F860" s="14"/>
       <c r="G860" s="12"/>
@@ -28723,7 +28730,7 @@
       <c r="AI860" s="1"/>
       <c r="AJ860" s="1"/>
     </row>
-    <row r="861" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="861" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E861" s="12"/>
       <c r="F861" s="14"/>
       <c r="G861" s="12"/>
@@ -28751,7 +28758,7 @@
       <c r="AI861" s="1"/>
       <c r="AJ861" s="1"/>
     </row>
-    <row r="862" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="862" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E862" s="12"/>
       <c r="F862" s="14"/>
       <c r="G862" s="12"/>
@@ -28779,7 +28786,7 @@
       <c r="AI862" s="1"/>
       <c r="AJ862" s="1"/>
     </row>
-    <row r="863" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="863" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E863" s="12"/>
       <c r="F863" s="14"/>
       <c r="G863" s="12"/>
@@ -28807,7 +28814,7 @@
       <c r="AI863" s="1"/>
       <c r="AJ863" s="1"/>
     </row>
-    <row r="864" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="864" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E864" s="12"/>
       <c r="F864" s="14"/>
       <c r="G864" s="12"/>
@@ -28835,7 +28842,7 @@
       <c r="AI864" s="1"/>
       <c r="AJ864" s="1"/>
     </row>
-    <row r="865" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="865" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E865" s="12"/>
       <c r="F865" s="14"/>
       <c r="G865" s="12"/>
@@ -28863,7 +28870,7 @@
       <c r="AI865" s="1"/>
       <c r="AJ865" s="1"/>
     </row>
-    <row r="866" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="866" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E866" s="12"/>
       <c r="F866" s="14"/>
       <c r="G866" s="12"/>
@@ -28891,7 +28898,7 @@
       <c r="AI866" s="1"/>
       <c r="AJ866" s="1"/>
     </row>
-    <row r="867" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="867" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E867" s="12"/>
       <c r="F867" s="14"/>
       <c r="G867" s="12"/>
@@ -28919,7 +28926,7 @@
       <c r="AI867" s="1"/>
       <c r="AJ867" s="1"/>
     </row>
-    <row r="868" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="868" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E868" s="12"/>
       <c r="F868" s="14"/>
       <c r="G868" s="12"/>
@@ -28947,7 +28954,7 @@
       <c r="AI868" s="1"/>
       <c r="AJ868" s="1"/>
     </row>
-    <row r="869" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="869" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E869" s="12"/>
       <c r="F869" s="14"/>
       <c r="G869" s="12"/>
@@ -28975,7 +28982,7 @@
       <c r="AI869" s="1"/>
       <c r="AJ869" s="1"/>
     </row>
-    <row r="870" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="870" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E870" s="12"/>
       <c r="F870" s="14"/>
       <c r="G870" s="12"/>
@@ -29003,7 +29010,7 @@
       <c r="AI870" s="1"/>
       <c r="AJ870" s="1"/>
     </row>
-    <row r="871" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="871" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E871" s="12"/>
       <c r="F871" s="14"/>
       <c r="G871" s="12"/>
@@ -29031,7 +29038,7 @@
       <c r="AI871" s="1"/>
       <c r="AJ871" s="1"/>
     </row>
-    <row r="872" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="872" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E872" s="12"/>
       <c r="F872" s="14"/>
       <c r="G872" s="12"/>
@@ -29059,7 +29066,7 @@
       <c r="AI872" s="1"/>
       <c r="AJ872" s="1"/>
     </row>
-    <row r="873" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="873" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E873" s="12"/>
       <c r="F873" s="14"/>
       <c r="G873" s="12"/>
@@ -29087,7 +29094,7 @@
       <c r="AI873" s="1"/>
       <c r="AJ873" s="1"/>
     </row>
-    <row r="874" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="874" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E874" s="12"/>
       <c r="F874" s="14"/>
       <c r="G874" s="12"/>
@@ -29115,7 +29122,7 @@
       <c r="AI874" s="1"/>
       <c r="AJ874" s="1"/>
     </row>
-    <row r="875" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="875" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E875" s="12"/>
       <c r="F875" s="14"/>
       <c r="G875" s="12"/>
@@ -29143,7 +29150,7 @@
       <c r="AI875" s="1"/>
       <c r="AJ875" s="1"/>
     </row>
-    <row r="876" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="876" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E876" s="12"/>
       <c r="F876" s="14"/>
       <c r="G876" s="12"/>
@@ -29171,7 +29178,7 @@
       <c r="AI876" s="1"/>
       <c r="AJ876" s="1"/>
     </row>
-    <row r="877" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="877" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E877" s="12"/>
       <c r="F877" s="14"/>
       <c r="G877" s="12"/>
@@ -29199,7 +29206,7 @@
       <c r="AI877" s="1"/>
       <c r="AJ877" s="1"/>
     </row>
-    <row r="878" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="878" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E878" s="12"/>
       <c r="F878" s="14"/>
       <c r="G878" s="12"/>
@@ -29227,7 +29234,7 @@
       <c r="AI878" s="1"/>
       <c r="AJ878" s="1"/>
     </row>
-    <row r="879" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="879" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E879" s="12"/>
       <c r="F879" s="14"/>
       <c r="G879" s="12"/>
@@ -29255,7 +29262,7 @@
       <c r="AI879" s="1"/>
       <c r="AJ879" s="1"/>
     </row>
-    <row r="880" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="880" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E880" s="12"/>
       <c r="F880" s="14"/>
       <c r="G880" s="12"/>
@@ -29283,7 +29290,7 @@
       <c r="AI880" s="1"/>
       <c r="AJ880" s="1"/>
     </row>
-    <row r="881" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="881" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E881" s="12"/>
       <c r="F881" s="14"/>
       <c r="G881" s="12"/>
@@ -29311,7 +29318,7 @@
       <c r="AI881" s="1"/>
       <c r="AJ881" s="1"/>
     </row>
-    <row r="882" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="882" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E882" s="12"/>
       <c r="F882" s="14"/>
       <c r="G882" s="12"/>
@@ -29339,7 +29346,7 @@
       <c r="AI882" s="1"/>
       <c r="AJ882" s="1"/>
     </row>
-    <row r="883" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="883" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E883" s="12"/>
       <c r="F883" s="14"/>
       <c r="G883" s="12"/>
@@ -29367,7 +29374,7 @@
       <c r="AI883" s="1"/>
       <c r="AJ883" s="1"/>
     </row>
-    <row r="884" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="884" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E884" s="12"/>
       <c r="F884" s="14"/>
       <c r="G884" s="12"/>
@@ -29395,7 +29402,7 @@
       <c r="AI884" s="1"/>
       <c r="AJ884" s="1"/>
     </row>
-    <row r="885" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="885" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E885" s="12"/>
       <c r="F885" s="14"/>
       <c r="G885" s="12"/>
@@ -29423,7 +29430,7 @@
       <c r="AI885" s="1"/>
       <c r="AJ885" s="1"/>
     </row>
-    <row r="886" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="886" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E886" s="12"/>
       <c r="F886" s="14"/>
       <c r="G886" s="12"/>
@@ -29451,7 +29458,7 @@
       <c r="AI886" s="1"/>
       <c r="AJ886" s="1"/>
     </row>
-    <row r="887" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="887" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E887" s="12"/>
       <c r="F887" s="14"/>
       <c r="G887" s="12"/>
@@ -29479,7 +29486,7 @@
       <c r="AI887" s="1"/>
       <c r="AJ887" s="1"/>
     </row>
-    <row r="888" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="888" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E888" s="12"/>
       <c r="F888" s="14"/>
       <c r="G888" s="12"/>
@@ -29507,7 +29514,7 @@
       <c r="AI888" s="1"/>
       <c r="AJ888" s="1"/>
     </row>
-    <row r="889" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="889" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E889" s="12"/>
       <c r="F889" s="14"/>
       <c r="G889" s="12"/>
@@ -29535,7 +29542,7 @@
       <c r="AI889" s="1"/>
       <c r="AJ889" s="1"/>
     </row>
-    <row r="890" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="890" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E890" s="12"/>
       <c r="F890" s="14"/>
       <c r="G890" s="12"/>
@@ -29563,7 +29570,7 @@
       <c r="AI890" s="1"/>
       <c r="AJ890" s="1"/>
     </row>
-    <row r="891" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="891" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E891" s="12"/>
       <c r="F891" s="14"/>
       <c r="G891" s="12"/>
@@ -29591,7 +29598,7 @@
       <c r="AI891" s="1"/>
       <c r="AJ891" s="1"/>
     </row>
-    <row r="892" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="892" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E892" s="12"/>
       <c r="F892" s="14"/>
       <c r="G892" s="12"/>
@@ -29619,7 +29626,7 @@
       <c r="AI892" s="1"/>
       <c r="AJ892" s="1"/>
     </row>
-    <row r="893" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="893" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E893" s="12"/>
       <c r="F893" s="14"/>
       <c r="G893" s="12"/>
@@ -29647,7 +29654,7 @@
       <c r="AI893" s="1"/>
       <c r="AJ893" s="1"/>
     </row>
-    <row r="894" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="894" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E894" s="12"/>
       <c r="F894" s="14"/>
       <c r="G894" s="12"/>
@@ -29675,7 +29682,7 @@
       <c r="AI894" s="1"/>
       <c r="AJ894" s="1"/>
     </row>
-    <row r="895" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="895" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E895" s="12"/>
       <c r="F895" s="14"/>
       <c r="G895" s="12"/>
@@ -29703,7 +29710,7 @@
       <c r="AI895" s="1"/>
       <c r="AJ895" s="1"/>
     </row>
-    <row r="896" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="896" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E896" s="12"/>
       <c r="F896" s="14"/>
       <c r="G896" s="12"/>
@@ -29731,7 +29738,7 @@
       <c r="AI896" s="1"/>
       <c r="AJ896" s="1"/>
     </row>
-    <row r="897" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="897" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E897" s="12"/>
       <c r="F897" s="14"/>
       <c r="G897" s="12"/>
@@ -29759,7 +29766,7 @@
       <c r="AI897" s="1"/>
       <c r="AJ897" s="1"/>
     </row>
-    <row r="898" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="898" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E898" s="12"/>
       <c r="F898" s="14"/>
       <c r="G898" s="12"/>
@@ -29787,7 +29794,7 @@
       <c r="AI898" s="1"/>
       <c r="AJ898" s="1"/>
     </row>
-    <row r="899" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="899" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E899" s="12"/>
       <c r="F899" s="14"/>
       <c r="G899" s="12"/>
@@ -29815,7 +29822,7 @@
       <c r="AI899" s="1"/>
       <c r="AJ899" s="1"/>
     </row>
-    <row r="900" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="900" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E900" s="12"/>
       <c r="F900" s="14"/>
       <c r="G900" s="12"/>
@@ -29843,7 +29850,7 @@
       <c r="AI900" s="1"/>
       <c r="AJ900" s="1"/>
     </row>
-    <row r="901" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="901" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E901" s="12"/>
       <c r="F901" s="14"/>
       <c r="G901" s="12"/>
@@ -29871,7 +29878,7 @@
       <c r="AI901" s="1"/>
       <c r="AJ901" s="1"/>
     </row>
-    <row r="902" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="902" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E902" s="12"/>
       <c r="F902" s="14"/>
       <c r="G902" s="12"/>
@@ -29899,7 +29906,7 @@
       <c r="AI902" s="1"/>
       <c r="AJ902" s="1"/>
     </row>
-    <row r="903" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="903" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E903" s="12"/>
       <c r="F903" s="14"/>
       <c r="G903" s="12"/>
@@ -29927,7 +29934,7 @@
       <c r="AI903" s="1"/>
       <c r="AJ903" s="1"/>
     </row>
-    <row r="904" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="904" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E904" s="12"/>
       <c r="F904" s="14"/>
       <c r="G904" s="12"/>
@@ -29955,7 +29962,7 @@
       <c r="AI904" s="1"/>
       <c r="AJ904" s="1"/>
     </row>
-    <row r="905" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="905" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E905" s="12"/>
       <c r="F905" s="14"/>
       <c r="G905" s="12"/>
@@ -29983,7 +29990,7 @@
       <c r="AI905" s="1"/>
       <c r="AJ905" s="1"/>
     </row>
-    <row r="906" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="906" spans="5:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="E906" s="12"/>
       <c r="F906" s="14"/>
       <c r="G906" s="12"/>
@@ -30053,71 +30060,71 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="255.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="255.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="263.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="344.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="344.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="156.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
@@ -30136,13 +30143,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.140625" customWidth="1"/>
-    <col min="2" max="2" width="112.5703125" customWidth="1"/>
+    <col min="1" max="1" width="46.109375" customWidth="1"/>
+    <col min="2" max="2" width="112.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -30153,7 +30160,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>85</v>
       </c>
@@ -30161,7 +30168,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>87</v>
       </c>
@@ -30169,7 +30176,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>92</v>
       </c>
@@ -30177,7 +30184,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>95</v>
       </c>
@@ -30185,7 +30192,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>97</v>
       </c>
@@ -30193,7 +30200,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>99</v>
       </c>
@@ -30202,7 +30209,7 @@
       </c>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>100</v>
       </c>
@@ -30210,7 +30217,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>102</v>
       </c>
@@ -30218,7 +30225,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>103</v>
       </c>
@@ -30226,7 +30233,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>104</v>
       </c>
@@ -30234,7 +30241,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>107</v>
       </c>
@@ -30242,7 +30249,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>108</v>
       </c>
@@ -30250,7 +30257,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>109</v>
       </c>
@@ -30275,13 +30282,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -30289,17 +30296,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -30307,12 +30314,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -30320,12 +30327,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>69</v>
       </c>
@@ -30336,12 +30343,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006E14564BD24A2E4D868D06E4AD22B82C" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="641636ff6df86ef94f0048c8b62768a0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7376f322-e02c-40d1-a696-1506b905dc54" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f7f1566436fb44a1a296f8adeb44e61" ns2:_="">
     <xsd:import namespace="7376f322-e02c-40d1-a696-1506b905dc54"/>
@@ -30505,6 +30506,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -30515,15 +30522,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78AEDDEC-4FE3-4C43-A367-607C4054A3EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7409C9B-AB74-4A12-B1CF-8812B8E435C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30541,6 +30539,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78AEDDEC-4FE3-4C43-A367-607C4054A3EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E00AB27-C081-4D8A-8B9B-119B57ADCC20}">
   <ds:schemaRefs>
